--- a/Data/Guaranteed Rate Test Data.xlsx
+++ b/Data/Guaranteed Rate Test Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\Executive Resumes\Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\Documents\GitHub\GuaranteedRate.git\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2920" uniqueCount="2155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2924" uniqueCount="2159">
   <si>
     <t>FavoriteColor</t>
   </si>
@@ -6500,6 +6500,18 @@
   </si>
   <si>
     <t>Orange_red</t>
+  </si>
+  <si>
+    <t>First length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max: </t>
+  </si>
+  <si>
+    <t>Last Length</t>
+  </si>
+  <si>
+    <t>Color Length</t>
   </si>
 </sst>
 </file>
@@ -10827,7 +10839,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="711">
+  <cellXfs count="712">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
@@ -12949,60 +12961,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <name val="Inherit"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <name val="Inherit"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -13174,6 +13141,54 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF777777"/>
+        <name val="Inherit"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF777777"/>
+        <name val="Inherit"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -13188,20 +13203,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="Q1:X747" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="Q1:X747" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7">
   <autoFilter ref="Q1:X747"/>
   <sortState ref="Q2:X747">
     <sortCondition ref="Q1:Q747"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" name="Color name"/>
-    <tableColumn id="2" name="Hex" dataDxfId="8" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" name="Red" dataDxfId="7"/>
-    <tableColumn id="4" name="Green" dataDxfId="6"/>
-    <tableColumn id="5" name="Blue" dataDxfId="5"/>
-    <tableColumn id="6" name="Hue" dataDxfId="4"/>
-    <tableColumn id="7" name="Saturation" dataDxfId="3"/>
-    <tableColumn id="8" name="Lightness" dataDxfId="2"/>
+    <tableColumn id="2" name="Hex" dataDxfId="6" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" name="Red" dataDxfId="5"/>
+    <tableColumn id="4" name="Green" dataDxfId="4"/>
+    <tableColumn id="5" name="Blue" dataDxfId="3"/>
+    <tableColumn id="6" name="Hue" dataDxfId="2"/>
+    <tableColumn id="7" name="Saturation" dataDxfId="1"/>
+    <tableColumn id="8" name="Lightness" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13470,4071 +13485,5707 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J135"/>
+  <dimension ref="A1:M137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H42" sqref="H2:H42"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="G136" sqref="G136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" style="6" customWidth="1"/>
-    <col min="2" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="6" width="29.28515625" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
-    <col min="8" max="10" width="55.28515625" customWidth="1"/>
+    <col min="1" max="2" width="19.42578125" style="6" customWidth="1"/>
+    <col min="3" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="7" width="29.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="7" customWidth="1"/>
+    <col min="11" max="13" width="55.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1">
       <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="8" t="s">
+        <v>2155</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>2157</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>2158</v>
+      </c>
+      <c r="H1" t="s">
         <v>2063</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>2064</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>2065</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>2060</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>2061</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>2062</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1">
+    <row r="2" spans="1:13" ht="15.75" thickBot="1">
       <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="711">
+        <f>LEN(A2)</f>
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>54</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="711">
+        <f>LEN(C2)</f>
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
         <v>91</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>93</v>
       </c>
-      <c r="E2">
+      <c r="G2" s="711">
+        <f>LEN(F2)</f>
+        <v>3</v>
+      </c>
+      <c r="H2">
         <f ca="1" xml:space="preserve"> _xlfn.CEILING.MATH(RAND()*11 + 1)</f>
-        <v>6</v>
-      </c>
-      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="I2">
         <f ca="1" xml:space="preserve"> _xlfn.CEILING.MATH(RAND()*27 + 1)</f>
-        <v>13</v>
-      </c>
-      <c r="G2" s="710">
+        <v>7</v>
+      </c>
+      <c r="J2" s="710">
         <f ca="1">_xlfn.CEILING.MATH(RAND()*75 + 1940)</f>
-        <v>1945</v>
-      </c>
-      <c r="H2" t="str">
-        <f ca="1">$A2&amp;H$1&amp;$B2&amp;H$1&amp;$C2&amp;H$1&amp;$D2&amp;H$1&amp;$E2&amp;"/"&amp;$F2&amp;"/"&amp;$G2</f>
-        <v>James|Smith|Male|Red|6/13/1945</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1">
+        <v>1975</v>
+      </c>
+      <c r="K2" t="str">
+        <f ca="1">$A2&amp;K$1&amp;$C2&amp;K$1&amp;$E2&amp;K$1&amp;$F2&amp;K$1&amp;$H2&amp;"/"&amp;$I2&amp;"/"&amp;$J2</f>
+        <v>James|Smith|Male|Red|3/7/1975</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="711">
+        <f t="shared" ref="B3:B66" si="0">LEN(A3)</f>
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
         <v>55</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="711">
+        <f t="shared" ref="D3:D66" si="1">LEN(C3)</f>
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
         <v>91</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>94</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E66" ca="1" si="0" xml:space="preserve"> _xlfn.CEILING.MATH(RAND()*11 + 1)</f>
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F66" ca="1" si="1" xml:space="preserve"> _xlfn.CEILING.MATH(RAND()*27 + 1)</f>
-        <v>24</v>
-      </c>
-      <c r="G3" s="710">
-        <f t="shared" ref="G3:G66" ca="1" si="2">_xlfn.CEILING.MATH(RAND()*75 + 1940)</f>
-        <v>1951</v>
-      </c>
-      <c r="H3" t="str">
-        <f t="shared" ref="H3:I44" ca="1" si="3">$A3&amp;H$1&amp;$B3&amp;H$1&amp;$C3&amp;H$1&amp;$D3&amp;H$1&amp;$E3&amp;"/"&amp;$F3&amp;"/"&amp;$G3</f>
-        <v>John|Johnson|Male|Orange|3/24/1951</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1">
+      <c r="G3" s="711">
+        <f t="shared" ref="G3:G66" si="2">LEN(F3)</f>
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H66" ca="1" si="3" xml:space="preserve"> _xlfn.CEILING.MATH(RAND()*11 + 1)</f>
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I66" ca="1" si="4" xml:space="preserve"> _xlfn.CEILING.MATH(RAND()*27 + 1)</f>
+        <v>12</v>
+      </c>
+      <c r="J3" s="710">
+        <f t="shared" ref="J3:J66" ca="1" si="5">_xlfn.CEILING.MATH(RAND()*75 + 1940)</f>
+        <v>1960</v>
+      </c>
+      <c r="K3" t="str">
+        <f ca="1">$A3&amp;K$1&amp;$C3&amp;K$1&amp;$E3&amp;K$1&amp;$F3&amp;K$1&amp;$H3&amp;"/"&amp;$I3&amp;"/"&amp;$J3</f>
+        <v>John|Johnson|Male|Orange|4/12/1960</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" thickBot="1">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="711">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
         <v>56</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="711">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
         <v>91</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>95</v>
       </c>
-      <c r="E4">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <f t="shared" ca="1" si="1"/>
+      <c r="G4" s="711">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="G4" s="710">
-        <f t="shared" ca="1" si="2"/>
-        <v>1981</v>
-      </c>
-      <c r="H4" t="str">
+      <c r="H4">
         <f t="shared" ca="1" si="3"/>
-        <v>Robert|Williams|Male|Yellow|3/6/1981</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ca="1" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="J4" s="710">
+        <f t="shared" ca="1" si="5"/>
+        <v>1960</v>
+      </c>
+      <c r="K4" t="str">
+        <f ca="1">$A4&amp;K$1&amp;$C4&amp;K$1&amp;$E4&amp;K$1&amp;$F4&amp;K$1&amp;$H4&amp;"/"&amp;$I4&amp;"/"&amp;$J4</f>
+        <v>Robert|Williams|Male|Yellow|10/14/1960</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" thickBot="1">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="711">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
         <v>57</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="711">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
         <v>91</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>87</v>
       </c>
-      <c r="E5">
-        <f t="shared" ca="1" si="0"/>
+      <c r="G5" s="711">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ca="1" si="3"/>
         <v>2</v>
       </c>
-      <c r="F5">
-        <f t="shared" ca="1" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="G5" s="710">
-        <f t="shared" ca="1" si="2"/>
-        <v>1947</v>
-      </c>
-      <c r="H5" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Michael|Jones|Male|Green|2/22/1947</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1">
+      <c r="I5">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="J5" s="710">
+        <f t="shared" ca="1" si="5"/>
+        <v>1946</v>
+      </c>
+      <c r="K5" t="str">
+        <f ca="1">$A5&amp;K$1&amp;$C5&amp;K$1&amp;$E5&amp;K$1&amp;$F5&amp;K$1&amp;$H5&amp;"/"&amp;$I5&amp;"/"&amp;$J5</f>
+        <v>Michael|Jones|Male|Green|2/4/1946</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" thickBot="1">
       <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="711">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
         <v>58</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="711">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
         <v>91</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>96</v>
       </c>
-      <c r="E6">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <f t="shared" ca="1" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="G6" s="710">
-        <f t="shared" ca="1" si="2"/>
-        <v>1943</v>
-      </c>
-      <c r="H6" t="str">
+      <c r="G6" s="711">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H6">
         <f t="shared" ca="1" si="3"/>
-        <v>William|Brown|Male|Blue|10/14/1943</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1">
+        <v>8</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="J6" s="710">
+        <f t="shared" ca="1" si="5"/>
+        <v>2009</v>
+      </c>
+      <c r="K6" t="str">
+        <f ca="1">$A6&amp;K$1&amp;$C6&amp;K$1&amp;$E6&amp;K$1&amp;$F6&amp;K$1&amp;$H6&amp;"/"&amp;$I6&amp;"/"&amp;$J6</f>
+        <v>William|Brown|Male|Blue|8/9/2009</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" thickBot="1">
       <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="711">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
         <v>59</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" s="711">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
         <v>91</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>97</v>
       </c>
-      <c r="E7">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="F7">
-        <f t="shared" ca="1" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="G7" s="710">
-        <f t="shared" ca="1" si="2"/>
-        <v>1984</v>
-      </c>
-      <c r="H7" t="str">
+      <c r="G7" s="711">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="H7">
         <f t="shared" ca="1" si="3"/>
-        <v>David|Davis|Male|Indigo|11/25/1984</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <f t="shared" ca="1" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="J7" s="710">
+        <f t="shared" ca="1" si="5"/>
+        <v>1993</v>
+      </c>
+      <c r="K7" t="str">
+        <f ca="1">$A7&amp;K$1&amp;$C7&amp;K$1&amp;$E7&amp;K$1&amp;$F7&amp;K$1&amp;$H7&amp;"/"&amp;$I7&amp;"/"&amp;$J7</f>
+        <v>David|Davis|Male|Indigo|6/17/1993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" thickBot="1">
       <c r="A8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="711">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
         <v>60</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" s="711">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
         <v>91</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>98</v>
       </c>
-      <c r="E8">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <f t="shared" ca="1" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="G8" s="710">
-        <f t="shared" ca="1" si="2"/>
-        <v>1952</v>
-      </c>
-      <c r="H8" t="str">
+      <c r="G8" s="711">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="H8">
         <f t="shared" ca="1" si="3"/>
-        <v>Richard|Miller|Male|Violet|2/21/1952</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1">
+        <v>8</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ca="1" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="J8" s="710">
+        <f t="shared" ca="1" si="5"/>
+        <v>1983</v>
+      </c>
+      <c r="K8" t="str">
+        <f ca="1">$A8&amp;K$1&amp;$C8&amp;K$1&amp;$E8&amp;K$1&amp;$F8&amp;K$1&amp;$H8&amp;"/"&amp;$I8&amp;"/"&amp;$J8</f>
+        <v>Richard|Miller|Male|Violet|8/14/1983</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" thickBot="1">
       <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="711">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
         <v>61</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" s="711">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
         <v>91</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>99</v>
       </c>
-      <c r="E9">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="F9">
-        <f t="shared" ca="1" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="G9" s="710">
-        <f t="shared" ca="1" si="2"/>
-        <v>1968</v>
-      </c>
-      <c r="H9" t="str">
+      <c r="G9" s="711">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="H9">
         <f t="shared" ca="1" si="3"/>
-        <v>Joseph|Wilson|Male|Turcoise|9/23/1968</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="J9" s="710">
+        <f t="shared" ca="1" si="5"/>
+        <v>1952</v>
+      </c>
+      <c r="K9" t="str">
+        <f ca="1">$A9&amp;K$1&amp;$C9&amp;K$1&amp;$E9&amp;K$1&amp;$F9&amp;K$1&amp;$H9&amp;"/"&amp;$I9&amp;"/"&amp;$J9</f>
+        <v>Joseph|Wilson|Male|Turcoise|6/3/1952</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1">
       <c r="A10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="711">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
         <v>62</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" s="711">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
         <v>91</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>100</v>
       </c>
-      <c r="E10">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="F10">
-        <f t="shared" ca="1" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="G10" s="710">
-        <f t="shared" ca="1" si="2"/>
-        <v>1977</v>
-      </c>
-      <c r="H10" t="str">
+      <c r="G10" s="711">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="H10">
         <f t="shared" ca="1" si="3"/>
-        <v>Thomas|Moore|Male|Mauve|12/21/1977</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1">
+        <v>10</v>
+      </c>
+      <c r="I10">
+        <f t="shared" ca="1" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="J10" s="710">
+        <f t="shared" ca="1" si="5"/>
+        <v>2010</v>
+      </c>
+      <c r="K10" t="str">
+        <f ca="1">$A10&amp;K$1&amp;$C10&amp;K$1&amp;$E10&amp;K$1&amp;$F10&amp;K$1&amp;$H10&amp;"/"&amp;$I10&amp;"/"&amp;$J10</f>
+        <v>Thomas|Moore|Male|Mauve|10/14/2010</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" thickBot="1">
       <c r="A11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="711">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
         <v>63</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" s="711">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
         <v>91</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>2066</v>
       </c>
-      <c r="E11">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="F11">
-        <f t="shared" ca="1" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="G11" s="710">
-        <f t="shared" ca="1" si="2"/>
-        <v>2000</v>
-      </c>
-      <c r="H11" t="str">
+      <c r="G11" s="711">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="H11">
         <f t="shared" ca="1" si="3"/>
-        <v>Charles|Taylor|Male|CG_Red|11/17/2000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="J11" s="710">
+        <f t="shared" ca="1" si="5"/>
+        <v>1979</v>
+      </c>
+      <c r="K11" t="str">
+        <f ca="1">$A11&amp;K$1&amp;$C11&amp;K$1&amp;$E11&amp;K$1&amp;$F11&amp;K$1&amp;$H11&amp;"/"&amp;$I11&amp;"/"&amp;$J11</f>
+        <v>Charles|Taylor|Male|CG_Red|4/9/1979</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" thickBot="1">
       <c r="A12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="711">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
         <v>64</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" s="711">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
         <v>91</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>497</v>
       </c>
-      <c r="E12">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="F12">
-        <f t="shared" ca="1" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="G12" s="710">
-        <f t="shared" ca="1" si="2"/>
-        <v>1992</v>
-      </c>
-      <c r="H12" t="str">
+      <c r="G12" s="711">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="H12">
         <f t="shared" ca="1" si="3"/>
-        <v>Christopher|Anderson|Male|Chamoisee|7/14/1992</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1">
+        <v>10</v>
+      </c>
+      <c r="I12">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J12" s="710">
+        <f t="shared" ca="1" si="5"/>
+        <v>1975</v>
+      </c>
+      <c r="K12" t="str">
+        <f ca="1">$A12&amp;K$1&amp;$C12&amp;K$1&amp;$E12&amp;K$1&amp;$F12&amp;K$1&amp;$H12&amp;"/"&amp;$I12&amp;"/"&amp;$J12</f>
+        <v>Christopher|Anderson|Male|Chamoisee|10/2/1975</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" thickBot="1">
       <c r="A13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="711">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
         <v>21</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" s="711">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
         <v>91</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
         <v>500</v>
       </c>
-      <c r="E13">
-        <f t="shared" ca="1" si="0"/>
+      <c r="G13" s="711">
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="F13">
-        <f t="shared" ca="1" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="G13" s="710">
-        <f t="shared" ca="1" si="2"/>
-        <v>1990</v>
-      </c>
-      <c r="H13" t="str">
+      <c r="H13">
         <f t="shared" ca="1" si="3"/>
-        <v>Daniel|Thomas|Male|Champagne|9/12/1990</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="J13" s="710">
+        <f t="shared" ca="1" si="5"/>
+        <v>1977</v>
+      </c>
+      <c r="K13" t="str">
+        <f ca="1">$A13&amp;K$1&amp;$C13&amp;K$1&amp;$E13&amp;K$1&amp;$F13&amp;K$1&amp;$H13&amp;"/"&amp;$I13&amp;"/"&amp;$J13</f>
+        <v>Daniel|Thomas|Male|Champagne|4/7/1977</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" thickBot="1">
       <c r="A14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="711">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
         <v>65</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" s="711">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
         <v>91</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>503</v>
       </c>
-      <c r="E14">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="F14">
-        <f t="shared" ca="1" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="G14" s="710">
-        <f t="shared" ca="1" si="2"/>
-        <v>1982</v>
-      </c>
-      <c r="H14" t="str">
+      <c r="G14" s="711">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="H14">
         <f t="shared" ca="1" si="3"/>
-        <v>Matthew|Jackson|Male|Charcoal|6/23/1982</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1">
+        <v>9</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ca="1" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="J14" s="710">
+        <f t="shared" ca="1" si="5"/>
+        <v>2008</v>
+      </c>
+      <c r="K14" t="str">
+        <f ca="1">$A14&amp;K$1&amp;$C14&amp;K$1&amp;$E14&amp;K$1&amp;$F14&amp;K$1&amp;$H14&amp;"/"&amp;$I14&amp;"/"&amp;$J14</f>
+        <v>Matthew|Jackson|Male|Charcoal|9/25/2008</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1">
       <c r="A15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="711">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
         <v>66</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" s="711">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
         <v>91</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
         <v>505</v>
       </c>
-      <c r="E15">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="F15">
-        <f t="shared" ca="1" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="G15" s="710">
-        <f t="shared" ca="1" si="2"/>
+      <c r="G15" s="711">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ca="1" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="I15">
+        <f t="shared" ca="1" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="J15" s="710">
+        <f t="shared" ca="1" si="5"/>
         <v>1977</v>
       </c>
-      <c r="H15" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Anthony|White|Male|Chartreuse|6/17/1977</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1">
+      <c r="K15" t="str">
+        <f ca="1">$A15&amp;K$1&amp;$C15&amp;K$1&amp;$E15&amp;K$1&amp;$F15&amp;K$1&amp;$H15&amp;"/"&amp;$I15&amp;"/"&amp;$J15</f>
+        <v>Anthony|White|Male|Chartreuse|12/23/1977</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" thickBot="1">
       <c r="A16" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="711">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
         <v>67</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" s="711">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
         <v>91</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
         <v>508</v>
       </c>
-      <c r="E16">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <f t="shared" ca="1" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="G16" s="710">
-        <f t="shared" ca="1" si="2"/>
-        <v>1991</v>
-      </c>
-      <c r="H16" t="str">
+      <c r="G16" s="711">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="H16">
         <f t="shared" ca="1" si="3"/>
-        <v>Donald|Harris|Male|Cherry|3/25/1991</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1">
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <f t="shared" ca="1" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="J16" s="710">
+        <f t="shared" ca="1" si="5"/>
+        <v>1944</v>
+      </c>
+      <c r="K16" t="str">
+        <f ca="1">$A16&amp;K$1&amp;$C16&amp;K$1&amp;$E16&amp;K$1&amp;$F16&amp;K$1&amp;$H16&amp;"/"&amp;$I16&amp;"/"&amp;$J16</f>
+        <v>Donald|Harris|Male|Cherry|10/26/1944</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" thickBot="1">
       <c r="A17" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="711">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
         <v>68</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" s="711">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
         <v>91</v>
       </c>
-      <c r="D17" t="s">
+      <c r="F17" t="s">
         <v>2067</v>
       </c>
-      <c r="E17">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="F17">
-        <f t="shared" ca="1" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="G17" s="710">
-        <f t="shared" ca="1" si="2"/>
-        <v>1948</v>
-      </c>
-      <c r="H17" t="str">
+      <c r="G17" s="711">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="H17">
         <f t="shared" ca="1" si="3"/>
-        <v>Mark|Martin|Male|Cherry_blossom_pink|12/11/1948</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1">
+        <v>8</v>
+      </c>
+      <c r="I17">
+        <f t="shared" ca="1" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="J17" s="710">
+        <f t="shared" ca="1" si="5"/>
+        <v>1981</v>
+      </c>
+      <c r="K17" t="str">
+        <f ca="1">$A17&amp;K$1&amp;$C17&amp;K$1&amp;$E17&amp;K$1&amp;$F17&amp;K$1&amp;$H17&amp;"/"&amp;$I17&amp;"/"&amp;$J17</f>
+        <v>Mark|Martin|Male|Cherry_blossom_pink|8/10/1981</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" thickBot="1">
       <c r="A18" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="711">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
         <v>69</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" s="711">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
         <v>91</v>
       </c>
-      <c r="D18" t="s">
+      <c r="F18" t="s">
         <v>512</v>
       </c>
-      <c r="E18">
-        <f t="shared" ca="1" si="0"/>
+      <c r="G18" s="711">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ca="1" si="4"/>
         <v>9</v>
       </c>
-      <c r="F18">
-        <f t="shared" ca="1" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="G18" s="710">
-        <f t="shared" ca="1" si="2"/>
-        <v>1962</v>
-      </c>
-      <c r="H18" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Paul|Thompson|Male|Chestnut|9/15/1962</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1">
+      <c r="J18" s="710">
+        <f t="shared" ca="1" si="5"/>
+        <v>2004</v>
+      </c>
+      <c r="K18" t="str">
+        <f ca="1">$A18&amp;K$1&amp;$C18&amp;K$1&amp;$E18&amp;K$1&amp;$F18&amp;K$1&amp;$H18&amp;"/"&amp;$I18&amp;"/"&amp;$J18</f>
+        <v>Paul|Thompson|Male|Chestnut|10/9/2004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" thickBot="1">
       <c r="A19" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="711">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
         <v>70</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" s="711">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
         <v>91</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
         <v>514</v>
       </c>
-      <c r="E19">
-        <f t="shared" ca="1" si="0"/>
+      <c r="G19" s="711">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ca="1" si="3"/>
         <v>4</v>
       </c>
-      <c r="F19">
-        <f t="shared" ca="1" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="G19" s="710">
-        <f t="shared" ca="1" si="2"/>
-        <v>1950</v>
-      </c>
-      <c r="H19" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Steven|Garcia|Male|Chocolate|4/18/1950</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I19">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="J19" s="710">
+        <f t="shared" ca="1" si="5"/>
+        <v>1996</v>
+      </c>
+      <c r="K19" t="str">
+        <f ca="1">$A19&amp;K$1&amp;$C19&amp;K$1&amp;$E19&amp;K$1&amp;$F19&amp;K$1&amp;$H19&amp;"/"&amp;$I19&amp;"/"&amp;$J19</f>
+        <v>Steven|Garcia|Male|Chocolate|4/5/1996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" thickBot="1">
       <c r="A20" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="711">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
         <v>71</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" s="711">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
         <v>91</v>
       </c>
-      <c r="D20" t="s">
+      <c r="F20" t="s">
         <v>2068</v>
       </c>
-      <c r="E20">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="F20">
-        <f t="shared" ca="1" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="G20" s="710">
-        <f t="shared" ca="1" si="2"/>
-        <v>1962</v>
-      </c>
-      <c r="H20" t="str">
+      <c r="G20" s="711">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="H20">
         <f t="shared" ca="1" si="3"/>
-        <v>George|Martinez|Male|Chrome_yellow|10/20/1962</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1">
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="J20" s="710">
+        <f t="shared" ca="1" si="5"/>
+        <v>1999</v>
+      </c>
+      <c r="K20" t="str">
+        <f ca="1">$A20&amp;K$1&amp;$C20&amp;K$1&amp;$E20&amp;K$1&amp;$F20&amp;K$1&amp;$H20&amp;"/"&amp;$I20&amp;"/"&amp;$J20</f>
+        <v>George|Martinez|Male|Chrome_yellow|5/7/1999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" thickBot="1">
       <c r="A21" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="711">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
         <v>72</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" s="711">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
         <v>91</v>
       </c>
-      <c r="D21" t="s">
+      <c r="F21" t="s">
         <v>519</v>
       </c>
-      <c r="E21">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F21">
-        <f t="shared" ca="1" si="1"/>
+      <c r="G21" s="711">
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="G21" s="710">
-        <f t="shared" ca="1" si="2"/>
-        <v>2015</v>
-      </c>
-      <c r="H21" t="str">
+      <c r="H21">
         <f t="shared" ca="1" si="3"/>
-        <v>Kenneth|Robinson|Male|Cinereous|4/9/2015</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" thickBot="1">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <f t="shared" ca="1" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="J21" s="710">
+        <f t="shared" ca="1" si="5"/>
+        <v>1948</v>
+      </c>
+      <c r="K21" t="str">
+        <f ca="1">$A21&amp;K$1&amp;$C21&amp;K$1&amp;$E21&amp;K$1&amp;$F21&amp;K$1&amp;$H21&amp;"/"&amp;$I21&amp;"/"&amp;$J21</f>
+        <v>Kenneth|Robinson|Male|Cinereous|2/27/1948</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" thickBot="1">
       <c r="A22" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="711">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
         <v>73</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" s="711">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
         <v>91</v>
       </c>
-      <c r="D22" t="s">
+      <c r="F22" t="s">
         <v>2069</v>
       </c>
-      <c r="E22">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <f t="shared" ca="1" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="G22" s="710">
-        <f t="shared" ca="1" si="2"/>
-        <v>1947</v>
-      </c>
-      <c r="H22" t="str">
+      <c r="G22" s="711">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="H22">
         <f t="shared" ca="1" si="3"/>
-        <v>Andrew|Clark|Male|Electric_blue|3/23/1947</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" thickBot="1">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <f t="shared" ca="1" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="J22" s="710">
+        <f t="shared" ca="1" si="5"/>
+        <v>1975</v>
+      </c>
+      <c r="K22" t="str">
+        <f ca="1">$A22&amp;K$1&amp;$C22&amp;K$1&amp;$E22&amp;K$1&amp;$F22&amp;K$1&amp;$H22&amp;"/"&amp;$I22&amp;"/"&amp;$J22</f>
+        <v>Andrew|Clark|Male|Electric_blue|2/6/1975</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" thickBot="1">
       <c r="A23" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="711">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
         <v>74</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" s="711">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
         <v>91</v>
       </c>
-      <c r="D23" t="s">
+      <c r="F23" t="s">
         <v>2070</v>
       </c>
-      <c r="E23">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <f t="shared" ca="1" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="G23" s="710">
-        <f t="shared" ca="1" si="2"/>
-        <v>2013</v>
-      </c>
-      <c r="H23" t="str">
+      <c r="G23" s="711">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="H23">
         <f t="shared" ca="1" si="3"/>
-        <v>Joshua|Rodriguez|Male|Electric_crimson|3/28/2013</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" thickBot="1">
+        <v>10</v>
+      </c>
+      <c r="I23">
+        <f t="shared" ca="1" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="J23" s="710">
+        <f t="shared" ca="1" si="5"/>
+        <v>1959</v>
+      </c>
+      <c r="K23" t="str">
+        <f ca="1">$A23&amp;K$1&amp;$C23&amp;K$1&amp;$E23&amp;K$1&amp;$F23&amp;K$1&amp;$H23&amp;"/"&amp;$I23&amp;"/"&amp;$J23</f>
+        <v>Joshua|Rodriguez|Male|Electric_crimson|10/26/1959</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" thickBot="1">
       <c r="A24" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="711">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
         <v>75</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" s="711">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
         <v>91</v>
       </c>
-      <c r="D24" t="s">
+      <c r="F24" t="s">
         <v>2071</v>
       </c>
-      <c r="E24">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="F24">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="G24" s="710">
-        <f t="shared" ca="1" si="2"/>
-        <v>1952</v>
-      </c>
-      <c r="H24" t="str">
+      <c r="G24" s="711">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="H24">
         <f t="shared" ca="1" si="3"/>
-        <v>Edward|Lewis|Male|Electric_cyan|11/3/1952</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" thickBot="1">
+        <v>5</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ca="1" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="J24" s="710">
+        <f t="shared" ca="1" si="5"/>
+        <v>1941</v>
+      </c>
+      <c r="K24" t="str">
+        <f ca="1">$A24&amp;K$1&amp;$C24&amp;K$1&amp;$E24&amp;K$1&amp;$F24&amp;K$1&amp;$H24&amp;"/"&amp;$I24&amp;"/"&amp;$J24</f>
+        <v>Edward|Lewis|Male|Electric_cyan|5/21/1941</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" thickBot="1">
       <c r="A25" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="711">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
         <v>76</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" s="711">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
         <v>91</v>
       </c>
-      <c r="D25" t="s">
+      <c r="F25" t="s">
         <v>2072</v>
       </c>
-      <c r="E25">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="F25">
-        <f t="shared" ca="1" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="G25" s="710">
-        <f t="shared" ca="1" si="2"/>
-        <v>1996</v>
-      </c>
-      <c r="H25" t="str">
+      <c r="G25" s="711">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="H25">
         <f t="shared" ca="1" si="3"/>
-        <v>Brian|Lee|Male|Electric_green|12/22/1996</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" thickBot="1">
+        <v>8</v>
+      </c>
+      <c r="I25">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J25" s="710">
+        <f t="shared" ca="1" si="5"/>
+        <v>1944</v>
+      </c>
+      <c r="K25" t="str">
+        <f ca="1">$A25&amp;K$1&amp;$C25&amp;K$1&amp;$E25&amp;K$1&amp;$F25&amp;K$1&amp;$H25&amp;"/"&amp;$I25&amp;"/"&amp;$J25</f>
+        <v>Brian|Lee|Male|Electric_green|8/2/1944</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" thickBot="1">
       <c r="A26" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="711">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
         <v>77</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" s="711">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E26" t="s">
         <v>91</v>
       </c>
-      <c r="D26" t="s">
+      <c r="F26" t="s">
         <v>2073</v>
       </c>
-      <c r="E26">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <f t="shared" ca="1" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="G26" s="710">
-        <f t="shared" ca="1" si="2"/>
-        <v>1970</v>
-      </c>
-      <c r="H26" t="str">
+      <c r="G26" s="711">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="H26">
         <f t="shared" ca="1" si="3"/>
-        <v>Kevin|Walker|Male|Electric_indigo|2/12/1970</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" thickBot="1">
+        <v>5</v>
+      </c>
+      <c r="I26">
+        <f t="shared" ca="1" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="J26" s="710">
+        <f t="shared" ca="1" si="5"/>
+        <v>2011</v>
+      </c>
+      <c r="K26" t="str">
+        <f ca="1">$A26&amp;K$1&amp;$C26&amp;K$1&amp;$E26&amp;K$1&amp;$F26&amp;K$1&amp;$H26&amp;"/"&amp;$I26&amp;"/"&amp;$J26</f>
+        <v>Kevin|Walker|Male|Electric_indigo|5/6/2011</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" thickBot="1">
       <c r="A27" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="711">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
         <v>78</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" s="711">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E27" t="s">
         <v>92</v>
       </c>
-      <c r="D27" t="s">
+      <c r="F27" t="s">
         <v>2074</v>
       </c>
-      <c r="E27">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="F27">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="G27" s="710">
-        <f t="shared" ca="1" si="2"/>
-        <v>2000</v>
-      </c>
-      <c r="H27" t="str">
+      <c r="G27" s="711">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="H27">
         <f t="shared" ca="1" si="3"/>
-        <v>Mary|Hall|Female|Electric_lavender|9/6/2000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" thickBot="1">
+        <v>5</v>
+      </c>
+      <c r="I27">
+        <f t="shared" ca="1" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="J27" s="710">
+        <f t="shared" ca="1" si="5"/>
+        <v>1988</v>
+      </c>
+      <c r="K27" t="str">
+        <f ca="1">$A27&amp;K$1&amp;$C27&amp;K$1&amp;$E27&amp;K$1&amp;$F27&amp;K$1&amp;$H27&amp;"/"&amp;$I27&amp;"/"&amp;$J27</f>
+        <v>Mary|Hall|Female|Electric_lavender|5/12/1988</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" thickBot="1">
       <c r="A28" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="711">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
         <v>79</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" s="711">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E28" t="s">
         <v>92</v>
       </c>
-      <c r="D28" t="s">
+      <c r="F28" t="s">
         <v>2075</v>
       </c>
-      <c r="E28">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="F28">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="G28" s="710">
-        <f t="shared" ca="1" si="2"/>
-        <v>1963</v>
-      </c>
-      <c r="H28" t="str">
+      <c r="G28" s="711">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="H28">
         <f t="shared" ca="1" si="3"/>
-        <v>Patricia|Allen|Female|Electric_lime|8/9/1963</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" thickBot="1">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <f t="shared" ca="1" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="J28" s="710">
+        <f t="shared" ca="1" si="5"/>
+        <v>1989</v>
+      </c>
+      <c r="K28" t="str">
+        <f ca="1">$A28&amp;K$1&amp;$C28&amp;K$1&amp;$E28&amp;K$1&amp;$F28&amp;K$1&amp;$H28&amp;"/"&amp;$I28&amp;"/"&amp;$J28</f>
+        <v>Patricia|Allen|Female|Electric_lime|2/22/1989</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" thickBot="1">
       <c r="A29" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="711">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
         <v>80</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" s="711">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E29" t="s">
         <v>92</v>
       </c>
-      <c r="D29" t="s">
+      <c r="F29" t="s">
         <v>2076</v>
       </c>
-      <c r="E29">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F29">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="G29" s="710">
-        <f t="shared" ca="1" si="2"/>
-        <v>1950</v>
-      </c>
-      <c r="H29" t="str">
+      <c r="G29" s="711">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="H29">
         <f t="shared" ca="1" si="3"/>
-        <v>Jennifer|Young|Female|Electric_purple|4/3/1950</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" thickBot="1">
+        <v>8</v>
+      </c>
+      <c r="I29">
+        <f t="shared" ca="1" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="J29" s="710">
+        <f t="shared" ca="1" si="5"/>
+        <v>1955</v>
+      </c>
+      <c r="K29" t="str">
+        <f ca="1">$A29&amp;K$1&amp;$C29&amp;K$1&amp;$E29&amp;K$1&amp;$F29&amp;K$1&amp;$H29&amp;"/"&amp;$I29&amp;"/"&amp;$J29</f>
+        <v>Jennifer|Young|Female|Electric_purple|8/14/1955</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" thickBot="1">
       <c r="A30" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="711">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
         <v>81</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" s="711">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
         <v>92</v>
       </c>
-      <c r="D30" t="s">
+      <c r="F30" t="s">
         <v>2077</v>
       </c>
-      <c r="E30">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="F30">
-        <f t="shared" ca="1" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="G30" s="710">
-        <f t="shared" ca="1" si="2"/>
-        <v>1980</v>
-      </c>
-      <c r="H30" t="str">
+      <c r="G30" s="711">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="H30">
         <f t="shared" ca="1" si="3"/>
-        <v>Elizabeth|Hernandez|Female|Electric_ultramarine|10/17/1980</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" thickBot="1">
+        <v>2</v>
+      </c>
+      <c r="I30">
+        <f t="shared" ca="1" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="J30" s="710">
+        <f t="shared" ca="1" si="5"/>
+        <v>1950</v>
+      </c>
+      <c r="K30" t="str">
+        <f ca="1">$A30&amp;K$1&amp;$C30&amp;K$1&amp;$E30&amp;K$1&amp;$F30&amp;K$1&amp;$H30&amp;"/"&amp;$I30&amp;"/"&amp;$J30</f>
+        <v>Elizabeth|Hernandez|Female|Electric_ultramarine|2/25/1950</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" thickBot="1">
       <c r="A31" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="711">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
         <v>82</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" s="711">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E31" t="s">
         <v>92</v>
       </c>
-      <c r="D31" t="s">
+      <c r="F31" t="s">
         <v>2078</v>
       </c>
-      <c r="E31">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="F31">
-        <f t="shared" ca="1" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="G31" s="710">
-        <f t="shared" ca="1" si="2"/>
-        <v>1979</v>
-      </c>
-      <c r="H31" t="str">
+      <c r="G31" s="711">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="H31">
         <f t="shared" ca="1" si="3"/>
-        <v>Linda|King|Female|Electric_violet|6/22/1979</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" thickBot="1">
+        <v>5</v>
+      </c>
+      <c r="I31">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="J31" s="710">
+        <f t="shared" ca="1" si="5"/>
+        <v>1980</v>
+      </c>
+      <c r="K31" t="str">
+        <f ca="1">$A31&amp;K$1&amp;$C31&amp;K$1&amp;$E31&amp;K$1&amp;$F31&amp;K$1&amp;$H31&amp;"/"&amp;$I31&amp;"/"&amp;$J31</f>
+        <v>Linda|King|Female|Electric_violet|5/5/1980</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" thickBot="1">
       <c r="A32" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="711">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
         <v>83</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" s="711">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E32" t="s">
         <v>92</v>
       </c>
-      <c r="D32" t="s">
+      <c r="F32" t="s">
         <v>2079</v>
       </c>
-      <c r="E32">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F32">
-        <f t="shared" ca="1" si="1"/>
+      <c r="G32" s="711">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="H32">
+        <f t="shared" ca="1" si="3"/>
         <v>6</v>
       </c>
-      <c r="G32" s="710">
-        <f t="shared" ca="1" si="2"/>
-        <v>1990</v>
-      </c>
-      <c r="H32" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Barbara|Wright|Female|Electric_yellow|4/6/1990</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="15.75" thickBot="1">
+      <c r="I32">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="J32" s="710">
+        <f t="shared" ca="1" si="5"/>
+        <v>2012</v>
+      </c>
+      <c r="K32" t="str">
+        <f ca="1">$A32&amp;K$1&amp;$C32&amp;K$1&amp;$E32&amp;K$1&amp;$F32&amp;K$1&amp;$H32&amp;"/"&amp;$I32&amp;"/"&amp;$J32</f>
+        <v>Barbara|Wright|Female|Electric_yellow|6/3/2012</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" thickBot="1">
       <c r="A33" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="711">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
         <v>84</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" s="711">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E33" t="s">
         <v>92</v>
       </c>
-      <c r="D33" t="s">
+      <c r="F33" t="s">
         <v>823</v>
       </c>
-      <c r="E33">
-        <f t="shared" ca="1" si="0"/>
+      <c r="G33" s="711">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="H33">
+        <f t="shared" ca="1" si="3"/>
         <v>11</v>
       </c>
-      <c r="F33">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="G33" s="710">
-        <f t="shared" ca="1" si="2"/>
-        <v>2011</v>
-      </c>
-      <c r="H33" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Susan|Lopez|Female|Emerald|11/4/2011</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="15.75" thickBot="1">
+      <c r="I33">
+        <f t="shared" ca="1" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="J33" s="710">
+        <f t="shared" ca="1" si="5"/>
+        <v>1988</v>
+      </c>
+      <c r="K33" t="str">
+        <f ca="1">$A33&amp;K$1&amp;$C33&amp;K$1&amp;$E33&amp;K$1&amp;$F33&amp;K$1&amp;$H33&amp;"/"&amp;$I33&amp;"/"&amp;$J33</f>
+        <v>Susan|Lopez|Female|Emerald|11/18/1988</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" thickBot="1">
       <c r="A34" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="711">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
         <v>85</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" s="711">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E34" t="s">
         <v>92</v>
       </c>
-      <c r="D34" t="s">
+      <c r="F34" t="s">
         <v>2080</v>
       </c>
-      <c r="E34">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F34">
-        <f t="shared" ca="1" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="G34" s="710">
-        <f t="shared" ca="1" si="2"/>
-        <v>1982</v>
-      </c>
-      <c r="H34" t="str">
+      <c r="G34" s="711">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="H34">
         <f t="shared" ca="1" si="3"/>
-        <v>Jessica|Hill|Female|Eton_blue|4/14/1982</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15.75" thickBot="1">
+        <v>6</v>
+      </c>
+      <c r="I34">
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="J34" s="710">
+        <f t="shared" ca="1" si="5"/>
+        <v>2001</v>
+      </c>
+      <c r="K34" t="str">
+        <f ca="1">$A34&amp;K$1&amp;$C34&amp;K$1&amp;$E34&amp;K$1&amp;$F34&amp;K$1&amp;$H34&amp;"/"&amp;$I34&amp;"/"&amp;$J34</f>
+        <v>Jessica|Hill|Female|Eton_blue|6/9/2001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" thickBot="1">
       <c r="A35" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="711">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
         <v>86</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" s="711">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E35" t="s">
         <v>92</v>
       </c>
-      <c r="D35" t="s">
+      <c r="F35" t="s">
         <v>828</v>
       </c>
-      <c r="E35">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="F35">
-        <f t="shared" ca="1" si="1"/>
+      <c r="G35" s="711">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="H35">
+        <f t="shared" ca="1" si="3"/>
         <v>7</v>
       </c>
-      <c r="G35" s="710">
-        <f t="shared" ca="1" si="2"/>
-        <v>1987</v>
-      </c>
-      <c r="H35" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Margaret|Scott|Female|Fallow|10/7/1987</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="15.75" thickBot="1">
+      <c r="I35">
+        <f t="shared" ca="1" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="J35" s="710">
+        <f t="shared" ca="1" si="5"/>
+        <v>1947</v>
+      </c>
+      <c r="K35" t="str">
+        <f ca="1">$A35&amp;K$1&amp;$C35&amp;K$1&amp;$E35&amp;K$1&amp;$F35&amp;K$1&amp;$H35&amp;"/"&amp;$I35&amp;"/"&amp;$J35</f>
+        <v>Margaret|Scott|Female|Fallow|7/22/1947</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" thickBot="1">
       <c r="A36" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="711">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
         <v>87</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" s="711">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E36" t="s">
         <v>92</v>
       </c>
-      <c r="D36" t="s">
+      <c r="F36" t="s">
         <v>2081</v>
       </c>
-      <c r="E36">
-        <f t="shared" ca="1" si="0"/>
+      <c r="G36" s="711">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="H36">
+        <f t="shared" ca="1" si="3"/>
         <v>9</v>
       </c>
-      <c r="F36">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="G36" s="710">
-        <f t="shared" ca="1" si="2"/>
-        <v>1996</v>
-      </c>
-      <c r="H36" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Sarah|Green|Female|Falu_red|9/6/1996</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="15.75" thickBot="1">
+      <c r="I36">
+        <f t="shared" ca="1" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="J36" s="710">
+        <f t="shared" ca="1" si="5"/>
+        <v>1973</v>
+      </c>
+      <c r="K36" t="str">
+        <f ca="1">$A36&amp;K$1&amp;$C36&amp;K$1&amp;$E36&amp;K$1&amp;$F36&amp;K$1&amp;$H36&amp;"/"&amp;$I36&amp;"/"&amp;$J36</f>
+        <v>Sarah|Green|Female|Falu_red|9/13/1973</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="15.75" thickBot="1">
       <c r="A37" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="711">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
         <v>88</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" s="711">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E37" t="s">
         <v>92</v>
       </c>
-      <c r="D37" t="s">
+      <c r="F37" t="s">
         <v>831</v>
       </c>
-      <c r="E37">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="F37">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="G37" s="710">
-        <f t="shared" ca="1" si="2"/>
-        <v>2012</v>
-      </c>
-      <c r="H37" t="str">
+      <c r="G37" s="711">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="H37">
         <f t="shared" ca="1" si="3"/>
-        <v>Karen|Adams|Female|Famous|12/5/2012</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="15.75" thickBot="1">
+        <v>8</v>
+      </c>
+      <c r="I37">
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="J37" s="710">
+        <f t="shared" ca="1" si="5"/>
+        <v>1942</v>
+      </c>
+      <c r="K37" t="str">
+        <f ca="1">$A37&amp;K$1&amp;$C37&amp;K$1&amp;$E37&amp;K$1&amp;$F37&amp;K$1&amp;$H37&amp;"/"&amp;$I37&amp;"/"&amp;$J37</f>
+        <v>Karen|Adams|Female|Famous|8/8/1942</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="15.75" thickBot="1">
       <c r="A38" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="711">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
         <v>89</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" s="711">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E38" t="s">
         <v>92</v>
       </c>
-      <c r="D38" t="s">
+      <c r="F38" t="s">
         <v>833</v>
       </c>
-      <c r="E38">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F38">
-        <f t="shared" ca="1" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="G38" s="710">
-        <f t="shared" ca="1" si="2"/>
-        <v>1961</v>
-      </c>
-      <c r="H38" t="str">
+      <c r="G38" s="711">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="H38">
         <f t="shared" ca="1" si="3"/>
-        <v>Nancy|Baker|Female|Fandango|4/26/1961</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="15.75" thickBot="1">
+        <v>3</v>
+      </c>
+      <c r="I38">
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="J38" s="710">
+        <f t="shared" ca="1" si="5"/>
+        <v>1979</v>
+      </c>
+      <c r="K38" t="str">
+        <f ca="1">$A38&amp;K$1&amp;$C38&amp;K$1&amp;$E38&amp;K$1&amp;$F38&amp;K$1&amp;$H38&amp;"/"&amp;$I38&amp;"/"&amp;$J38</f>
+        <v>Nancy|Baker|Female|Fandango|3/7/1979</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" thickBot="1">
       <c r="A39" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="711">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
         <v>90</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" s="711">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E39" t="s">
         <v>92</v>
       </c>
-      <c r="D39" t="s">
+      <c r="F39" t="s">
         <v>2082</v>
       </c>
-      <c r="E39">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F39">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="G39" s="710">
-        <f t="shared" ca="1" si="2"/>
-        <v>1969</v>
-      </c>
-      <c r="H39" t="str">
+      <c r="G39" s="711">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="H39">
         <f t="shared" ca="1" si="3"/>
-        <v>Betty|Gonzalez|Female|Fashion_fuchsia|2/10/1969</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="15.75" thickBot="1">
+        <v>12</v>
+      </c>
+      <c r="I39">
+        <f t="shared" ca="1" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="J39" s="710">
+        <f t="shared" ca="1" si="5"/>
+        <v>2004</v>
+      </c>
+      <c r="K39" t="str">
+        <f ca="1">$A39&amp;K$1&amp;$C39&amp;K$1&amp;$E39&amp;K$1&amp;$F39&amp;K$1&amp;$H39&amp;"/"&amp;$I39&amp;"/"&amp;$J39</f>
+        <v>Betty|Gonzalez|Female|Fashion_fuchsia|12/28/2004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="15.75" thickBot="1">
       <c r="A40" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="711">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
         <v>71</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" s="711">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E40" t="s">
         <v>92</v>
       </c>
-      <c r="D40" t="s">
+      <c r="F40" t="s">
         <v>839</v>
       </c>
-      <c r="E40">
-        <f t="shared" ca="1" si="0"/>
+      <c r="G40" s="711">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="F40">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="G40" s="710">
-        <f t="shared" ca="1" si="2"/>
-        <v>2007</v>
-      </c>
-      <c r="H40" t="str">
+      <c r="H40">
         <f t="shared" ca="1" si="3"/>
-        <v>Dorothy|Martinez|Female|Fawn|4/4/2007</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="15.75" thickBot="1">
+        <v>3</v>
+      </c>
+      <c r="I40">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J40" s="710">
+        <f t="shared" ca="1" si="5"/>
+        <v>1981</v>
+      </c>
+      <c r="K40" t="str">
+        <f ca="1">$A40&amp;K$1&amp;$C40&amp;K$1&amp;$E40&amp;K$1&amp;$F40&amp;K$1&amp;$H40&amp;"/"&amp;$I40&amp;"/"&amp;$J40</f>
+        <v>Dorothy|Martinez|Female|Fawn|3/2/1981</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="15.75" thickBot="1">
       <c r="A41" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="711">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C41" t="s">
         <v>72</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" s="711">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E41" t="s">
         <v>92</v>
       </c>
-      <c r="D41" t="s">
+      <c r="F41" t="s">
         <v>842</v>
       </c>
-      <c r="E41">
-        <f t="shared" ca="1" si="0"/>
+      <c r="G41" s="711">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="H41">
+        <f t="shared" ca="1" si="3"/>
         <v>9</v>
       </c>
-      <c r="F41">
-        <f t="shared" ca="1" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="G41" s="710">
-        <f t="shared" ca="1" si="2"/>
-        <v>1979</v>
-      </c>
-      <c r="H41" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Lisa|Robinson|Female|Feldgrau|9/19/1979</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="15.75" thickBot="1">
+      <c r="I41">
+        <f t="shared" ca="1" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="J41" s="710">
+        <f t="shared" ca="1" si="5"/>
+        <v>1941</v>
+      </c>
+      <c r="K41" t="str">
+        <f ca="1">$A41&amp;K$1&amp;$C41&amp;K$1&amp;$E41&amp;K$1&amp;$F41&amp;K$1&amp;$H41&amp;"/"&amp;$I41&amp;"/"&amp;$J41</f>
+        <v>Lisa|Robinson|Female|Feldgrau|9/16/1941</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" thickBot="1">
       <c r="A42" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="711">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C42" t="s">
         <v>73</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" s="711">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E42" t="s">
         <v>92</v>
       </c>
-      <c r="D42" t="s">
+      <c r="F42" t="s">
         <v>845</v>
       </c>
-      <c r="E42">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F42">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="G42" s="710">
-        <f t="shared" ca="1" si="2"/>
-        <v>1941</v>
-      </c>
-      <c r="H42" t="str">
+      <c r="G42" s="711">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H42">
         <f t="shared" ca="1" si="3"/>
-        <v>Sandra|Clark|Female|Fern|5/10/1941</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="15.75" thickBot="1">
+        <v>8</v>
+      </c>
+      <c r="I42">
+        <f t="shared" ca="1" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="J42" s="710">
+        <f t="shared" ca="1" si="5"/>
+        <v>1948</v>
+      </c>
+      <c r="K42" t="str">
+        <f ca="1">$A42&amp;K$1&amp;$C42&amp;K$1&amp;$E42&amp;K$1&amp;$F42&amp;K$1&amp;$H42&amp;"/"&amp;$I42&amp;"/"&amp;$J42</f>
+        <v>Sandra|Clark|Female|Fern|8/28/1948</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="15.75" thickBot="1">
       <c r="A43" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="711">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
         <v>74</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" s="711">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="E43" t="s">
         <v>92</v>
       </c>
-      <c r="D43" t="s">
+      <c r="F43" t="s">
         <v>2083</v>
       </c>
-      <c r="E43">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="F43">
-        <f t="shared" ca="1" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="G43" s="710">
-        <f t="shared" ca="1" si="2"/>
-        <v>1960</v>
-      </c>
-      <c r="I43" t="str">
+      <c r="G43" s="711">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="H43">
         <f t="shared" ca="1" si="3"/>
-        <v>Ashley,Rodriguez,Female,Fern_green,8/21/1960</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="15.75" thickBot="1">
+        <v>2</v>
+      </c>
+      <c r="I43">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="J43" s="710">
+        <f t="shared" ca="1" si="5"/>
+        <v>1950</v>
+      </c>
+      <c r="L43" t="str">
+        <f ca="1">$A43&amp;L$1&amp;$C43&amp;L$1&amp;$E43&amp;L$1&amp;$F43&amp;L$1&amp;$H43&amp;"/"&amp;$I43&amp;"/"&amp;$J43</f>
+        <v>Ashley,Rodriguez,Female,Fern_green,2/4/1950</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="15.75" thickBot="1">
       <c r="A44" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="711">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C44" t="s">
         <v>75</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" s="711">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E44" t="s">
         <v>92</v>
       </c>
-      <c r="D44" t="s">
+      <c r="F44" t="s">
         <v>2084</v>
       </c>
-      <c r="E44">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="F44">
-        <f t="shared" ca="1" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="G44" s="710">
-        <f t="shared" ca="1" si="2"/>
-        <v>1943</v>
-      </c>
-      <c r="I44" t="str">
+      <c r="G44" s="711">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="H44">
         <f t="shared" ca="1" si="3"/>
-        <v>Kimberly,Lewis,Female,Ferrari_Red,10/25/1943</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="15.75" thickBot="1">
+        <v>3</v>
+      </c>
+      <c r="I44">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="J44" s="710">
+        <f t="shared" ca="1" si="5"/>
+        <v>1954</v>
+      </c>
+      <c r="L44" t="str">
+        <f ca="1">$A44&amp;L$1&amp;$C44&amp;L$1&amp;$E44&amp;L$1&amp;$F44&amp;L$1&amp;$H44&amp;"/"&amp;$I44&amp;"/"&amp;$J44</f>
+        <v>Kimberly,Lewis,Female,Ferrari_Red,3/4/1954</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="15.75" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="711">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
         <v>76</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" s="711">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E45" t="s">
         <v>92</v>
       </c>
-      <c r="D45" t="s">
+      <c r="F45" t="s">
         <v>2085</v>
       </c>
-      <c r="E45">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="F45">
-        <f t="shared" ca="1" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="G45" s="710">
-        <f t="shared" ca="1" si="2"/>
-        <v>1993</v>
-      </c>
-      <c r="I45" t="str">
-        <f t="shared" ref="I45:J81" ca="1" si="4">$A45&amp;I$1&amp;$B45&amp;I$1&amp;$C45&amp;I$1&amp;$D45&amp;I$1&amp;$E45&amp;"/"&amp;$F45&amp;"/"&amp;$G45</f>
-        <v>Donna,Lee,Female,Field_drab,9/25/1993</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="15.75" thickBot="1">
+      <c r="G45" s="711">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="H45">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="I45">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J45" s="710">
+        <f t="shared" ca="1" si="5"/>
+        <v>1958</v>
+      </c>
+      <c r="L45" t="str">
+        <f ca="1">$A45&amp;L$1&amp;$C45&amp;L$1&amp;$E45&amp;L$1&amp;$F45&amp;L$1&amp;$H45&amp;"/"&amp;$I45&amp;"/"&amp;$J45</f>
+        <v>Donna,Lee,Female,Field_drab,4/2/1958</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="15.75" thickBot="1">
       <c r="A46" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="711">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
         <v>77</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" s="711">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E46" t="s">
         <v>92</v>
       </c>
-      <c r="D46" t="s">
+      <c r="F46" t="s">
         <v>2086</v>
       </c>
-      <c r="E46">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F46">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="G46" s="710">
-        <f t="shared" ca="1" si="2"/>
-        <v>1948</v>
-      </c>
-      <c r="I46" t="str">
+      <c r="G46" s="711">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="H46">
+        <f t="shared" ca="1" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="I46">
         <f t="shared" ca="1" si="4"/>
-        <v>Carol,Walker,Female,Fire_engine_red,3/7/1948</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="15.75" thickBot="1">
+        <v>24</v>
+      </c>
+      <c r="J46" s="710">
+        <f t="shared" ca="1" si="5"/>
+        <v>1942</v>
+      </c>
+      <c r="L46" t="str">
+        <f ca="1">$A46&amp;L$1&amp;$C46&amp;L$1&amp;$E46&amp;L$1&amp;$F46&amp;L$1&amp;$H46&amp;"/"&amp;$I46&amp;"/"&amp;$J46</f>
+        <v>Carol,Walker,Female,Fire_engine_red,11/24/1942</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="15.75" thickBot="1">
       <c r="A47" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="711">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C47" t="s">
         <v>78</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" s="711">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E47" t="s">
         <v>92</v>
       </c>
-      <c r="D47" t="s">
+      <c r="F47" t="s">
         <v>859</v>
       </c>
-      <c r="E47">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="F47">
-        <f t="shared" ca="1" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="G47" s="710">
-        <f t="shared" ca="1" si="2"/>
-        <v>1973</v>
-      </c>
-      <c r="I47" t="str">
+      <c r="G47" s="711">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="H47">
+        <f t="shared" ca="1" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="I47">
         <f t="shared" ca="1" si="4"/>
-        <v>Michelle,Hall,Female,Firebrick,8/21/1973</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="15.75" thickBot="1">
+        <v>10</v>
+      </c>
+      <c r="J47" s="710">
+        <f t="shared" ca="1" si="5"/>
+        <v>1986</v>
+      </c>
+      <c r="L47" t="str">
+        <f ca="1">$A47&amp;L$1&amp;$C47&amp;L$1&amp;$E47&amp;L$1&amp;$F47&amp;L$1&amp;$H47&amp;"/"&amp;$I47&amp;"/"&amp;$J47</f>
+        <v>Michelle,Hall,Female,Firebrick,9/10/1986</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="15.75" thickBot="1">
       <c r="A48" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="711">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C48" t="s">
         <v>79</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" s="711">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E48" t="s">
         <v>92</v>
       </c>
-      <c r="D48" t="s">
+      <c r="F48" t="s">
         <v>861</v>
       </c>
-      <c r="E48">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="F48">
-        <f t="shared" ca="1" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="G48" s="710">
-        <f t="shared" ca="1" si="2"/>
-        <v>1942</v>
-      </c>
-      <c r="I48" t="str">
+      <c r="G48" s="711">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="H48">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="I48">
         <f t="shared" ca="1" si="4"/>
-        <v>Emily,Allen,Female,Flame,11/24/1942</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="15.75" thickBot="1">
+        <v>12</v>
+      </c>
+      <c r="J48" s="710">
+        <f t="shared" ca="1" si="5"/>
+        <v>1983</v>
+      </c>
+      <c r="L48" t="str">
+        <f ca="1">$A48&amp;L$1&amp;$C48&amp;L$1&amp;$E48&amp;L$1&amp;$F48&amp;L$1&amp;$H48&amp;"/"&amp;$I48&amp;"/"&amp;$J48</f>
+        <v>Emily,Allen,Female,Flame,7/12/1983</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="15.75" thickBot="1">
       <c r="A49" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="711">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C49" t="s">
         <v>80</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" s="711">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E49" t="s">
         <v>92</v>
       </c>
-      <c r="D49" t="s">
+      <c r="F49" t="s">
         <v>2087</v>
       </c>
-      <c r="E49">
-        <f t="shared" ca="1" si="0"/>
+      <c r="G49" s="711">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="H49">
+        <f t="shared" ca="1" si="3"/>
         <v>6</v>
       </c>
-      <c r="F49">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="G49" s="710">
-        <f t="shared" ca="1" si="2"/>
-        <v>1944</v>
-      </c>
-      <c r="I49" t="str">
+      <c r="I49">
         <f t="shared" ca="1" si="4"/>
-        <v>Helen,Young,Female,Flamingo_pink,6/7/1944</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="15.75" thickBot="1">
+        <v>11</v>
+      </c>
+      <c r="J49" s="710">
+        <f t="shared" ca="1" si="5"/>
+        <v>1968</v>
+      </c>
+      <c r="L49" t="str">
+        <f ca="1">$A49&amp;L$1&amp;$C49&amp;L$1&amp;$E49&amp;L$1&amp;$F49&amp;L$1&amp;$H49&amp;"/"&amp;$I49&amp;"/"&amp;$J49</f>
+        <v>Helen,Young,Female,Flamingo_pink,6/11/1968</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="15.75" thickBot="1">
       <c r="A50" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="711">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C50" t="s">
         <v>81</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" s="711">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="E50" t="s">
         <v>92</v>
       </c>
-      <c r="D50" t="s">
+      <c r="F50" t="s">
         <v>867</v>
       </c>
-      <c r="E50">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F50">
-        <f t="shared" ca="1" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="G50" s="710">
-        <f t="shared" ca="1" si="2"/>
-        <v>1980</v>
-      </c>
-      <c r="I50" t="str">
+      <c r="G50" s="711">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="H50">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="I50">
         <f t="shared" ca="1" si="4"/>
-        <v>Amanda,Hernandez,Female,Flavescent,5/11/1980</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>8</v>
+      </c>
+      <c r="J50" s="710">
+        <f t="shared" ca="1" si="5"/>
+        <v>1998</v>
+      </c>
+      <c r="L50" t="str">
+        <f ca="1">$A50&amp;L$1&amp;$C50&amp;L$1&amp;$E50&amp;L$1&amp;$F50&amp;L$1&amp;$H50&amp;"/"&amp;$I50&amp;"/"&amp;$J50</f>
+        <v>Amanda,Hernandez,Female,Flavescent,2/8/1998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="711">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C51" t="s">
         <v>101</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" s="711">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E51" t="s">
         <v>91</v>
       </c>
-      <c r="D51" t="s">
+      <c r="F51" t="s">
         <v>870</v>
       </c>
-      <c r="E51">
-        <f t="shared" ca="1" si="0"/>
+      <c r="G51" s="711">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H51">
+        <f t="shared" ca="1" si="3"/>
         <v>12</v>
       </c>
-      <c r="F51">
-        <f t="shared" ca="1" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="G51" s="710">
-        <f t="shared" ca="1" si="2"/>
-        <v>1986</v>
-      </c>
-      <c r="I51" t="str">
+      <c r="I51">
         <f t="shared" ca="1" si="4"/>
-        <v>James,Nelson,Male,Flax,12/22/1986</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>12</v>
+      </c>
+      <c r="J51" s="710">
+        <f t="shared" ca="1" si="5"/>
+        <v>1993</v>
+      </c>
+      <c r="L51" t="str">
+        <f ca="1">$A51&amp;L$1&amp;$C51&amp;L$1&amp;$E51&amp;L$1&amp;$F51&amp;L$1&amp;$H51&amp;"/"&amp;$I51&amp;"/"&amp;$J51</f>
+        <v>James,Nelson,Male,Flax,12/12/1993</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="711">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C52" t="s">
         <v>102</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" s="711">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E52" t="s">
         <v>91</v>
       </c>
-      <c r="D52" t="s">
+      <c r="F52" t="s">
         <v>2088</v>
       </c>
-      <c r="E52">
-        <f t="shared" ca="1" si="0"/>
+      <c r="G52" s="711">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="F52">
-        <f t="shared" ca="1" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="G52" s="710">
-        <f t="shared" ca="1" si="2"/>
-        <v>1986</v>
-      </c>
-      <c r="I52" t="str">
+      <c r="H52">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="I52">
         <f t="shared" ca="1" si="4"/>
-        <v>John,Carter,Male,Floral_white,12/13/1986</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J52" s="710">
+        <f t="shared" ca="1" si="5"/>
+        <v>1942</v>
+      </c>
+      <c r="L52" t="str">
+        <f ca="1">$A52&amp;L$1&amp;$C52&amp;L$1&amp;$E52&amp;L$1&amp;$F52&amp;L$1&amp;$H52&amp;"/"&amp;$I52&amp;"/"&amp;$J52</f>
+        <v>John,Carter,Male,Floral_white,4/20/1942</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="711">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C53" t="s">
         <v>103</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" s="711">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E53" t="s">
         <v>91</v>
       </c>
-      <c r="D53" t="s">
+      <c r="F53" t="s">
         <v>2089</v>
       </c>
-      <c r="E53">
-        <f t="shared" ca="1" si="0"/>
+      <c r="G53" s="711">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="H53">
+        <f t="shared" ca="1" si="3"/>
         <v>8</v>
       </c>
-      <c r="F53">
-        <f t="shared" ca="1" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="G53" s="710">
-        <f t="shared" ca="1" si="2"/>
-        <v>1966</v>
-      </c>
-      <c r="I53" t="str">
+      <c r="I53">
         <f t="shared" ca="1" si="4"/>
-        <v>Robert,Mitchell,Male,Fluorescent_orange,8/26/1966</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J53" s="710">
+        <f t="shared" ca="1" si="5"/>
+        <v>2002</v>
+      </c>
+      <c r="L53" t="str">
+        <f ca="1">$A53&amp;L$1&amp;$C53&amp;L$1&amp;$E53&amp;L$1&amp;$F53&amp;L$1&amp;$H53&amp;"/"&amp;$I53&amp;"/"&amp;$J53</f>
+        <v>Robert,Mitchell,Male,Fluorescent_orange,8/27/2002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="711">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C54" t="s">
         <v>104</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" s="711">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E54" t="s">
         <v>91</v>
       </c>
-      <c r="D54" t="s">
+      <c r="F54" t="s">
         <v>2090</v>
       </c>
-      <c r="E54">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="F54">
-        <f t="shared" ca="1" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="G54" s="710">
-        <f t="shared" ca="1" si="2"/>
-        <v>1967</v>
-      </c>
-      <c r="I54" t="str">
+      <c r="G54" s="711">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="H54">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="I54">
         <f t="shared" ca="1" si="4"/>
-        <v>Michael,Perez,Male,Fluorescent_pink,6/25/1967</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>8</v>
+      </c>
+      <c r="J54" s="710">
+        <f t="shared" ca="1" si="5"/>
+        <v>2003</v>
+      </c>
+      <c r="L54" t="str">
+        <f ca="1">$A54&amp;L$1&amp;$C54&amp;L$1&amp;$E54&amp;L$1&amp;$F54&amp;L$1&amp;$H54&amp;"/"&amp;$I54&amp;"/"&amp;$J54</f>
+        <v>Michael,Perez,Male,Fluorescent_pink,5/8/2003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="711">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C55" t="s">
         <v>105</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" s="711">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E55" t="s">
         <v>91</v>
       </c>
-      <c r="D55" t="s">
+      <c r="F55" t="s">
         <v>2091</v>
       </c>
-      <c r="E55">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="F55">
-        <f t="shared" ca="1" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="G55" s="710">
-        <f t="shared" ca="1" si="2"/>
-        <v>1962</v>
-      </c>
-      <c r="I55" t="str">
+      <c r="G55" s="711">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="H55">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="I55">
         <f t="shared" ca="1" si="4"/>
-        <v>William,Roberts,Male,Fluorescent_yellow,6/17/1962</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>4</v>
+      </c>
+      <c r="J55" s="710">
+        <f t="shared" ca="1" si="5"/>
+        <v>1980</v>
+      </c>
+      <c r="L55" t="str">
+        <f ca="1">$A55&amp;L$1&amp;$C55&amp;L$1&amp;$E55&amp;L$1&amp;$F55&amp;L$1&amp;$H55&amp;"/"&amp;$I55&amp;"/"&amp;$J55</f>
+        <v>William,Roberts,Male,Fluorescent_yellow,5/4/1980</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="711">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
         <v>106</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" s="711">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E56" t="s">
         <v>91</v>
       </c>
-      <c r="D56" t="s">
+      <c r="F56" t="s">
         <v>878</v>
       </c>
-      <c r="E56">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="F56">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="G56" s="710">
-        <f t="shared" ca="1" si="2"/>
-        <v>2013</v>
-      </c>
-      <c r="I56" t="str">
+      <c r="G56" s="711">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="H56">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="I56">
         <f t="shared" ca="1" si="4"/>
-        <v>David,Turner,Male,Folly,11/2/2013</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>7</v>
+      </c>
+      <c r="J56" s="710">
+        <f t="shared" ca="1" si="5"/>
+        <v>2006</v>
+      </c>
+      <c r="L56" t="str">
+        <f ca="1">$A56&amp;L$1&amp;$C56&amp;L$1&amp;$E56&amp;L$1&amp;$F56&amp;L$1&amp;$H56&amp;"/"&amp;$I56&amp;"/"&amp;$J56</f>
+        <v>David,Turner,Male,Folly,6/7/2006</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="711">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C57" t="s">
         <v>107</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" s="711">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E57" t="s">
         <v>91</v>
       </c>
-      <c r="D57" t="s">
+      <c r="F57" t="s">
         <v>2092</v>
       </c>
-      <c r="E57">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F57">
-        <f t="shared" ca="1" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="G57" s="710">
-        <f t="shared" ca="1" si="2"/>
-        <v>1995</v>
-      </c>
-      <c r="I57" t="str">
+      <c r="G57" s="711">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="H57">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="I57">
         <f t="shared" ca="1" si="4"/>
-        <v>Richard,Phillips,Male,Forest_green,2/21/1995</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>7</v>
+      </c>
+      <c r="J57" s="710">
+        <f t="shared" ca="1" si="5"/>
+        <v>1958</v>
+      </c>
+      <c r="L57" t="str">
+        <f ca="1">$A57&amp;L$1&amp;$C57&amp;L$1&amp;$E57&amp;L$1&amp;$F57&amp;L$1&amp;$H57&amp;"/"&amp;$I57&amp;"/"&amp;$J57</f>
+        <v>Richard,Phillips,Male,Forest_green,7/7/1958</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="711">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C58" t="s">
         <v>108</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" s="711">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E58" t="s">
         <v>91</v>
       </c>
-      <c r="D58" t="s">
+      <c r="F58" t="s">
         <v>2093</v>
       </c>
-      <c r="E58">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F58">
-        <f t="shared" ca="1" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="G58" s="710">
-        <f t="shared" ca="1" si="2"/>
-        <v>1951</v>
-      </c>
-      <c r="I58" t="str">
+      <c r="G58" s="711">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="H58">
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="I58">
         <f t="shared" ca="1" si="4"/>
-        <v>Joseph,Campbell,Male,French_beige,2/25/1951</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J58" s="710">
+        <f t="shared" ca="1" si="5"/>
+        <v>1945</v>
+      </c>
+      <c r="L58" t="str">
+        <f ca="1">$A58&amp;L$1&amp;$C58&amp;L$1&amp;$E58&amp;L$1&amp;$F58&amp;L$1&amp;$H58&amp;"/"&amp;$I58&amp;"/"&amp;$J58</f>
+        <v>Joseph,Campbell,Male,French_beige,10/6/1945</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="711">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C59" t="s">
         <v>109</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" s="711">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E59" t="s">
         <v>91</v>
       </c>
-      <c r="D59" t="s">
+      <c r="F59" t="s">
         <v>2094</v>
       </c>
-      <c r="E59">
-        <f t="shared" ca="1" si="0"/>
+      <c r="G59" s="711">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="F59">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="G59" s="710">
-        <f t="shared" ca="1" si="2"/>
-        <v>1957</v>
-      </c>
-      <c r="I59" t="str">
+      <c r="H59">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="I59">
         <f t="shared" ca="1" si="4"/>
-        <v>Thomas,Parker,Male,French_blue,11/5/1957</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>17</v>
+      </c>
+      <c r="J59" s="710">
+        <f t="shared" ca="1" si="5"/>
+        <v>1963</v>
+      </c>
+      <c r="L59" t="str">
+        <f ca="1">$A59&amp;L$1&amp;$C59&amp;L$1&amp;$E59&amp;L$1&amp;$F59&amp;L$1&amp;$H59&amp;"/"&amp;$I59&amp;"/"&amp;$J59</f>
+        <v>Thomas,Parker,Male,French_blue,7/17/1963</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="711">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C60" t="s">
         <v>110</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" s="711">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E60" t="s">
         <v>91</v>
       </c>
-      <c r="D60" t="s">
+      <c r="F60" t="s">
         <v>2095</v>
       </c>
-      <c r="E60">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="F60">
-        <f t="shared" ca="1" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="G60" s="710">
-        <f t="shared" ca="1" si="2"/>
-        <v>1978</v>
-      </c>
-      <c r="I60" t="str">
+      <c r="G60" s="711">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="H60">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="I60">
         <f t="shared" ca="1" si="4"/>
-        <v>Charles,Evans,Male,French_lilac,8/23/1978</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J60" s="710">
+        <f t="shared" ca="1" si="5"/>
+        <v>1969</v>
+      </c>
+      <c r="L60" t="str">
+        <f ca="1">$A60&amp;L$1&amp;$C60&amp;L$1&amp;$E60&amp;L$1&amp;$F60&amp;L$1&amp;$H60&amp;"/"&amp;$I60&amp;"/"&amp;$J60</f>
+        <v>Charles,Evans,Male,French_lilac,3/27/1969</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="711">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C61" t="s">
         <v>111</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" s="711">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E61" t="s">
         <v>91</v>
       </c>
-      <c r="D61" t="s">
+      <c r="F61" t="s">
         <v>2096</v>
       </c>
-      <c r="E61">
-        <f t="shared" ca="1" si="0"/>
+      <c r="G61" s="711">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="F61">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="G61" s="710">
-        <f t="shared" ca="1" si="2"/>
-        <v>1989</v>
-      </c>
-      <c r="I61" t="str">
+      <c r="H61">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="I61">
         <f t="shared" ca="1" si="4"/>
-        <v>Christopher,Edwards,Male,Mango_Tango,11/5/1989</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J61" s="710">
+        <f t="shared" ca="1" si="5"/>
+        <v>1969</v>
+      </c>
+      <c r="L61" t="str">
+        <f ca="1">$A61&amp;L$1&amp;$C61&amp;L$1&amp;$E61&amp;L$1&amp;$F61&amp;L$1&amp;$H61&amp;"/"&amp;$I61&amp;"/"&amp;$J61</f>
+        <v>Christopher,Edwards,Male,Mango_Tango,4/19/1969</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="711">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C62" t="s">
         <v>112</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" s="711">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E62" t="s">
         <v>91</v>
       </c>
-      <c r="D62" t="s">
+      <c r="F62" t="s">
         <v>1199</v>
       </c>
-      <c r="E62">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="F62">
-        <f t="shared" ca="1" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="G62" s="710">
-        <f t="shared" ca="1" si="2"/>
-        <v>1963</v>
-      </c>
-      <c r="I62" t="str">
+      <c r="G62" s="711">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="H62">
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="I62">
         <f t="shared" ca="1" si="4"/>
-        <v>Daniel,Collins,Male,Mantis,7/16/1963</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>4</v>
+      </c>
+      <c r="J62" s="710">
+        <f t="shared" ca="1" si="5"/>
+        <v>1955</v>
+      </c>
+      <c r="L62" t="str">
+        <f ca="1">$A62&amp;L$1&amp;$C62&amp;L$1&amp;$E62&amp;L$1&amp;$F62&amp;L$1&amp;$H62&amp;"/"&amp;$I62&amp;"/"&amp;$J62</f>
+        <v>Daniel,Collins,Male,Mantis,10/4/1955</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="711">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C63" t="s">
         <v>113</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" s="711">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E63" t="s">
         <v>91</v>
       </c>
-      <c r="D63" t="s">
+      <c r="F63" t="s">
         <v>1202</v>
       </c>
-      <c r="E63">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="F63">
-        <f t="shared" ca="1" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="G63" s="710">
-        <f t="shared" ca="1" si="2"/>
-        <v>1944</v>
-      </c>
-      <c r="I63" t="str">
+      <c r="G63" s="711">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="H63">
+        <f t="shared" ca="1" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="I63">
         <f t="shared" ca="1" si="4"/>
-        <v>Matthew,Stewart,Male,Maroon,10/16/1944</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>3</v>
+      </c>
+      <c r="J63" s="710">
+        <f t="shared" ca="1" si="5"/>
+        <v>1983</v>
+      </c>
+      <c r="L63" t="str">
+        <f ca="1">$A63&amp;L$1&amp;$C63&amp;L$1&amp;$E63&amp;L$1&amp;$F63&amp;L$1&amp;$H63&amp;"/"&amp;$I63&amp;"/"&amp;$J63</f>
+        <v>Matthew,Stewart,Male,Maroon,12/3/1983</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="711">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C64" t="s">
         <v>114</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" s="711">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E64" t="s">
         <v>91</v>
       </c>
-      <c r="D64" t="s">
+      <c r="F64" t="s">
         <v>100</v>
       </c>
-      <c r="E64">
-        <f t="shared" ca="1" si="0"/>
+      <c r="G64" s="711">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="H64">
+        <f t="shared" ca="1" si="3"/>
         <v>8</v>
       </c>
-      <c r="F64">
-        <f t="shared" ca="1" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="G64" s="710">
-        <f t="shared" ca="1" si="2"/>
-        <v>1960</v>
-      </c>
-      <c r="I64" t="str">
+      <c r="I64">
         <f t="shared" ca="1" si="4"/>
-        <v>Anthony,Sanchez,Male,Mauve,8/11/1960</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
+        <v>15</v>
+      </c>
+      <c r="J64" s="710">
+        <f t="shared" ca="1" si="5"/>
+        <v>1966</v>
+      </c>
+      <c r="L64" t="str">
+        <f ca="1">$A64&amp;L$1&amp;$C64&amp;L$1&amp;$E64&amp;L$1&amp;$F64&amp;L$1&amp;$H64&amp;"/"&amp;$I64&amp;"/"&amp;$J64</f>
+        <v>Anthony,Sanchez,Male,Mauve,8/15/1966</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="711">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C65" t="s">
         <v>115</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" s="711">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E65" t="s">
         <v>91</v>
       </c>
-      <c r="D65" t="s">
+      <c r="F65" t="s">
         <v>2097</v>
       </c>
-      <c r="E65">
-        <f t="shared" ca="1" si="0"/>
+      <c r="G65" s="711">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="F65">
-        <f t="shared" ca="1" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="G65" s="710">
-        <f t="shared" ca="1" si="2"/>
-        <v>1999</v>
-      </c>
-      <c r="I65" t="str">
+      <c r="H65">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="I65">
         <f t="shared" ca="1" si="4"/>
-        <v>Donald,Morris,Male,Mauve_taupe,11/26/1999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
+        <v>9</v>
+      </c>
+      <c r="J65" s="710">
+        <f t="shared" ca="1" si="5"/>
+        <v>2014</v>
+      </c>
+      <c r="L65" t="str">
+        <f ca="1">$A65&amp;L$1&amp;$C65&amp;L$1&amp;$E65&amp;L$1&amp;$F65&amp;L$1&amp;$H65&amp;"/"&amp;$I65&amp;"/"&amp;$J65</f>
+        <v>Donald,Morris,Male,Mauve_taupe,6/9/2014</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="711">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C66" t="s">
         <v>116</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" s="711">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E66" t="s">
         <v>91</v>
       </c>
-      <c r="D66" t="s">
+      <c r="F66" t="s">
         <v>1209</v>
       </c>
-      <c r="E66">
-        <f t="shared" ca="1" si="0"/>
+      <c r="G66" s="711">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="H66">
+        <f t="shared" ca="1" si="3"/>
         <v>11</v>
       </c>
-      <c r="F66">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="G66" s="710">
-        <f t="shared" ca="1" si="2"/>
-        <v>1941</v>
-      </c>
-      <c r="I66" t="str">
+      <c r="I66">
         <f t="shared" ca="1" si="4"/>
-        <v>Mark,Rogers,Male,Mauvelous,11/2/1941</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10">
+        <v>25</v>
+      </c>
+      <c r="J66" s="710">
+        <f t="shared" ca="1" si="5"/>
+        <v>1990</v>
+      </c>
+      <c r="L66" t="str">
+        <f ca="1">$A66&amp;L$1&amp;$C66&amp;L$1&amp;$E66&amp;L$1&amp;$F66&amp;L$1&amp;$H66&amp;"/"&amp;$I66&amp;"/"&amp;$J66</f>
+        <v>Mark,Rogers,Male,Mauvelous,11/25/1990</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="711">
+        <f t="shared" ref="B67:B130" si="6">LEN(A67)</f>
+        <v>4</v>
+      </c>
+      <c r="C67" t="s">
         <v>117</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" s="711">
+        <f t="shared" ref="D67:D130" si="7">LEN(C67)</f>
+        <v>4</v>
+      </c>
+      <c r="E67" t="s">
         <v>91</v>
       </c>
-      <c r="D67" t="s">
+      <c r="F67" t="s">
         <v>2098</v>
       </c>
-      <c r="E67">
-        <f t="shared" ref="E67:E130" ca="1" si="5" xml:space="preserve"> _xlfn.CEILING.MATH(RAND()*11 + 1)</f>
+      <c r="G67" s="711">
+        <f t="shared" ref="G67:G130" si="8">LEN(F67)</f>
+        <v>9</v>
+      </c>
+      <c r="H67">
+        <f t="shared" ref="H67:H130" ca="1" si="9" xml:space="preserve"> _xlfn.CEILING.MATH(RAND()*11 + 1)</f>
+        <v>8</v>
+      </c>
+      <c r="I67">
+        <f t="shared" ref="I67:I130" ca="1" si="10" xml:space="preserve"> _xlfn.CEILING.MATH(RAND()*27 + 1)</f>
         <v>3</v>
       </c>
-      <c r="F67">
-        <f t="shared" ref="F67:F130" ca="1" si="6" xml:space="preserve"> _xlfn.CEILING.MATH(RAND()*27 + 1)</f>
-        <v>3</v>
-      </c>
-      <c r="G67" s="710">
-        <f t="shared" ref="G67:G130" ca="1" si="7">_xlfn.CEILING.MATH(RAND()*75 + 1940)</f>
-        <v>1982</v>
-      </c>
-      <c r="I67" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Paul,Reed,Male,Maya_blue,3/3/1982</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
+      <c r="J67" s="710">
+        <f t="shared" ref="J67:J130" ca="1" si="11">_xlfn.CEILING.MATH(RAND()*75 + 1940)</f>
+        <v>1956</v>
+      </c>
+      <c r="L67" t="str">
+        <f ca="1">$A67&amp;L$1&amp;$C67&amp;L$1&amp;$E67&amp;L$1&amp;$F67&amp;L$1&amp;$H67&amp;"/"&amp;$I67&amp;"/"&amp;$J67</f>
+        <v>Paul,Reed,Male,Maya_blue,8/3/1956</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="711">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="C68" t="s">
         <v>118</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" s="711">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="E68" t="s">
         <v>91</v>
       </c>
-      <c r="D68" t="s">
+      <c r="F68" t="s">
         <v>2099</v>
       </c>
-      <c r="E68">
-        <f t="shared" ca="1" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="F68">
-        <f t="shared" ca="1" si="6"/>
-        <v>22</v>
-      </c>
-      <c r="G68" s="710">
-        <f t="shared" ca="1" si="7"/>
-        <v>1943</v>
-      </c>
-      <c r="I68" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Steven,Cook,Male,Meat_brown,9/22/1943</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
+      <c r="G68" s="711">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="H68">
+        <f t="shared" ca="1" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="I68">
+        <f t="shared" ca="1" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="J68" s="710">
+        <f t="shared" ca="1" si="11"/>
+        <v>2012</v>
+      </c>
+      <c r="L68" t="str">
+        <f ca="1">$A68&amp;L$1&amp;$C68&amp;L$1&amp;$E68&amp;L$1&amp;$F68&amp;L$1&amp;$H68&amp;"/"&amp;$I68&amp;"/"&amp;$J68</f>
+        <v>Steven,Cook,Male,Meat_brown,6/5/2012</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="711">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="C69" t="s">
         <v>119</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" s="711">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="E69" t="s">
         <v>91</v>
       </c>
-      <c r="D69" t="s">
+      <c r="F69" t="s">
         <v>2100</v>
       </c>
-      <c r="E69">
-        <f t="shared" ca="1" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="F69">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="G69" s="710">
-        <f t="shared" ca="1" si="7"/>
-        <v>1986</v>
-      </c>
-      <c r="I69" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>George,Morgan,Male,Medium_aquamarine,12/4/1986</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10">
+      <c r="G69" s="711">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="H69">
+        <f t="shared" ca="1" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="I69">
+        <f t="shared" ca="1" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="J69" s="710">
+        <f t="shared" ca="1" si="11"/>
+        <v>1977</v>
+      </c>
+      <c r="L69" t="str">
+        <f ca="1">$A69&amp;L$1&amp;$C69&amp;L$1&amp;$E69&amp;L$1&amp;$F69&amp;L$1&amp;$H69&amp;"/"&amp;$I69&amp;"/"&amp;$J69</f>
+        <v>George,Morgan,Male,Medium_aquamarine,11/9/1977</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="711">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="C70" t="s">
         <v>120</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" s="711">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="E70" t="s">
         <v>91</v>
       </c>
-      <c r="D70" t="s">
+      <c r="F70" t="s">
         <v>2101</v>
       </c>
-      <c r="E70">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="F70">
-        <f t="shared" ca="1" si="6"/>
-        <v>12</v>
-      </c>
-      <c r="G70" s="710">
-        <f t="shared" ca="1" si="7"/>
-        <v>1997</v>
-      </c>
-      <c r="I70" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Kenneth,Bell,Male,Medium_blue,6/12/1997</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
+      <c r="G70" s="711">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="H70">
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="I70">
+        <f t="shared" ca="1" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="J70" s="710">
+        <f t="shared" ca="1" si="11"/>
+        <v>1999</v>
+      </c>
+      <c r="L70" t="str">
+        <f ca="1">$A70&amp;L$1&amp;$C70&amp;L$1&amp;$E70&amp;L$1&amp;$F70&amp;L$1&amp;$H70&amp;"/"&amp;$I70&amp;"/"&amp;$J70</f>
+        <v>Kenneth,Bell,Male,Medium_blue,9/15/1999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="711">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="C71" t="s">
         <v>121</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" s="711">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="E71" t="s">
         <v>91</v>
       </c>
-      <c r="D71" t="s">
+      <c r="F71" t="s">
         <v>2102</v>
       </c>
-      <c r="E71">
-        <f t="shared" ca="1" si="5"/>
+      <c r="G71" s="711">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="H71">
+        <f t="shared" ca="1" si="9"/>
         <v>2</v>
       </c>
-      <c r="F71">
-        <f t="shared" ca="1" si="6"/>
-        <v>15</v>
-      </c>
-      <c r="G71" s="710">
-        <f t="shared" ca="1" si="7"/>
-        <v>2013</v>
-      </c>
-      <c r="I71" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Andrew,Murphy,Male,Medium_candy_apple_red,2/15/2013</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
+      <c r="I71">
+        <f t="shared" ca="1" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="J71" s="710">
+        <f t="shared" ca="1" si="11"/>
+        <v>1994</v>
+      </c>
+      <c r="L71" t="str">
+        <f ca="1">$A71&amp;L$1&amp;$C71&amp;L$1&amp;$E71&amp;L$1&amp;$F71&amp;L$1&amp;$H71&amp;"/"&amp;$I71&amp;"/"&amp;$J71</f>
+        <v>Andrew,Murphy,Male,Medium_candy_apple_red,2/12/1994</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="711">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="C72" t="s">
         <v>122</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" s="711">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="E72" t="s">
         <v>91</v>
       </c>
-      <c r="D72" t="s">
+      <c r="F72" t="s">
         <v>2103</v>
       </c>
-      <c r="E72">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="F72">
-        <f t="shared" ca="1" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="G72" s="710">
-        <f t="shared" ca="1" si="7"/>
-        <v>1945</v>
-      </c>
-      <c r="I72" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Joshua,Bailey,Male,Medium_carmine,4/5/1945</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10">
+      <c r="G72" s="711">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="H72">
+        <f t="shared" ca="1" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="I72">
+        <f t="shared" ca="1" si="10"/>
+        <v>22</v>
+      </c>
+      <c r="J72" s="710">
+        <f t="shared" ca="1" si="11"/>
+        <v>2006</v>
+      </c>
+      <c r="L72" t="str">
+        <f ca="1">$A72&amp;L$1&amp;$C72&amp;L$1&amp;$E72&amp;L$1&amp;$F72&amp;L$1&amp;$H72&amp;"/"&amp;$I72&amp;"/"&amp;$J72</f>
+        <v>Joshua,Bailey,Male,Medium_carmine,7/22/2006</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="711">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="C73" t="s">
         <v>123</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" s="711">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="E73" t="s">
         <v>91</v>
       </c>
-      <c r="D73" t="s">
+      <c r="F73" t="s">
         <v>2104</v>
       </c>
-      <c r="E73">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="F73">
-        <f t="shared" ca="1" si="6"/>
-        <v>20</v>
-      </c>
-      <c r="G73" s="710">
-        <f t="shared" ca="1" si="7"/>
-        <v>1958</v>
-      </c>
-      <c r="I73" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Edward,Rivera,Male,Medium_champagne,3/20/1958</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10">
+      <c r="G73" s="711">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="H73">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="I73">
+        <f t="shared" ca="1" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="J73" s="710">
+        <f t="shared" ca="1" si="11"/>
+        <v>2001</v>
+      </c>
+      <c r="L73" t="str">
+        <f ca="1">$A73&amp;L$1&amp;$C73&amp;L$1&amp;$E73&amp;L$1&amp;$F73&amp;L$1&amp;$H73&amp;"/"&amp;$I73&amp;"/"&amp;$J73</f>
+        <v>Edward,Rivera,Male,Medium_champagne,2/18/2001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="711">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C74" t="s">
         <v>124</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" s="711">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="E74" t="s">
         <v>91</v>
       </c>
-      <c r="D74" t="s">
+      <c r="F74" t="s">
         <v>2105</v>
       </c>
-      <c r="E74">
-        <f t="shared" ca="1" si="5"/>
+      <c r="G74" s="711">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="H74">
+        <f t="shared" ca="1" si="9"/>
         <v>9</v>
       </c>
-      <c r="F74">
-        <f t="shared" ca="1" si="6"/>
+      <c r="I74">
+        <f t="shared" ca="1" si="10"/>
         <v>3</v>
       </c>
-      <c r="G74" s="710">
-        <f t="shared" ca="1" si="7"/>
-        <v>1965</v>
-      </c>
-      <c r="I74" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Brian,Cooper,Male,Medium_electric_blue,9/3/1965</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
+      <c r="J74" s="710">
+        <f t="shared" ca="1" si="11"/>
+        <v>1968</v>
+      </c>
+      <c r="L74" t="str">
+        <f ca="1">$A74&amp;L$1&amp;$C74&amp;L$1&amp;$E74&amp;L$1&amp;$F74&amp;L$1&amp;$H74&amp;"/"&amp;$I74&amp;"/"&amp;$J74</f>
+        <v>Brian,Cooper,Male,Medium_electric_blue,9/3/1968</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="711">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C75" t="s">
         <v>125</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" s="711">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="E75" t="s">
         <v>91</v>
       </c>
-      <c r="D75" t="s">
+      <c r="F75" t="s">
         <v>2106</v>
       </c>
-      <c r="E75">
-        <f t="shared" ca="1" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="F75">
-        <f t="shared" ca="1" si="6"/>
-        <v>28</v>
-      </c>
-      <c r="G75" s="710">
-        <f t="shared" ca="1" si="7"/>
-        <v>2007</v>
-      </c>
-      <c r="I75" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Kevin,Richardson,Male,Medium_jungle_green,12/28/2007</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
+      <c r="G75" s="711">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="H75">
+        <f t="shared" ca="1" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="I75">
+        <f t="shared" ca="1" si="10"/>
+        <v>25</v>
+      </c>
+      <c r="J75" s="710">
+        <f t="shared" ca="1" si="11"/>
+        <v>2000</v>
+      </c>
+      <c r="L75" t="str">
+        <f ca="1">$A75&amp;L$1&amp;$C75&amp;L$1&amp;$E75&amp;L$1&amp;$F75&amp;L$1&amp;$H75&amp;"/"&amp;$I75&amp;"/"&amp;$J75</f>
+        <v>Kevin,Richardson,Male,Medium_jungle_green,8/25/2000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="711">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C76" t="s">
         <v>126</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" s="711">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="E76" t="s">
         <v>91</v>
       </c>
-      <c r="D76" t="s">
+      <c r="F76" t="s">
         <v>2107</v>
       </c>
-      <c r="E76">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="F76">
-        <f t="shared" ca="1" si="6"/>
-        <v>18</v>
-      </c>
-      <c r="G76" s="710">
-        <f t="shared" ca="1" si="7"/>
-        <v>1941</v>
-      </c>
-      <c r="I76" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>James,Cox,Male,Medium_lavender_magenta,4/18/1941</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10">
+      <c r="G76" s="711">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="H76">
+        <f t="shared" ca="1" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="I76">
+        <f t="shared" ca="1" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="J76" s="710">
+        <f t="shared" ca="1" si="11"/>
+        <v>1944</v>
+      </c>
+      <c r="L76" t="str">
+        <f ca="1">$A76&amp;L$1&amp;$C76&amp;L$1&amp;$E76&amp;L$1&amp;$F76&amp;L$1&amp;$H76&amp;"/"&amp;$I76&amp;"/"&amp;$J76</f>
+        <v>James,Cox,Male,Medium_lavender_magenta,12/13/1944</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="711">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="C77" t="s">
         <v>127</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" s="711">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="E77" t="s">
         <v>91</v>
       </c>
-      <c r="D77" t="s">
+      <c r="F77" t="s">
         <v>2108</v>
       </c>
-      <c r="E77">
-        <f t="shared" ca="1" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="F77">
-        <f t="shared" ca="1" si="6"/>
+      <c r="G77" s="711">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="H77">
+        <f t="shared" ca="1" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="I77">
+        <f t="shared" ca="1" si="10"/>
         <v>21</v>
       </c>
-      <c r="G77" s="710">
-        <f t="shared" ca="1" si="7"/>
-        <v>1997</v>
-      </c>
-      <c r="I77" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>John,Howard,Male,Medium_orchid,10/21/1997</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10">
+      <c r="J77" s="710">
+        <f t="shared" ca="1" si="11"/>
+        <v>1983</v>
+      </c>
+      <c r="L77" t="str">
+        <f ca="1">$A77&amp;L$1&amp;$C77&amp;L$1&amp;$E77&amp;L$1&amp;$F77&amp;L$1&amp;$H77&amp;"/"&amp;$I77&amp;"/"&amp;$J77</f>
+        <v>John,Howard,Male,Medium_orchid,4/21/1983</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="711">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="C78" t="s">
         <v>128</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" s="711">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="E78" t="s">
         <v>91</v>
       </c>
-      <c r="D78" t="s">
+      <c r="F78" t="s">
         <v>2109</v>
       </c>
-      <c r="E78">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="F78">
-        <f t="shared" ca="1" si="6"/>
-        <v>14</v>
-      </c>
-      <c r="G78" s="710">
-        <f t="shared" ca="1" si="7"/>
-        <v>1992</v>
-      </c>
-      <c r="I78" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Robert,Ward,Male,Medium_Persian_blue,4/14/1992</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10">
+      <c r="G78" s="711">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="H78">
+        <f t="shared" ca="1" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="I78">
+        <f t="shared" ca="1" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="J78" s="710">
+        <f t="shared" ca="1" si="11"/>
+        <v>1999</v>
+      </c>
+      <c r="L78" t="str">
+        <f ca="1">$A78&amp;L$1&amp;$C78&amp;L$1&amp;$E78&amp;L$1&amp;$F78&amp;L$1&amp;$H78&amp;"/"&amp;$I78&amp;"/"&amp;$J78</f>
+        <v>Robert,Ward,Male,Medium_Persian_blue,11/19/1999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="711">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="C79" t="s">
         <v>129</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" s="711">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="E79" t="s">
         <v>91</v>
       </c>
-      <c r="D79" t="s">
+      <c r="F79" t="s">
         <v>2110</v>
       </c>
-      <c r="E79">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="F79">
-        <f t="shared" ca="1" si="6"/>
-        <v>14</v>
-      </c>
-      <c r="G79" s="710">
-        <f t="shared" ca="1" si="7"/>
-        <v>1964</v>
-      </c>
-      <c r="I79" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Michael,Torres,Male,Medium_purple,3/14/1964</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10">
+      <c r="G79" s="711">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="H79">
+        <f t="shared" ca="1" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="I79">
+        <f t="shared" ca="1" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="J79" s="710">
+        <f t="shared" ca="1" si="11"/>
+        <v>1958</v>
+      </c>
+      <c r="L79" t="str">
+        <f ca="1">$A79&amp;L$1&amp;$C79&amp;L$1&amp;$E79&amp;L$1&amp;$F79&amp;L$1&amp;$H79&amp;"/"&amp;$I79&amp;"/"&amp;$J79</f>
+        <v>Michael,Torres,Male,Medium_purple,12/15/1958</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="711">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="C80" t="s">
         <v>130</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" s="711">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="E80" t="s">
         <v>91</v>
       </c>
-      <c r="D80" t="s">
+      <c r="F80" t="s">
         <v>2111</v>
       </c>
-      <c r="E80">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="F80">
-        <f t="shared" ca="1" si="6"/>
-        <v>22</v>
-      </c>
-      <c r="G80" s="710">
-        <f t="shared" ca="1" si="7"/>
-        <v>1975</v>
-      </c>
-      <c r="J80" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>William Peterson Male Medium_red_violet 3/22/1975</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10">
+      <c r="G80" s="711">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="H80">
+        <f t="shared" ca="1" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="I80">
+        <f t="shared" ca="1" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="J80" s="710">
+        <f t="shared" ca="1" si="11"/>
+        <v>2001</v>
+      </c>
+      <c r="M80" t="str">
+        <f ca="1">$A80&amp;M$1&amp;$C80&amp;M$1&amp;$E80&amp;M$1&amp;$F80&amp;M$1&amp;$H80&amp;"/"&amp;$I80&amp;"/"&amp;$J80</f>
+        <v>William Peterson Male Medium_red_violet 7/5/2001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="711">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C81" t="s">
         <v>131</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" s="711">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="E81" t="s">
         <v>91</v>
       </c>
-      <c r="D81" t="s">
+      <c r="F81" t="s">
         <v>2112</v>
       </c>
-      <c r="E81">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="F81">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="G81" s="710">
-        <f t="shared" ca="1" si="7"/>
-        <v>2013</v>
-      </c>
-      <c r="J81" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>David Gray Male Medium_sea_green 4/3/2013</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10">
+      <c r="G81" s="711">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="H81">
+        <f t="shared" ca="1" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="I81">
+        <f t="shared" ca="1" si="10"/>
+        <v>14</v>
+      </c>
+      <c r="J81" s="710">
+        <f t="shared" ca="1" si="11"/>
+        <v>1961</v>
+      </c>
+      <c r="M81" t="str">
+        <f ca="1">$A81&amp;M$1&amp;$C81&amp;M$1&amp;$E81&amp;M$1&amp;$F81&amp;M$1&amp;$H81&amp;"/"&amp;$I81&amp;"/"&amp;$J81</f>
+        <v>David Gray Male Medium_sea_green 12/14/1961</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="711">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="C82" t="s">
         <v>132</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" s="711">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="E82" t="s">
         <v>91</v>
       </c>
-      <c r="D82" t="s">
+      <c r="F82" t="s">
         <v>2113</v>
       </c>
-      <c r="E82">
-        <f t="shared" ca="1" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="F82">
-        <f t="shared" ca="1" si="6"/>
-        <v>15</v>
-      </c>
-      <c r="G82" s="710">
-        <f t="shared" ca="1" si="7"/>
-        <v>1965</v>
-      </c>
-      <c r="J82" t="str">
-        <f t="shared" ref="J82:J135" ca="1" si="8">$A82&amp;J$1&amp;$B82&amp;J$1&amp;$C82&amp;J$1&amp;$D82&amp;J$1&amp;$E82&amp;"/"&amp;$F82&amp;"/"&amp;$G82</f>
-        <v>Richard Ramirez Male Medium_slate_blue 12/15/1965</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10">
+      <c r="G82" s="711">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="H82">
+        <f t="shared" ca="1" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="I82">
+        <f t="shared" ca="1" si="10"/>
+        <v>21</v>
+      </c>
+      <c r="J82" s="710">
+        <f t="shared" ca="1" si="11"/>
+        <v>1999</v>
+      </c>
+      <c r="M82" t="str">
+        <f t="shared" ref="M82:M135" ca="1" si="12">$A82&amp;M$1&amp;$C82&amp;M$1&amp;$E82&amp;M$1&amp;$F82&amp;M$1&amp;$H82&amp;"/"&amp;$I82&amp;"/"&amp;$J82</f>
+        <v>Richard Ramirez Male Medium_slate_blue 7/21/1999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="711">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="C83" t="s">
         <v>5</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" s="711">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="E83" t="s">
         <v>91</v>
       </c>
-      <c r="D83" t="s">
+      <c r="F83" t="s">
         <v>2114</v>
       </c>
-      <c r="E83">
-        <f t="shared" ca="1" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="F83">
-        <f t="shared" ca="1" si="6"/>
+      <c r="G83" s="711">
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
-      <c r="G83" s="710">
-        <f t="shared" ca="1" si="7"/>
-        <v>1965</v>
-      </c>
-      <c r="J83" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Joseph James Male Medium_spring_bud 9/17/1965</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10">
+      <c r="H83">
+        <f t="shared" ca="1" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="I83">
+        <f t="shared" ca="1" si="10"/>
+        <v>22</v>
+      </c>
+      <c r="J83" s="710">
+        <f t="shared" ca="1" si="11"/>
+        <v>1962</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Joseph James Male Medium_spring_bud 5/22/1962</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="711">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="C84" t="s">
         <v>133</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" s="711">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="E84" t="s">
         <v>91</v>
       </c>
-      <c r="D84" t="s">
+      <c r="F84" t="s">
         <v>2115</v>
       </c>
-      <c r="E84">
-        <f t="shared" ca="1" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="F84">
-        <f t="shared" ca="1" si="6"/>
-        <v>25</v>
-      </c>
-      <c r="G84" s="710">
-        <f t="shared" ca="1" si="7"/>
-        <v>1943</v>
-      </c>
-      <c r="J84" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Thomas Watson Male Medium_spring_green 9/25/1943</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10">
+      <c r="G84" s="711">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="H84">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="I84">
+        <f t="shared" ca="1" si="10"/>
+        <v>17</v>
+      </c>
+      <c r="J84" s="710">
+        <f t="shared" ca="1" si="11"/>
+        <v>2002</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Thomas Watson Male Medium_spring_green 2/17/2002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="711">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="C85" t="s">
         <v>134</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" s="711">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="E85" t="s">
         <v>91</v>
       </c>
-      <c r="D85" t="s">
+      <c r="F85" t="s">
         <v>2116</v>
       </c>
-      <c r="E85">
-        <f t="shared" ca="1" si="5"/>
+      <c r="G85" s="711">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="H85">
+        <f t="shared" ca="1" si="9"/>
         <v>7</v>
       </c>
-      <c r="F85">
-        <f t="shared" ca="1" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="G85" s="710">
-        <f t="shared" ca="1" si="7"/>
-        <v>2005</v>
-      </c>
-      <c r="J85" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Charles Brooks Male Medium_taupe 7/8/2005</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10">
+      <c r="I85">
+        <f t="shared" ca="1" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="J85" s="710">
+        <f t="shared" ca="1" si="11"/>
+        <v>1991</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Charles Brooks Male Medium_taupe 7/12/1991</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="711">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="C86" t="s">
         <v>135</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" s="711">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="E86" t="s">
         <v>91</v>
       </c>
-      <c r="D86" t="s">
+      <c r="F86" t="s">
         <v>2117</v>
       </c>
-      <c r="E86">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="F86">
-        <f t="shared" ca="1" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="G86" s="710">
-        <f t="shared" ca="1" si="7"/>
-        <v>1975</v>
-      </c>
-      <c r="J86" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Christopher Kelly Male Medium_teal_blue 5/10/1975</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10">
+      <c r="G86" s="711">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="H86">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="I86">
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="J86" s="710">
+        <f t="shared" ca="1" si="11"/>
+        <v>1988</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Christopher Kelly Male Medium_teal_blue 3/6/1988</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="711">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="C87" t="s">
         <v>101</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" s="711">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="E87" t="s">
         <v>91</v>
       </c>
-      <c r="D87" t="s">
+      <c r="F87" t="s">
         <v>2118</v>
       </c>
-      <c r="E87">
-        <f t="shared" ca="1" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="F87">
-        <f t="shared" ca="1" si="6"/>
-        <v>13</v>
-      </c>
-      <c r="G87" s="710">
-        <f t="shared" ca="1" si="7"/>
-        <v>1971</v>
-      </c>
-      <c r="J87" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Daniel Nelson Male Medium_turquoise 12/13/1971</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10">
+      <c r="G87" s="711">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="H87">
+        <f t="shared" ca="1" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="I87">
+        <f t="shared" ca="1" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="J87" s="710">
+        <f t="shared" ca="1" si="11"/>
+        <v>1942</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Daniel Nelson Male Medium_turquoise 8/5/1942</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="711">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="C88" t="s">
         <v>102</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" s="711">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="E88" t="s">
         <v>91</v>
       </c>
-      <c r="D88" t="s">
+      <c r="F88" t="s">
         <v>2119</v>
       </c>
-      <c r="E88">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="F88">
-        <f t="shared" ca="1" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="G88" s="710">
-        <f t="shared" ca="1" si="7"/>
-        <v>1942</v>
-      </c>
-      <c r="J88" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Matthew Carter Male Medium_violet_red 2/26/1942</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10">
+      <c r="G88" s="711">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="H88">
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="I88">
+        <f t="shared" ca="1" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="J88" s="710">
+        <f t="shared" ca="1" si="11"/>
+        <v>1996</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Matthew Carter Male Medium_violet_red 9/8/1996</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="711">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="C89" t="s">
         <v>103</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" s="711">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="E89" t="s">
         <v>91</v>
       </c>
-      <c r="D89" t="s">
+      <c r="F89" t="s">
         <v>1274</v>
       </c>
-      <c r="E89">
-        <f t="shared" ca="1" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="F89">
-        <f t="shared" ca="1" si="6"/>
-        <v>21</v>
-      </c>
-      <c r="G89" s="710">
-        <f t="shared" ca="1" si="7"/>
-        <v>1988</v>
-      </c>
-      <c r="J89" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Anthony Mitchell Male Melon 8/21/1988</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10">
+      <c r="G89" s="711">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="H89">
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="I89">
+        <f t="shared" ca="1" si="10"/>
+        <v>23</v>
+      </c>
+      <c r="J89" s="710">
+        <f t="shared" ca="1" si="11"/>
+        <v>1943</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Anthony Mitchell Male Melon 9/23/1943</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="711">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="C90" t="s">
         <v>104</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" s="711">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="E90" t="s">
         <v>91</v>
       </c>
-      <c r="D90" t="s">
+      <c r="F90" t="s">
         <v>2120</v>
       </c>
-      <c r="E90">
-        <f t="shared" ca="1" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="F90">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="G90" s="710">
-        <f t="shared" ca="1" si="7"/>
-        <v>1996</v>
-      </c>
-      <c r="J90" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Donald Perez Male Midnight_blue 8/3/1996</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10">
+      <c r="G90" s="711">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="H90">
+        <f t="shared" ca="1" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="I90">
+        <f t="shared" ca="1" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="J90" s="710">
+        <f t="shared" ca="1" si="11"/>
+        <v>1944</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Donald Perez Male Midnight_blue 12/19/1944</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="711">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="C91" t="s">
         <v>105</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" s="711">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="E91" t="s">
         <v>91</v>
       </c>
-      <c r="D91" t="s">
+      <c r="F91" t="s">
         <v>2121</v>
       </c>
-      <c r="E91">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="F91">
-        <f t="shared" ca="1" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="G91" s="710">
-        <f t="shared" ca="1" si="7"/>
-        <v>2009</v>
-      </c>
-      <c r="J91" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Mark Roberts Male Midnight_green 6/26/2009</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10">
+      <c r="G91" s="711">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="H91">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="I91">
+        <f t="shared" ca="1" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="J91" s="710">
+        <f t="shared" ca="1" si="11"/>
+        <v>1980</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Mark Roberts Male Midnight_green 3/10/1980</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="711">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="C92" t="s">
         <v>106</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" s="711">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="E92" t="s">
         <v>91</v>
       </c>
-      <c r="D92" t="s">
+      <c r="F92" t="s">
         <v>2122</v>
       </c>
-      <c r="E92">
-        <f t="shared" ca="1" si="5"/>
+      <c r="G92" s="711">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="H92">
+        <f t="shared" ca="1" si="9"/>
         <v>7</v>
       </c>
-      <c r="F92">
-        <f t="shared" ca="1" si="6"/>
-        <v>24</v>
-      </c>
-      <c r="G92" s="710">
-        <f t="shared" ca="1" si="7"/>
-        <v>2003</v>
-      </c>
-      <c r="J92" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Paul Turner Male Mikado_yellow 7/24/2003</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10">
+      <c r="I92">
+        <f t="shared" ca="1" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="J92" s="710">
+        <f t="shared" ca="1" si="11"/>
+        <v>1945</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Paul Turner Male Mikado_yellow 7/18/1945</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="711">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="C93" t="s">
         <v>107</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" s="711">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="E93" t="s">
         <v>91</v>
       </c>
-      <c r="D93" t="s">
+      <c r="F93" t="s">
         <v>1285</v>
       </c>
-      <c r="E93">
-        <f t="shared" ca="1" si="5"/>
+      <c r="G93" s="711">
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="F93">
-        <f t="shared" ca="1" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="G93" s="710">
-        <f t="shared" ca="1" si="7"/>
-        <v>1960</v>
-      </c>
-      <c r="J93" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Steven Phillips Male Mint 4/5/1960</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10">
+      <c r="H93">
+        <f t="shared" ca="1" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="I93">
+        <f t="shared" ca="1" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="J93" s="710">
+        <f t="shared" ca="1" si="11"/>
+        <v>1947</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Steven Phillips Male Mint 7/20/1947</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="711">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="C94" t="s">
         <v>108</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" s="711">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="E94" t="s">
         <v>91</v>
       </c>
-      <c r="D94" t="s">
+      <c r="F94" t="s">
         <v>2123</v>
       </c>
-      <c r="E94">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="F94">
-        <f t="shared" ca="1" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="G94" s="710">
-        <f t="shared" ca="1" si="7"/>
-        <v>1963</v>
-      </c>
-      <c r="J94" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>George Campbell Male Mint_cream 4/8/1963</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10">
+      <c r="G94" s="711">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="H94">
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="I94">
+        <f t="shared" ca="1" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="J94" s="710">
+        <f t="shared" ca="1" si="11"/>
+        <v>1987</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>George Campbell Male Mint_cream 9/20/1987</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="711">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="C95" t="s">
         <v>109</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" s="711">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="E95" t="s">
         <v>91</v>
       </c>
-      <c r="D95" t="s">
+      <c r="F95" t="s">
         <v>2124</v>
       </c>
-      <c r="E95">
-        <f t="shared" ca="1" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="F95">
-        <f t="shared" ca="1" si="6"/>
-        <v>20</v>
-      </c>
-      <c r="G95" s="710">
-        <f t="shared" ca="1" si="7"/>
-        <v>1972</v>
-      </c>
-      <c r="J95" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Kenneth Parker Male Mint_green 12/20/1972</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10">
+      <c r="G95" s="711">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="H95">
+        <f t="shared" ca="1" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="I95">
+        <f t="shared" ca="1" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="J95" s="710">
+        <f t="shared" ca="1" si="11"/>
+        <v>1960</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Kenneth Parker Male Mint_green 11/19/1960</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="711">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="C96" t="s">
         <v>110</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" s="711">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="E96" t="s">
         <v>91</v>
       </c>
-      <c r="D96" t="s">
+      <c r="F96" t="s">
         <v>2125</v>
       </c>
-      <c r="E96">
-        <f t="shared" ca="1" si="5"/>
+      <c r="G96" s="711">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="F96">
-        <f t="shared" ca="1" si="6"/>
-        <v>28</v>
-      </c>
-      <c r="G96" s="710">
-        <f t="shared" ca="1" si="7"/>
-        <v>2005</v>
-      </c>
-      <c r="J96" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Andrew Evans Male Misty_rose 10/28/2005</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10">
+      <c r="H96">
+        <f t="shared" ca="1" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="I96">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="J96" s="710">
+        <f t="shared" ca="1" si="11"/>
+        <v>1993</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Andrew Evans Male Misty_rose 12/2/1993</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="711">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="C97" t="s">
         <v>111</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" s="711">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="E97" t="s">
         <v>91</v>
       </c>
-      <c r="D97" t="s">
+      <c r="F97" t="s">
         <v>1296</v>
       </c>
-      <c r="E97">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="F97">
-        <f t="shared" ca="1" si="6"/>
-        <v>12</v>
-      </c>
-      <c r="G97" s="710">
-        <f t="shared" ca="1" si="7"/>
-        <v>1973</v>
-      </c>
-      <c r="J97" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Joshua Edwards Male Moccasin 5/12/1973</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10">
+      <c r="G97" s="711">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="H97">
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="I97">
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="J97" s="710">
+        <f t="shared" ca="1" si="11"/>
+        <v>1962</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Joshua Edwards Male Moccasin 9/6/1962</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="711">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="C98" t="s">
         <v>112</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" s="711">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="E98" t="s">
         <v>91</v>
       </c>
-      <c r="D98" t="s">
+      <c r="F98" t="s">
         <v>2126</v>
       </c>
-      <c r="E98">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="F98">
-        <f t="shared" ca="1" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="G98" s="710">
-        <f t="shared" ca="1" si="7"/>
-        <v>1995</v>
-      </c>
-      <c r="J98" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Edward Collins Male Mode_beige 4/7/1995</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10">
+      <c r="G98" s="711">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="H98">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="I98">
+        <f t="shared" ca="1" si="10"/>
+        <v>25</v>
+      </c>
+      <c r="J98" s="710">
+        <f t="shared" ca="1" si="11"/>
+        <v>2013</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Edward Collins Male Mode_beige 3/25/2013</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="711">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C99" t="s">
         <v>113</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" s="711">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="E99" t="s">
         <v>91</v>
       </c>
-      <c r="D99" t="s">
+      <c r="F99" t="s">
         <v>2127</v>
       </c>
-      <c r="E99">
-        <f t="shared" ca="1" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="F99">
-        <f t="shared" ca="1" si="6"/>
-        <v>28</v>
-      </c>
-      <c r="G99" s="710">
-        <f t="shared" ca="1" si="7"/>
+      <c r="G99" s="711">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="H99">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="I99">
+        <f t="shared" ca="1" si="10"/>
+        <v>16</v>
+      </c>
+      <c r="J99" s="710">
+        <f t="shared" ca="1" si="11"/>
         <v>1964</v>
       </c>
-      <c r="J99" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Brian Stewart Male Moonstone_blue 10/28/1964</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10">
+      <c r="M99" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Brian Stewart Male Moonstone_blue 2/16/1964</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="711">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C100" t="s">
         <v>114</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" s="711">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="E100" t="s">
         <v>91</v>
       </c>
-      <c r="D100" t="s">
+      <c r="F100" t="s">
         <v>2128</v>
       </c>
-      <c r="E100">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="F100">
-        <f t="shared" ca="1" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="G100" s="710">
-        <f t="shared" ca="1" si="7"/>
-        <v>1950</v>
-      </c>
-      <c r="J100" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Kevin Sanchez Male Mordant_red_19 2/5/1950</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10">
+      <c r="G100" s="711">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="H100">
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="I100">
+        <f t="shared" ca="1" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="J100" s="710">
+        <f t="shared" ca="1" si="11"/>
+        <v>1979</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Kevin Sanchez Male Mordant_red_19 9/8/1979</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="711">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="C101" t="s">
         <v>115</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" s="711">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="E101" t="s">
         <v>92</v>
       </c>
-      <c r="D101" t="s">
+      <c r="F101" t="s">
         <v>2129</v>
       </c>
-      <c r="E101">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="F101">
-        <f t="shared" ca="1" si="6"/>
-        <v>12</v>
-      </c>
-      <c r="G101" s="710">
-        <f t="shared" ca="1" si="7"/>
-        <v>1942</v>
-      </c>
-      <c r="J101" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Mary Morris Female Moss_green 2/12/1942</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10">
+      <c r="G101" s="711">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="H101">
+        <f t="shared" ca="1" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="I101">
+        <f t="shared" ca="1" si="10"/>
+        <v>21</v>
+      </c>
+      <c r="J101" s="710">
+        <f t="shared" ca="1" si="11"/>
+        <v>1958</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Mary Morris Female Moss_green 6/21/1958</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="711">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="C102" t="s">
         <v>116</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" s="711">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="E102" t="s">
         <v>92</v>
       </c>
-      <c r="D102" t="s">
+      <c r="F102" t="s">
         <v>2130</v>
       </c>
-      <c r="E102">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="F102">
-        <f t="shared" ca="1" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="G102" s="710">
-        <f t="shared" ca="1" si="7"/>
-        <v>1949</v>
-      </c>
-      <c r="J102" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Patricia Rogers Female Mountain_Meadow 6/8/1949</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10">
+      <c r="G102" s="711">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="H102">
+        <f t="shared" ca="1" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="I102">
+        <f t="shared" ca="1" si="10"/>
+        <v>27</v>
+      </c>
+      <c r="J102" s="710">
+        <f t="shared" ca="1" si="11"/>
+        <v>1978</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Patricia Rogers Female Mountain_Meadow 5/27/1978</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="711">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="C103" t="s">
         <v>117</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" s="711">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="E103" t="s">
         <v>92</v>
       </c>
-      <c r="D103" t="s">
+      <c r="F103" t="s">
         <v>2131</v>
       </c>
-      <c r="E103">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="F103">
-        <f t="shared" ca="1" si="6"/>
-        <v>24</v>
-      </c>
-      <c r="G103" s="710">
-        <f t="shared" ca="1" si="7"/>
-        <v>1991</v>
-      </c>
-      <c r="J103" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Jennifer Reed Female Mountbatten_pink 5/24/1991</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10">
+      <c r="G103" s="711">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="H103">
+        <f t="shared" ca="1" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="I103">
+        <f t="shared" ca="1" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="J103" s="710">
+        <f t="shared" ca="1" si="11"/>
+        <v>1986</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Jennifer Reed Female Mountbatten_pink 7/15/1986</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="711">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="C104" t="s">
         <v>118</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" s="711">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="E104" t="s">
         <v>92</v>
       </c>
-      <c r="D104" t="s">
+      <c r="F104" t="s">
         <v>2132</v>
       </c>
-      <c r="E104">
-        <f t="shared" ca="1" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="F104">
-        <f t="shared" ca="1" si="6"/>
-        <v>25</v>
-      </c>
-      <c r="G104" s="710">
-        <f t="shared" ca="1" si="7"/>
-        <v>1947</v>
-      </c>
-      <c r="J104" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Elizabeth Cook Female MSU_Green 8/25/1947</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10">
+      <c r="G104" s="711">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="H104">
+        <f t="shared" ca="1" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="I104">
+        <f t="shared" ca="1" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="J104" s="710">
+        <f t="shared" ca="1" si="11"/>
+        <v>1990</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Elizabeth Cook Female MSU_Green 7/5/1990</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
       <c r="A105" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="711">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C105" t="s">
         <v>119</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" s="711">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="E105" t="s">
         <v>92</v>
       </c>
-      <c r="D105" t="s">
+      <c r="F105" t="s">
         <v>1312</v>
       </c>
-      <c r="E105">
-        <f t="shared" ca="1" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="F105">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="G105" s="710">
-        <f t="shared" ca="1" si="7"/>
-        <v>1989</v>
-      </c>
-      <c r="J105" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Linda Morgan Female Mulberry 11/2/1989</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10">
+      <c r="G105" s="711">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="H105">
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="I105">
+        <f t="shared" ca="1" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="J105" s="710">
+        <f t="shared" ca="1" si="11"/>
+        <v>1987</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Linda Morgan Female Mulberry 10/4/1987</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
       <c r="A106" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="711">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="C106" t="s">
         <v>120</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" s="711">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="E106" t="s">
         <v>92</v>
       </c>
-      <c r="D106" t="s">
+      <c r="F106" t="s">
         <v>1315</v>
       </c>
-      <c r="E106">
-        <f t="shared" ca="1" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="F106">
-        <f t="shared" ca="1" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="G106" s="710">
-        <f t="shared" ca="1" si="7"/>
-        <v>2005</v>
-      </c>
-      <c r="J106" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Barbara Bell Female Munsell 9/11/2005</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10">
+      <c r="G106" s="711">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="H106">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="I106">
+        <f t="shared" ca="1" si="10"/>
+        <v>16</v>
+      </c>
+      <c r="J106" s="710">
+        <f t="shared" ca="1" si="11"/>
+        <v>1958</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Barbara Bell Female Munsell 3/16/1958</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
       <c r="A107" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="711">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C107" t="s">
         <v>121</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" s="711">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="E107" t="s">
         <v>92</v>
       </c>
-      <c r="D107" t="s">
+      <c r="F107" t="s">
         <v>1316</v>
       </c>
-      <c r="E107">
-        <f t="shared" ca="1" si="5"/>
+      <c r="G107" s="711">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="F107">
-        <f t="shared" ca="1" si="6"/>
-        <v>22</v>
-      </c>
-      <c r="G107" s="710">
-        <f t="shared" ca="1" si="7"/>
-        <v>1953</v>
-      </c>
-      <c r="J107" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Susan Murphy Female Mustard 7/22/1953</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10">
+      <c r="H107">
+        <f t="shared" ca="1" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="I107">
+        <f t="shared" ca="1" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="J107" s="710">
+        <f t="shared" ca="1" si="11"/>
+        <v>1974</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Susan Murphy Female Mustard 6/18/1974</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
       <c r="A108" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="711">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="C108" t="s">
         <v>122</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" s="711">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="E108" t="s">
         <v>92</v>
       </c>
-      <c r="D108" t="s">
+      <c r="F108" t="s">
         <v>1319</v>
       </c>
-      <c r="E108">
-        <f t="shared" ca="1" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="F108">
-        <f t="shared" ca="1" si="6"/>
-        <v>19</v>
-      </c>
-      <c r="G108" s="710">
-        <f t="shared" ca="1" si="7"/>
-        <v>1993</v>
-      </c>
-      <c r="J108" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Jessica Bailey Female Myrtle 7/19/1993</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10">
+      <c r="G108" s="711">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="H108">
+        <f t="shared" ca="1" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="I108">
+        <f t="shared" ca="1" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="J108" s="710">
+        <f t="shared" ca="1" si="11"/>
+        <v>1984</v>
+      </c>
+      <c r="M108" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Jessica Bailey Female Myrtle 6/11/1984</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
       <c r="A109" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="711">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="C109" t="s">
         <v>123</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" s="711">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="E109" t="s">
         <v>92</v>
       </c>
-      <c r="D109" t="s">
+      <c r="F109" t="s">
         <v>2133</v>
       </c>
-      <c r="E109">
-        <f t="shared" ca="1" si="5"/>
+      <c r="G109" s="711">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="H109">
+        <f t="shared" ca="1" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="I109">
+        <f t="shared" ca="1" si="10"/>
         <v>6</v>
       </c>
-      <c r="F109">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="G109" s="710">
-        <f t="shared" ca="1" si="7"/>
-        <v>2013</v>
-      </c>
-      <c r="J109" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Margaret Rivera Female Nadeshiko_pink 6/2/2013</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10">
+      <c r="J109" s="710">
+        <f t="shared" ca="1" si="11"/>
+        <v>1989</v>
+      </c>
+      <c r="M109" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Margaret Rivera Female Nadeshiko_pink 8/6/1989</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
       <c r="A110" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="711">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C110" t="s">
         <v>124</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" s="711">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="E110" t="s">
         <v>92</v>
       </c>
-      <c r="D110" t="s">
+      <c r="F110" t="s">
         <v>2134</v>
       </c>
-      <c r="E110">
-        <f t="shared" ca="1" si="5"/>
+      <c r="G110" s="711">
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
-      <c r="F110">
-        <f t="shared" ca="1" si="6"/>
+      <c r="H110">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="I110">
+        <f t="shared" ca="1" si="10"/>
         <v>22</v>
       </c>
-      <c r="G110" s="710">
-        <f t="shared" ca="1" si="7"/>
-        <v>1944</v>
-      </c>
-      <c r="J110" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Sarah Cooper Female Napier_green 12/22/1944</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10">
+      <c r="J110" s="710">
+        <f t="shared" ca="1" si="11"/>
+        <v>1965</v>
+      </c>
+      <c r="M110" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Sarah Cooper Female Napier_green 3/22/1965</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
       <c r="A111" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="711">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C111" t="s">
         <v>125</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" s="711">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="E111" t="s">
         <v>92</v>
       </c>
-      <c r="D111" t="s">
+      <c r="F111" t="s">
         <v>2135</v>
       </c>
-      <c r="E111">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="F111">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="G111" s="710">
-        <f t="shared" ca="1" si="7"/>
-        <v>1964</v>
-      </c>
-      <c r="J111" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Karen Richardson Female Naples_yellow 2/4/1964</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10">
+      <c r="G111" s="711">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="H111">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="I111">
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="J111" s="710">
+        <f t="shared" ca="1" si="11"/>
+        <v>1953</v>
+      </c>
+      <c r="M111" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Karen Richardson Female Naples_yellow 3/6/1953</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
       <c r="A112" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="711">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C112" t="s">
         <v>126</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" s="711">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="E112" t="s">
         <v>92</v>
       </c>
-      <c r="D112" t="s">
+      <c r="F112" t="s">
         <v>2136</v>
       </c>
-      <c r="E112">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="F112">
-        <f t="shared" ca="1" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="G112" s="710">
-        <f t="shared" ca="1" si="7"/>
-        <v>1974</v>
-      </c>
-      <c r="J112" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Nancy Cox Female Navajo_white 6/9/1974</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10">
+      <c r="G112" s="711">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="H112">
+        <f t="shared" ca="1" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="I112">
+        <f t="shared" ca="1" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="J112" s="710">
+        <f t="shared" ca="1" si="11"/>
+        <v>1975</v>
+      </c>
+      <c r="M112" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Nancy Cox Female Navajo_white 5/12/1975</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13">
       <c r="A113" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="711">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C113" t="s">
         <v>127</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" s="711">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="E113" t="s">
         <v>92</v>
       </c>
-      <c r="D113" t="s">
+      <c r="F113" t="s">
         <v>2137</v>
       </c>
-      <c r="E113">
-        <f t="shared" ca="1" si="5"/>
+      <c r="G113" s="711">
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="F113">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="G113" s="710">
-        <f t="shared" ca="1" si="7"/>
-        <v>1969</v>
-      </c>
-      <c r="J113" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Betty Howard Female Navy_blue 9/4/1969</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10">
+      <c r="H113">
+        <f t="shared" ca="1" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="I113">
+        <f t="shared" ca="1" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="J113" s="710">
+        <f t="shared" ca="1" si="11"/>
+        <v>1955</v>
+      </c>
+      <c r="M113" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Betty Howard Female Navy_blue 8/18/1955</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
       <c r="A114" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="711">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="C114" t="s">
         <v>128</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" s="711">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="E114" t="s">
         <v>92</v>
       </c>
-      <c r="D114" t="s">
+      <c r="F114" t="s">
         <v>2138</v>
       </c>
-      <c r="E114">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="F114">
-        <f t="shared" ca="1" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="G114" s="710">
-        <f t="shared" ca="1" si="7"/>
-        <v>1991</v>
-      </c>
-      <c r="J114" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Dorothy Ward Female Neon_Carrot 3/17/1991</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10">
+      <c r="G114" s="711">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="H114">
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="I114">
+        <f t="shared" ca="1" si="10"/>
+        <v>25</v>
+      </c>
+      <c r="J114" s="710">
+        <f t="shared" ca="1" si="11"/>
+        <v>2015</v>
+      </c>
+      <c r="M114" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Dorothy Ward Female Neon_Carrot 10/25/2015</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
       <c r="A115" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="711">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="C115" t="s">
         <v>129</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" s="711">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="E115" t="s">
         <v>92</v>
       </c>
-      <c r="D115" t="s">
+      <c r="F115" t="s">
         <v>2139</v>
       </c>
-      <c r="E115">
-        <f t="shared" ca="1" si="5"/>
+      <c r="G115" s="711">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="H115">
+        <f t="shared" ca="1" si="9"/>
         <v>6</v>
       </c>
-      <c r="F115">
-        <f t="shared" ca="1" si="6"/>
-        <v>27</v>
-      </c>
-      <c r="G115" s="710">
-        <f t="shared" ca="1" si="7"/>
-        <v>1994</v>
-      </c>
-      <c r="J115" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Lisa Torres Female Neon_fuchsia 6/27/1994</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10">
+      <c r="I115">
+        <f t="shared" ca="1" si="10"/>
+        <v>21</v>
+      </c>
+      <c r="J115" s="710">
+        <f t="shared" ca="1" si="11"/>
+        <v>1989</v>
+      </c>
+      <c r="M115" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Lisa Torres Female Neon_fuchsia 6/21/1989</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
       <c r="A116" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="711">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="C116" t="s">
         <v>130</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" s="711">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="E116" t="s">
         <v>92</v>
       </c>
-      <c r="D116" t="s">
+      <c r="F116" t="s">
         <v>2140</v>
       </c>
-      <c r="E116">
-        <f t="shared" ca="1" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="F116">
-        <f t="shared" ca="1" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="G116" s="710">
-        <f t="shared" ca="1" si="7"/>
-        <v>1983</v>
-      </c>
-      <c r="J116" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Sandra Peterson Female Neon_green 8/26/1983</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10">
+      <c r="G116" s="711">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="H116">
+        <f t="shared" ca="1" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="I116">
+        <f t="shared" ca="1" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="J116" s="710">
+        <f t="shared" ca="1" si="11"/>
+        <v>1982</v>
+      </c>
+      <c r="M116" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Sandra Peterson Female Neon_green 7/7/1982</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13">
       <c r="A117" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="711">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="C117" t="s">
         <v>131</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" s="711">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="E117" t="s">
         <v>92</v>
       </c>
-      <c r="D117" t="s">
+      <c r="F117" t="s">
         <v>2141</v>
       </c>
-      <c r="E117">
-        <f t="shared" ca="1" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="F117">
-        <f t="shared" ca="1" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="G117" s="710">
-        <f t="shared" ca="1" si="7"/>
-        <v>1982</v>
-      </c>
-      <c r="J117" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Ashley Gray Female Non-photo_blue 9/9/1982</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10">
+      <c r="G117" s="711">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="H117">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="I117">
+        <f t="shared" ca="1" si="10"/>
+        <v>27</v>
+      </c>
+      <c r="J117" s="710">
+        <f t="shared" ca="1" si="11"/>
+        <v>1952</v>
+      </c>
+      <c r="M117" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Ashley Gray Female Non-photo_blue 2/27/1952</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13">
       <c r="A118" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="711">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="C118" t="s">
         <v>132</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" s="711">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="E118" t="s">
         <v>92</v>
       </c>
-      <c r="D118" t="s">
+      <c r="F118" t="s">
         <v>2142</v>
       </c>
-      <c r="E118">
-        <f t="shared" ca="1" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="F118">
-        <f t="shared" ca="1" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="G118" s="710">
-        <f t="shared" ca="1" si="7"/>
-        <v>2006</v>
-      </c>
-      <c r="J118" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Kimberly Ramirez Female North_Texas_Green 7/26/2006</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10">
+      <c r="G118" s="711">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="H118">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="I118">
+        <f t="shared" ca="1" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="J118" s="710">
+        <f t="shared" ca="1" si="11"/>
+        <v>1981</v>
+      </c>
+      <c r="M118" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Kimberly Ramirez Female North_Texas_Green 2/4/1981</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
       <c r="A119" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="711">
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="C119" t="s">
+        <v>5</v>
+      </c>
+      <c r="D119" s="711">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="E119" t="s">
         <v>92</v>
       </c>
-      <c r="D119" t="s">
+      <c r="F119" t="s">
         <v>2143</v>
       </c>
-      <c r="E119">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="F119">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="G119" s="710">
-        <f t="shared" ca="1" si="7"/>
-        <v>1978</v>
-      </c>
-      <c r="J119" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Donna James Female Ocean_Boat_Blue 5/2/1978</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10">
+      <c r="G119" s="711">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="H119">
+        <f t="shared" ca="1" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="I119">
+        <f t="shared" ca="1" si="10"/>
+        <v>28</v>
+      </c>
+      <c r="J119" s="710">
+        <f t="shared" ca="1" si="11"/>
+        <v>1948</v>
+      </c>
+      <c r="M119" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Donna James Female Ocean_Boat_Blue 8/28/1948</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
       <c r="A120" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="711">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C120" t="s">
         <v>133</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" s="711">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="E120" t="s">
         <v>92</v>
       </c>
-      <c r="D120" t="s">
+      <c r="F120" t="s">
         <v>1352</v>
       </c>
-      <c r="E120">
-        <f t="shared" ca="1" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="F120">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="G120" s="710">
-        <f t="shared" ca="1" si="7"/>
-        <v>2004</v>
-      </c>
-      <c r="J120" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Carol Watson Female Ochre 8/4/2004</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10">
+      <c r="G120" s="711">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="H120">
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="I120">
+        <f t="shared" ca="1" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="J120" s="710">
+        <f t="shared" ca="1" si="11"/>
+        <v>1978</v>
+      </c>
+      <c r="M120" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Carol Watson Female Ochre 9/15/1978</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13">
       <c r="A121" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="711">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="C121" t="s">
         <v>134</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" s="711">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="E121" t="s">
         <v>92</v>
       </c>
-      <c r="D121" t="s">
+      <c r="F121" t="s">
         <v>2144</v>
       </c>
-      <c r="E121">
-        <f t="shared" ca="1" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="F121">
-        <f t="shared" ca="1" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="G121" s="710">
-        <f t="shared" ca="1" si="7"/>
-        <v>2006</v>
-      </c>
-      <c r="J121" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Michelle Brooks Female Office_green 8/5/2006</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10">
+      <c r="G121" s="711">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="H121">
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="I121">
+        <f t="shared" ca="1" si="10"/>
+        <v>14</v>
+      </c>
+      <c r="J121" s="710">
+        <f t="shared" ca="1" si="11"/>
+        <v>1964</v>
+      </c>
+      <c r="M121" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Michelle Brooks Female Office_green 9/14/1964</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
       <c r="A122" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="711">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C122" t="s">
         <v>135</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" s="711">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="E122" t="s">
         <v>92</v>
       </c>
-      <c r="D122" t="s">
+      <c r="F122" t="s">
         <v>2145</v>
       </c>
-      <c r="E122">
-        <f t="shared" ca="1" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="F122">
-        <f t="shared" ca="1" si="6"/>
+      <c r="G122" s="711">
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="G122" s="710">
-        <f t="shared" ca="1" si="7"/>
-        <v>1955</v>
-      </c>
-      <c r="J122" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Emily Kelly Female Old_gold 7/8/1955</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10">
+      <c r="H122">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="I122">
+        <f t="shared" ca="1" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="J122" s="710">
+        <f t="shared" ca="1" si="11"/>
+        <v>1973</v>
+      </c>
+      <c r="M122" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Emily Kelly Female Old_gold 3/4/1973</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13">
       <c r="A123" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="711">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C123" t="s">
         <v>82</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" s="711">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="E123" t="s">
         <v>92</v>
       </c>
-      <c r="D123" t="s">
+      <c r="F123" t="s">
         <v>2146</v>
       </c>
-      <c r="E123">
-        <f t="shared" ca="1" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="F123">
-        <f t="shared" ca="1" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="G123" s="710">
-        <f t="shared" ca="1" si="7"/>
-        <v>1947</v>
-      </c>
-      <c r="J123" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Helen King Female Old_lace 9/9/1947</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10">
+      <c r="G123" s="711">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="H123">
+        <f t="shared" ca="1" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="I123">
+        <f t="shared" ca="1" si="10"/>
+        <v>26</v>
+      </c>
+      <c r="J123" s="710">
+        <f t="shared" ca="1" si="11"/>
+        <v>1952</v>
+      </c>
+      <c r="M123" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Helen King Female Old_lace 6/26/1952</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
       <c r="A124" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="711">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="C124" t="s">
         <v>83</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" s="711">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="E124" t="s">
         <v>92</v>
       </c>
-      <c r="D124" t="s">
+      <c r="F124" t="s">
         <v>2147</v>
       </c>
-      <c r="E124">
-        <f t="shared" ca="1" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="F124">
-        <f t="shared" ca="1" si="6"/>
-        <v>18</v>
-      </c>
-      <c r="G124" s="710">
-        <f t="shared" ca="1" si="7"/>
-        <v>1977</v>
-      </c>
-      <c r="J124" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Amanda Wright Female Old_lavender 11/18/1977</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10">
+      <c r="G124" s="711">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="H124">
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="I124">
+        <f t="shared" ca="1" si="10"/>
+        <v>17</v>
+      </c>
+      <c r="J124" s="710">
+        <f t="shared" ca="1" si="11"/>
+        <v>1987</v>
+      </c>
+      <c r="M124" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Amanda Wright Female Old_lavender 10/17/1987</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13">
       <c r="A125" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="711">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="C125" t="s">
         <v>84</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D125" s="711">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="E125" t="s">
         <v>92</v>
       </c>
-      <c r="D125" t="s">
+      <c r="F125" t="s">
         <v>2148</v>
       </c>
-      <c r="E125">
-        <f t="shared" ca="1" si="5"/>
+      <c r="G125" s="711">
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="F125">
-        <f t="shared" ca="1" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="G125" s="710">
-        <f t="shared" ca="1" si="7"/>
-        <v>1986</v>
-      </c>
-      <c r="J125" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Mary Lopez Female Old_mauve 9/10/1986</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10">
+      <c r="H125">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="I125">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="J125" s="710">
+        <f t="shared" ca="1" si="11"/>
+        <v>1952</v>
+      </c>
+      <c r="M125" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Mary Lopez Female Old_mauve 3/2/1952</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13">
       <c r="A126" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="711">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="C126" t="s">
         <v>85</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" s="711">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="E126" t="s">
         <v>92</v>
       </c>
-      <c r="D126" t="s">
+      <c r="F126" t="s">
         <v>2149</v>
       </c>
-      <c r="E126">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="F126">
-        <f t="shared" ca="1" si="6"/>
-        <v>13</v>
-      </c>
-      <c r="G126" s="710">
-        <f t="shared" ca="1" si="7"/>
-        <v>1945</v>
-      </c>
-      <c r="J126" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Patricia Hill Female Old_rose 3/13/1945</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10">
+      <c r="G126" s="711">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="H126">
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="I126">
+        <f t="shared" ca="1" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="J126" s="710">
+        <f t="shared" ca="1" si="11"/>
+        <v>1988</v>
+      </c>
+      <c r="M126" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Patricia Hill Female Old_rose 10/15/1988</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13">
       <c r="A127" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="711">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="C127" t="s">
         <v>86</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D127" s="711">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="E127" t="s">
         <v>92</v>
       </c>
-      <c r="D127" t="s">
+      <c r="F127" t="s">
         <v>1368</v>
       </c>
-      <c r="E127">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="F127">
-        <f t="shared" ca="1" si="6"/>
+      <c r="G127" s="711">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="H127">
+        <f t="shared" ca="1" si="9"/>
         <v>10</v>
       </c>
-      <c r="G127" s="710">
-        <f t="shared" ca="1" si="7"/>
-        <v>1963</v>
-      </c>
-      <c r="J127" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Jennifer Scott Female Olive 4/10/1963</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10">
+      <c r="I127">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="J127" s="710">
+        <f t="shared" ca="1" si="11"/>
+        <v>2005</v>
+      </c>
+      <c r="M127" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Jennifer Scott Female Olive 10/2/2005</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
       <c r="A128" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="711">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="C128" t="s">
         <v>87</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" s="711">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="E128" t="s">
         <v>92</v>
       </c>
-      <c r="D128" t="s">
+      <c r="F128" t="s">
         <v>2150</v>
       </c>
-      <c r="E128">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="F128">
-        <f t="shared" ca="1" si="6"/>
+      <c r="G128" s="711">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="H128">
+        <f t="shared" ca="1" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="I128">
+        <f t="shared" ca="1" si="10"/>
         <v>26</v>
       </c>
-      <c r="G128" s="710">
-        <f t="shared" ca="1" si="7"/>
-        <v>2014</v>
-      </c>
-      <c r="J128" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Elizabeth Green Female Olive_Drab 2/26/2014</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10">
+      <c r="J128" s="710">
+        <f t="shared" ca="1" si="11"/>
+        <v>1982</v>
+      </c>
+      <c r="M128" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Elizabeth Green Female Olive_Drab 12/26/1982</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13">
       <c r="A129" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="711">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C129" t="s">
         <v>88</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" s="711">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="E129" t="s">
         <v>92</v>
       </c>
-      <c r="D129" t="s">
+      <c r="F129" t="s">
         <v>2151</v>
       </c>
-      <c r="E129">
-        <f t="shared" ca="1" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="F129">
-        <f t="shared" ca="1" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="G129" s="710">
-        <f t="shared" ca="1" si="7"/>
-        <v>1979</v>
-      </c>
-      <c r="J129" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Linda Adams Female Olive_Green 8/26/1979</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10">
+      <c r="G129" s="711">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="H129">
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="I129">
+        <f t="shared" ca="1" si="10"/>
+        <v>24</v>
+      </c>
+      <c r="J129" s="710">
+        <f t="shared" ca="1" si="11"/>
+        <v>1998</v>
+      </c>
+      <c r="M129" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Linda Adams Female Olive_Green 10/24/1998</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
       <c r="A130" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="711">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="C130" t="s">
         <v>89</v>
       </c>
-      <c r="C130" t="s">
+      <c r="D130" s="711">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="E130" t="s">
         <v>92</v>
       </c>
-      <c r="D130" t="s">
+      <c r="F130" t="s">
         <v>1375</v>
       </c>
-      <c r="E130">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="F130">
-        <f t="shared" ca="1" si="6"/>
-        <v>19</v>
-      </c>
-      <c r="G130" s="710">
-        <f t="shared" ca="1" si="7"/>
-        <v>1972</v>
-      </c>
-      <c r="J130" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Barbara Baker Female Olivine 3/19/1972</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10">
+      <c r="G130" s="711">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="H130">
+        <f t="shared" ca="1" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="I130">
+        <f t="shared" ca="1" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="J130" s="710">
+        <f t="shared" ca="1" si="11"/>
+        <v>1978</v>
+      </c>
+      <c r="M130" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Barbara Baker Female Olivine 12/8/1978</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13">
       <c r="A131" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="711">
+        <f t="shared" ref="B131:B135" si="13">LEN(A131)</f>
+        <v>5</v>
+      </c>
+      <c r="C131" t="s">
         <v>90</v>
       </c>
-      <c r="C131" t="s">
+      <c r="D131" s="711">
+        <f t="shared" ref="D131:D135" si="14">LEN(C131)</f>
+        <v>8</v>
+      </c>
+      <c r="E131" t="s">
         <v>92</v>
       </c>
-      <c r="D131" t="s">
+      <c r="F131" t="s">
         <v>1378</v>
       </c>
-      <c r="E131">
-        <f t="shared" ref="E131:E135" ca="1" si="9" xml:space="preserve"> _xlfn.CEILING.MATH(RAND()*11 + 1)</f>
-        <v>5</v>
-      </c>
-      <c r="F131">
-        <f t="shared" ref="F131:F135" ca="1" si="10" xml:space="preserve"> _xlfn.CEILING.MATH(RAND()*27 + 1)</f>
-        <v>12</v>
-      </c>
-      <c r="G131" s="710">
-        <f t="shared" ref="G131:G135" ca="1" si="11">_xlfn.CEILING.MATH(RAND()*75 + 1940)</f>
-        <v>1972</v>
-      </c>
-      <c r="J131" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Susan Gonzalez Female Onyx 5/12/1972</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10">
+      <c r="G131" s="711">
+        <f t="shared" ref="G131:G135" si="15">LEN(F131)</f>
+        <v>4</v>
+      </c>
+      <c r="H131">
+        <f t="shared" ref="H131:H135" ca="1" si="16" xml:space="preserve"> _xlfn.CEILING.MATH(RAND()*11 + 1)</f>
+        <v>9</v>
+      </c>
+      <c r="I131">
+        <f t="shared" ref="I131:I135" ca="1" si="17" xml:space="preserve"> _xlfn.CEILING.MATH(RAND()*27 + 1)</f>
+        <v>24</v>
+      </c>
+      <c r="J131" s="710">
+        <f t="shared" ref="J131:J135" ca="1" si="18">_xlfn.CEILING.MATH(RAND()*75 + 1940)</f>
+        <v>1993</v>
+      </c>
+      <c r="M131" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Susan Gonzalez Female Onyx 9/24/1993</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
       <c r="A132" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="711">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="C132" t="s">
         <v>71</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" s="711">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="E132" t="s">
         <v>92</v>
       </c>
-      <c r="D132" t="s">
+      <c r="F132" t="s">
         <v>2152</v>
       </c>
-      <c r="E132">
-        <f t="shared" ca="1" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="F132">
-        <f t="shared" ca="1" si="10"/>
-        <v>21</v>
-      </c>
-      <c r="G132" s="710">
-        <f t="shared" ca="1" si="11"/>
-        <v>1984</v>
-      </c>
-      <c r="J132" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Jessica Martinez Female Opera_mauve 5/21/1984</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10">
+      <c r="G132" s="711">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+      <c r="H132">
+        <f t="shared" ca="1" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="I132">
+        <f t="shared" ca="1" si="17"/>
+        <v>23</v>
+      </c>
+      <c r="J132" s="710">
+        <f t="shared" ca="1" si="18"/>
+        <v>1983</v>
+      </c>
+      <c r="M132" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Jessica Martinez Female Opera_mauve 4/23/1983</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
       <c r="A133" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="711">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="C133" t="s">
         <v>72</v>
       </c>
-      <c r="C133" t="s">
+      <c r="D133" s="711">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="E133" t="s">
         <v>92</v>
       </c>
-      <c r="D133" t="s">
+      <c r="F133" t="s">
         <v>94</v>
       </c>
-      <c r="E133">
-        <f t="shared" ca="1" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="F133">
-        <f t="shared" ca="1" si="10"/>
-        <v>20</v>
-      </c>
-      <c r="G133" s="710">
-        <f t="shared" ca="1" si="11"/>
-        <v>1965</v>
-      </c>
-      <c r="J133" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Margaret Robinson Female Orange 3/20/1965</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10">
+      <c r="G133" s="711">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="H133">
+        <f t="shared" ca="1" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="I133">
+        <f t="shared" ca="1" si="17"/>
+        <v>14</v>
+      </c>
+      <c r="J133" s="710">
+        <f t="shared" ca="1" si="18"/>
+        <v>2004</v>
+      </c>
+      <c r="M133" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Margaret Robinson Female Orange 10/14/2004</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13">
       <c r="A134" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="711">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="C134" t="s">
         <v>73</v>
       </c>
-      <c r="C134" t="s">
+      <c r="D134" s="711">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="E134" t="s">
         <v>92</v>
       </c>
-      <c r="D134" t="s">
+      <c r="F134" t="s">
         <v>2153</v>
       </c>
-      <c r="E134">
-        <f t="shared" ca="1" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="F134">
-        <f t="shared" ca="1" si="10"/>
-        <v>20</v>
-      </c>
-      <c r="G134" s="710">
-        <f t="shared" ca="1" si="11"/>
-        <v>1985</v>
-      </c>
-      <c r="J134" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Sarah Clark Female Orange_peel 5/20/1985</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10">
+      <c r="G134" s="711">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+      <c r="H134">
+        <f t="shared" ca="1" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="I134">
+        <f t="shared" ca="1" si="17"/>
+        <v>13</v>
+      </c>
+      <c r="J134" s="710">
+        <f t="shared" ca="1" si="18"/>
+        <v>1967</v>
+      </c>
+      <c r="M134" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Sarah Clark Female Orange_peel 10/13/1967</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
       <c r="A135" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="711">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="C135" t="s">
         <v>74</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D135" s="711">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="E135" t="s">
         <v>92</v>
       </c>
-      <c r="D135" t="s">
+      <c r="F135" t="s">
         <v>2154</v>
       </c>
-      <c r="E135">
-        <f t="shared" ca="1" si="9"/>
+      <c r="G135" s="711">
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
-      <c r="F135">
-        <f t="shared" ca="1" si="10"/>
+      <c r="H135">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="I135">
+        <f t="shared" ca="1" si="17"/>
+        <v>16</v>
+      </c>
+      <c r="J135" s="710">
+        <f t="shared" ca="1" si="18"/>
+        <v>1970</v>
+      </c>
+      <c r="M135" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Karen Rodriguez Female Orange_red 5/16/1970</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13">
+      <c r="A137" s="6" t="s">
+        <v>2156</v>
+      </c>
+      <c r="B137" s="6">
+        <f>MAX(B2:B135)</f>
+        <v>11</v>
+      </c>
+      <c r="D137" s="6">
+        <f>MAX(D2:D135)</f>
+        <v>10</v>
+      </c>
+      <c r="G137" s="6">
+        <f>MAX(G2:G135)</f>
         <v>23</v>
-      </c>
-      <c r="G135" s="710">
-        <f t="shared" ca="1" si="11"/>
-        <v>1953</v>
-      </c>
-      <c r="J135" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Karen Rodriguez Female Orange_red 10/23/1953</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Guaranteed Rate Test Data.xlsx
+++ b/Data/Guaranteed Rate Test Data.xlsx
@@ -13487,8 +13487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="G136" sqref="G136"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13499,7 +13499,8 @@
     <col min="8" max="8" width="13.85546875" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
     <col min="10" max="10" width="7" customWidth="1"/>
-    <col min="11" max="13" width="55.28515625" customWidth="1"/>
+    <col min="11" max="11" width="70" customWidth="1"/>
+    <col min="12" max="13" width="55.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1">
@@ -13570,19 +13571,23 @@
       </c>
       <c r="H2">
         <f ca="1" xml:space="preserve"> _xlfn.CEILING.MATH(RAND()*11 + 1)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I2">
         <f ca="1" xml:space="preserve"> _xlfn.CEILING.MATH(RAND()*27 + 1)</f>
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="J2" s="710">
         <f ca="1">_xlfn.CEILING.MATH(RAND()*75 + 1940)</f>
-        <v>1975</v>
+        <v>2003</v>
       </c>
       <c r="K2" t="str">
-        <f ca="1">$A2&amp;K$1&amp;$C2&amp;K$1&amp;$E2&amp;K$1&amp;$F2&amp;K$1&amp;$H2&amp;"/"&amp;$I2&amp;"/"&amp;$J2</f>
-        <v>James|Smith|Male|Red|3/7/1975</v>
+        <f t="shared" ref="K2:K42" ca="1" si="0">$A2&amp;K$1&amp;$C2&amp;K$1&amp;$E2&amp;K$1&amp;$F2&amp;K$1&amp;$H2&amp;"/"&amp;$I2&amp;"/"&amp;$J2</f>
+        <v>James|Smith|Male|Red|8/23/2003</v>
+      </c>
+      <c r="L2" t="str">
+        <f ca="1">"persons.ListOfPersons.Add( new Person(""" &amp; A2 &amp; """,""" &amp; C2 &amp; """,""" &amp; E2 &amp; """,""" &amp; F2 &amp; ""","""&amp;$H2&amp;"/"&amp;$I2&amp;"/"&amp;$J2&amp;"""));"</f>
+        <v>persons.ListOfPersons.Add( new Person("James","Smith","Male","Red","8/23/2003"));</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1">
@@ -13590,14 +13595,14 @@
         <v>7</v>
       </c>
       <c r="B3" s="711">
-        <f t="shared" ref="B3:B66" si="0">LEN(A3)</f>
+        <f t="shared" ref="B3:B66" si="1">LEN(A3)</f>
         <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>55</v>
       </c>
       <c r="D3" s="711">
-        <f t="shared" ref="D3:D66" si="1">LEN(C3)</f>
+        <f t="shared" ref="D3:D66" si="2">LEN(C3)</f>
         <v>7</v>
       </c>
       <c r="E3" t="s">
@@ -13607,24 +13612,28 @@
         <v>94</v>
       </c>
       <c r="G3" s="711">
-        <f t="shared" ref="G3:G66" si="2">LEN(F3)</f>
+        <f t="shared" ref="G3:G66" si="3">LEN(F3)</f>
         <v>6</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H66" ca="1" si="3" xml:space="preserve"> _xlfn.CEILING.MATH(RAND()*11 + 1)</f>
-        <v>4</v>
+        <f t="shared" ref="H3:H66" ca="1" si="4" xml:space="preserve"> _xlfn.CEILING.MATH(RAND()*11 + 1)</f>
+        <v>9</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I66" ca="1" si="4" xml:space="preserve"> _xlfn.CEILING.MATH(RAND()*27 + 1)</f>
-        <v>12</v>
+        <f t="shared" ref="I3:I66" ca="1" si="5" xml:space="preserve"> _xlfn.CEILING.MATH(RAND()*27 + 1)</f>
+        <v>17</v>
       </c>
       <c r="J3" s="710">
-        <f t="shared" ref="J3:J66" ca="1" si="5">_xlfn.CEILING.MATH(RAND()*75 + 1940)</f>
-        <v>1960</v>
+        <f t="shared" ref="J3:J66" ca="1" si="6">_xlfn.CEILING.MATH(RAND()*75 + 1940)</f>
+        <v>1959</v>
       </c>
       <c r="K3" t="str">
-        <f ca="1">$A3&amp;K$1&amp;$C3&amp;K$1&amp;$E3&amp;K$1&amp;$F3&amp;K$1&amp;$H3&amp;"/"&amp;$I3&amp;"/"&amp;$J3</f>
-        <v>John|Johnson|Male|Orange|4/12/1960</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>John|Johnson|Male|Orange|9/17/1959</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L5" ca="1" si="7">"persons.ListOfPersons.Add( new Person(""" &amp; A3 &amp; """,""" &amp; C3 &amp; """,""" &amp; E3 &amp; """,""" &amp; F3 &amp; ""","""&amp;$H3&amp;"/"&amp;$I3&amp;"/"&amp;$J3&amp;"""));"</f>
+        <v>persons.ListOfPersons.Add( new Person("John","Johnson","Male","Orange","9/17/1959"));</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1">
@@ -13632,14 +13641,14 @@
         <v>9</v>
       </c>
       <c r="B4" s="711">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>56</v>
       </c>
       <c r="D4" s="711">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="E4" t="s">
@@ -13649,24 +13658,28 @@
         <v>95</v>
       </c>
       <c r="G4" s="711">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="H4">
-        <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
       </c>
       <c r="I4">
-        <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>27</v>
       </c>
       <c r="J4" s="710">
-        <f t="shared" ca="1" si="5"/>
-        <v>1960</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1944</v>
       </c>
       <c r="K4" t="str">
-        <f ca="1">$A4&amp;K$1&amp;$C4&amp;K$1&amp;$E4&amp;K$1&amp;$F4&amp;K$1&amp;$H4&amp;"/"&amp;$I4&amp;"/"&amp;$J4</f>
-        <v>Robert|Williams|Male|Yellow|10/14/1960</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Robert|Williams|Male|Yellow|9/27/1944</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>persons.ListOfPersons.Add( new Person("Robert","Williams","Male","Yellow","9/27/1944"));</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1">
@@ -13674,14 +13687,14 @@
         <v>11</v>
       </c>
       <c r="B5" s="711">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>57</v>
       </c>
       <c r="D5" s="711">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="E5" t="s">
@@ -13691,24 +13704,28 @@
         <v>87</v>
       </c>
       <c r="G5" s="711">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="H5">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
       </c>
       <c r="I5">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7</v>
       </c>
       <c r="J5" s="710">
-        <f t="shared" ca="1" si="5"/>
-        <v>1946</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1963</v>
       </c>
       <c r="K5" t="str">
-        <f ca="1">$A5&amp;K$1&amp;$C5&amp;K$1&amp;$E5&amp;K$1&amp;$F5&amp;K$1&amp;$H5&amp;"/"&amp;$I5&amp;"/"&amp;$J5</f>
-        <v>Michael|Jones|Male|Green|2/4/1946</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Michael|Jones|Male|Green|5/7/1963</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>persons.ListOfPersons.Add( new Person("Michael","Jones","Male","Green","5/7/1963"));</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1">
@@ -13716,14 +13733,14 @@
         <v>13</v>
       </c>
       <c r="B6" s="711">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>58</v>
       </c>
       <c r="D6" s="711">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="E6" t="s">
@@ -13733,24 +13750,24 @@
         <v>96</v>
       </c>
       <c r="G6" s="711">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="H6">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
       </c>
       <c r="I6">
-        <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>22</v>
       </c>
       <c r="J6" s="710">
-        <f t="shared" ca="1" si="5"/>
-        <v>2009</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1960</v>
       </c>
       <c r="K6" t="str">
-        <f ca="1">$A6&amp;K$1&amp;$C6&amp;K$1&amp;$E6&amp;K$1&amp;$F6&amp;K$1&amp;$H6&amp;"/"&amp;$I6&amp;"/"&amp;$J6</f>
-        <v>William|Brown|Male|Blue|8/9/2009</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>William|Brown|Male|Blue|2/22/1960</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1">
@@ -13758,14 +13775,14 @@
         <v>15</v>
       </c>
       <c r="B7" s="711">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>59</v>
       </c>
       <c r="D7" s="711">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="E7" t="s">
@@ -13775,24 +13792,28 @@
         <v>97</v>
       </c>
       <c r="G7" s="711">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="H7">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
       </c>
       <c r="I7">
-        <f t="shared" ca="1" si="4"/>
-        <v>17</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>12</v>
       </c>
       <c r="J7" s="710">
-        <f t="shared" ca="1" si="5"/>
-        <v>1993</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1949</v>
       </c>
       <c r="K7" t="str">
-        <f ca="1">$A7&amp;K$1&amp;$C7&amp;K$1&amp;$E7&amp;K$1&amp;$F7&amp;K$1&amp;$H7&amp;"/"&amp;$I7&amp;"/"&amp;$J7</f>
-        <v>David|Davis|Male|Indigo|6/17/1993</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>David|Davis|Male|Indigo|9/12/1949</v>
+      </c>
+      <c r="L7" t="str">
+        <f ca="1">$A7&amp;K$1&amp;$C7&amp;K$1&amp;$E7&amp;K$1&amp;$F7&amp;K$1&amp;$J7&amp;"-"&amp;$H7&amp;"-"&amp;$I7</f>
+        <v>David|Davis|Male|Indigo|1949-9-12</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1">
@@ -13800,14 +13821,14 @@
         <v>17</v>
       </c>
       <c r="B8" s="711">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>60</v>
       </c>
       <c r="D8" s="711">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="E8" t="s">
@@ -13817,24 +13838,24 @@
         <v>98</v>
       </c>
       <c r="G8" s="711">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="H8">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
       </c>
       <c r="I8">
-        <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
       </c>
       <c r="J8" s="710">
-        <f t="shared" ca="1" si="5"/>
-        <v>1983</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1949</v>
       </c>
       <c r="K8" t="str">
-        <f ca="1">$A8&amp;K$1&amp;$C8&amp;K$1&amp;$E8&amp;K$1&amp;$F8&amp;K$1&amp;$H8&amp;"/"&amp;$I8&amp;"/"&amp;$J8</f>
-        <v>Richard|Miller|Male|Violet|8/14/1983</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Richard|Miller|Male|Violet|7/5/1949</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1">
@@ -13842,14 +13863,14 @@
         <v>19</v>
       </c>
       <c r="B9" s="711">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>61</v>
       </c>
       <c r="D9" s="711">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="E9" t="s">
@@ -13859,24 +13880,24 @@
         <v>99</v>
       </c>
       <c r="G9" s="711">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="H9">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>11</v>
       </c>
       <c r="I9">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>15</v>
       </c>
       <c r="J9" s="710">
-        <f t="shared" ca="1" si="5"/>
-        <v>1952</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1998</v>
       </c>
       <c r="K9" t="str">
-        <f ca="1">$A9&amp;K$1&amp;$C9&amp;K$1&amp;$E9&amp;K$1&amp;$F9&amp;K$1&amp;$H9&amp;"/"&amp;$I9&amp;"/"&amp;$J9</f>
-        <v>Joseph|Wilson|Male|Turcoise|6/3/1952</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Joseph|Wilson|Male|Turcoise|11/15/1998</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1">
@@ -13884,14 +13905,14 @@
         <v>21</v>
       </c>
       <c r="B10" s="711">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>62</v>
       </c>
       <c r="D10" s="711">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="E10" t="s">
@@ -13901,24 +13922,24 @@
         <v>100</v>
       </c>
       <c r="G10" s="711">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="H10">
-        <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>11</v>
       </c>
       <c r="I10">
-        <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>24</v>
       </c>
       <c r="J10" s="710">
-        <f t="shared" ca="1" si="5"/>
-        <v>2010</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1985</v>
       </c>
       <c r="K10" t="str">
-        <f ca="1">$A10&amp;K$1&amp;$C10&amp;K$1&amp;$E10&amp;K$1&amp;$F10&amp;K$1&amp;$H10&amp;"/"&amp;$I10&amp;"/"&amp;$J10</f>
-        <v>Thomas|Moore|Male|Mauve|10/14/2010</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Thomas|Moore|Male|Mauve|11/24/1985</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1">
@@ -13926,14 +13947,14 @@
         <v>23</v>
       </c>
       <c r="B11" s="711">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>63</v>
       </c>
       <c r="D11" s="711">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="E11" t="s">
@@ -13943,24 +13964,24 @@
         <v>2066</v>
       </c>
       <c r="G11" s="711">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="H11">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="I11">
         <f t="shared" ca="1" si="4"/>
         <v>9</v>
       </c>
+      <c r="I11">
+        <f t="shared" ca="1" si="5"/>
+        <v>13</v>
+      </c>
       <c r="J11" s="710">
-        <f t="shared" ca="1" si="5"/>
-        <v>1979</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2007</v>
       </c>
       <c r="K11" t="str">
-        <f ca="1">$A11&amp;K$1&amp;$C11&amp;K$1&amp;$E11&amp;K$1&amp;$F11&amp;K$1&amp;$H11&amp;"/"&amp;$I11&amp;"/"&amp;$J11</f>
-        <v>Charles|Taylor|Male|CG_Red|4/9/1979</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Charles|Taylor|Male|CG_Red|9/13/2007</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1">
@@ -13968,14 +13989,14 @@
         <v>25</v>
       </c>
       <c r="B12" s="711">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="C12" t="s">
         <v>64</v>
       </c>
       <c r="D12" s="711">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="E12" t="s">
@@ -13985,24 +14006,24 @@
         <v>497</v>
       </c>
       <c r="G12" s="711">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="H12">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <f t="shared" ca="1" si="5"/>
         <v>10</v>
       </c>
-      <c r="I12">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
       <c r="J12" s="710">
-        <f t="shared" ca="1" si="5"/>
-        <v>1975</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1942</v>
       </c>
       <c r="K12" t="str">
-        <f ca="1">$A12&amp;K$1&amp;$C12&amp;K$1&amp;$E12&amp;K$1&amp;$F12&amp;K$1&amp;$H12&amp;"/"&amp;$I12&amp;"/"&amp;$J12</f>
-        <v>Christopher|Anderson|Male|Chamoisee|10/2/1975</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Christopher|Anderson|Male|Chamoisee|3/10/1942</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1">
@@ -14010,14 +14031,14 @@
         <v>27</v>
       </c>
       <c r="B13" s="711">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="711">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="E13" t="s">
@@ -14027,24 +14048,24 @@
         <v>500</v>
       </c>
       <c r="G13" s="711">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="H13">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>6</v>
       </c>
       <c r="I13">
-        <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>18</v>
       </c>
       <c r="J13" s="710">
-        <f t="shared" ca="1" si="5"/>
-        <v>1977</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2015</v>
       </c>
       <c r="K13" t="str">
-        <f ca="1">$A13&amp;K$1&amp;$C13&amp;K$1&amp;$E13&amp;K$1&amp;$F13&amp;K$1&amp;$H13&amp;"/"&amp;$I13&amp;"/"&amp;$J13</f>
-        <v>Daniel|Thomas|Male|Champagne|4/7/1977</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Daniel|Thomas|Male|Champagne|6/18/2015</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1">
@@ -14052,14 +14073,14 @@
         <v>29</v>
       </c>
       <c r="B14" s="711">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>65</v>
       </c>
       <c r="D14" s="711">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="E14" t="s">
@@ -14069,24 +14090,24 @@
         <v>503</v>
       </c>
       <c r="G14" s="711">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="H14">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
       </c>
       <c r="I14">
-        <f t="shared" ca="1" si="4"/>
-        <v>25</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
       </c>
       <c r="J14" s="710">
-        <f t="shared" ca="1" si="5"/>
-        <v>2008</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1980</v>
       </c>
       <c r="K14" t="str">
-        <f ca="1">$A14&amp;K$1&amp;$C14&amp;K$1&amp;$E14&amp;K$1&amp;$F14&amp;K$1&amp;$H14&amp;"/"&amp;$I14&amp;"/"&amp;$J14</f>
-        <v>Matthew|Jackson|Male|Charcoal|9/25/2008</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Matthew|Jackson|Male|Charcoal|7/5/1980</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1">
@@ -14094,14 +14115,14 @@
         <v>31</v>
       </c>
       <c r="B15" s="711">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="C15" t="s">
         <v>66</v>
       </c>
       <c r="D15" s="711">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="E15" t="s">
@@ -14111,24 +14132,24 @@
         <v>505</v>
       </c>
       <c r="G15" s="711">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="H15">
-        <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
       </c>
       <c r="I15">
-        <f t="shared" ca="1" si="4"/>
-        <v>23</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>26</v>
       </c>
       <c r="J15" s="710">
-        <f t="shared" ca="1" si="5"/>
-        <v>1977</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2000</v>
       </c>
       <c r="K15" t="str">
-        <f ca="1">$A15&amp;K$1&amp;$C15&amp;K$1&amp;$E15&amp;K$1&amp;$F15&amp;K$1&amp;$H15&amp;"/"&amp;$I15&amp;"/"&amp;$J15</f>
-        <v>Anthony|White|Male|Chartreuse|12/23/1977</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Anthony|White|Male|Chartreuse|2/26/2000</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1">
@@ -14136,713 +14157,725 @@
         <v>33</v>
       </c>
       <c r="B16" s="711">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="C16" t="s">
         <v>67</v>
       </c>
       <c r="D16" s="711">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" t="s">
+        <v>508</v>
+      </c>
+      <c r="G16" s="711">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <f t="shared" ca="1" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="J16" s="710">
+        <f t="shared" ca="1" si="6"/>
+        <v>1993</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Donald|Harris|Male|Cherry|2/14/1993</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="711">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="711">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2067</v>
+      </c>
+      <c r="G17" s="711">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="I17">
+        <f t="shared" ca="1" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="J17" s="710">
+        <f t="shared" ca="1" si="6"/>
+        <v>1966</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Mark|Martin|Male|Cherry_blossom_pink|8/23/1966</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="711">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="711">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" t="s">
+        <v>512</v>
+      </c>
+      <c r="G18" s="711">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ca="1" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="J18" s="710">
+        <f t="shared" ca="1" si="6"/>
+        <v>1998</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Paul|Thompson|Male|Chestnut|2/9/1998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="711">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="E16" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" t="s">
-        <v>508</v>
-      </c>
-      <c r="G16" s="711">
+      <c r="C19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="711">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="H16">
-        <f t="shared" ca="1" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="I16">
+      <c r="E19" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" t="s">
+        <v>514</v>
+      </c>
+      <c r="G19" s="711">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="H19">
         <f t="shared" ca="1" si="4"/>
-        <v>26</v>
-      </c>
-      <c r="J16" s="710">
+        <v>11</v>
+      </c>
+      <c r="I19">
         <f t="shared" ca="1" si="5"/>
-        <v>1944</v>
-      </c>
-      <c r="K16" t="str">
-        <f ca="1">$A16&amp;K$1&amp;$C16&amp;K$1&amp;$E16&amp;K$1&amp;$F16&amp;K$1&amp;$H16&amp;"/"&amp;$I16&amp;"/"&amp;$J16</f>
-        <v>Donald|Harris|Male|Cherry|10/26/1944</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A17" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="711">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="711">
+        <v>22</v>
+      </c>
+      <c r="J19" s="710">
+        <f t="shared" ca="1" si="6"/>
+        <v>1983</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Steven|Garcia|Male|Chocolate|11/22/1983</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="711">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="E17" t="s">
+      <c r="C20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="711">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
         <v>91</v>
       </c>
-      <c r="F17" t="s">
-        <v>2067</v>
-      </c>
-      <c r="G17" s="711">
+      <c r="F20" t="s">
+        <v>2068</v>
+      </c>
+      <c r="G20" s="711">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ca="1" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="I20">
+        <f t="shared" ca="1" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="J20" s="710">
+        <f t="shared" ca="1" si="6"/>
+        <v>1957</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>George|Martinez|Male|Chrome_yellow|11/13/1957</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A21" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="711">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="711">
         <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="H17">
-        <f t="shared" ca="1" si="3"/>
         <v>8</v>
       </c>
-      <c r="I17">
+      <c r="E21" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" t="s">
+        <v>519</v>
+      </c>
+      <c r="G21" s="711">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="H21">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="J17" s="710">
+        <v>9</v>
+      </c>
+      <c r="I21">
         <f t="shared" ca="1" si="5"/>
-        <v>1981</v>
-      </c>
-      <c r="K17" t="str">
-        <f ca="1">$A17&amp;K$1&amp;$C17&amp;K$1&amp;$E17&amp;K$1&amp;$F17&amp;K$1&amp;$H17&amp;"/"&amp;$I17&amp;"/"&amp;$J17</f>
-        <v>Mark|Martin|Male|Cherry_blossom_pink|8/10/1981</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A18" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="711">
-        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="J21" s="710">
+        <f t="shared" ca="1" si="6"/>
+        <v>1993</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Kenneth|Robinson|Male|Cinereous|9/27/1993</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A22" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="711">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="711">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" t="s">
+        <v>2069</v>
+      </c>
+      <c r="G22" s="711">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="H22">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="J22" s="710">
+        <f t="shared" ca="1" si="6"/>
+        <v>2007</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Andrew|Clark|Male|Electric_blue|2/6/2007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="711">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="711">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" t="s">
+        <v>2070</v>
+      </c>
+      <c r="G23" s="711">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="H23">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <f t="shared" ca="1" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="J23" s="710">
+        <f t="shared" ca="1" si="6"/>
+        <v>1955</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Joshua|Rodriguez|Male|Electric_crimson|2/21/1955</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A24" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="711">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="711">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" t="s">
+        <v>2071</v>
+      </c>
+      <c r="G24" s="711">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ca="1" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="J24" s="710">
+        <f t="shared" ca="1" si="6"/>
+        <v>1961</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Edward|Lewis|Male|Electric_cyan|3/21/1961</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A25" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="711">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="711">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" t="s">
+        <v>2072</v>
+      </c>
+      <c r="G25" s="711">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="I25">
+        <f t="shared" ca="1" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="J25" s="710">
+        <f t="shared" ca="1" si="6"/>
+        <v>1988</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Brian|Lee|Male|Electric_green|8/24/1988</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A26" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="711">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="711">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="E26" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26" t="s">
+        <v>2073</v>
+      </c>
+      <c r="G26" s="711">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="H26">
+        <f t="shared" ca="1" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="I26">
+        <f t="shared" ca="1" si="5"/>
         <v>4</v>
       </c>
-      <c r="C18" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="711">
+      <c r="J26" s="710">
+        <f t="shared" ca="1" si="6"/>
+        <v>1992</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Kevin|Walker|Male|Electric_indigo|6/4/1992</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A27" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="711">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="711">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="E27" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27" t="s">
+        <v>2074</v>
+      </c>
+      <c r="G27" s="711">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="I27">
+        <f t="shared" ca="1" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="J27" s="710">
+        <f t="shared" ca="1" si="6"/>
+        <v>1969</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Mary|Hall|Female|Electric_lavender|5/14/1969</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="711">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="E18" t="s">
-        <v>91</v>
-      </c>
-      <c r="F18" t="s">
-        <v>512</v>
-      </c>
-      <c r="G18" s="711">
+      <c r="C28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="711">
         <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="E28" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" t="s">
+        <v>2075</v>
+      </c>
+      <c r="G28" s="711">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="H28">
+        <f t="shared" ca="1" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="I28">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="J28" s="710">
+        <f t="shared" ca="1" si="6"/>
+        <v>2014</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Patricia|Allen|Female|Electric_lime|12/2/2014</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="711">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="H18">
-        <f t="shared" ca="1" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="I18">
+      <c r="C29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="711">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="E29" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29" t="s">
+        <v>2076</v>
+      </c>
+      <c r="G29" s="711">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="H29">
         <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="I29">
+        <f t="shared" ca="1" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="J29" s="710">
+        <f t="shared" ca="1" si="6"/>
+        <v>1974</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Jennifer|Young|Female|Electric_purple|4/8/1974</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="711">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="J18" s="710">
-        <f t="shared" ca="1" si="5"/>
-        <v>2004</v>
-      </c>
-      <c r="K18" t="str">
-        <f ca="1">$A18&amp;K$1&amp;$C18&amp;K$1&amp;$E18&amp;K$1&amp;$F18&amp;K$1&amp;$H18&amp;"/"&amp;$I18&amp;"/"&amp;$J18</f>
-        <v>Paul|Thompson|Male|Chestnut|10/9/2004</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="711">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="711">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="E19" t="s">
-        <v>91</v>
-      </c>
-      <c r="F19" t="s">
-        <v>514</v>
-      </c>
-      <c r="G19" s="711">
+      <c r="C30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="711">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="H19">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="I19">
+      <c r="E30" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30" t="s">
+        <v>2077</v>
+      </c>
+      <c r="G30" s="711">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="H30">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="J19" s="710">
+        <v>3</v>
+      </c>
+      <c r="I30">
         <f t="shared" ca="1" si="5"/>
-        <v>1996</v>
-      </c>
-      <c r="K19" t="str">
-        <f ca="1">$A19&amp;K$1&amp;$C19&amp;K$1&amp;$E19&amp;K$1&amp;$F19&amp;K$1&amp;$H19&amp;"/"&amp;$I19&amp;"/"&amp;$J19</f>
-        <v>Steven|Garcia|Male|Chocolate|4/5/1996</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A20" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="711">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="711">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="E20" t="s">
-        <v>91</v>
-      </c>
-      <c r="F20" t="s">
-        <v>2068</v>
-      </c>
-      <c r="G20" s="711">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="H20">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="I20">
-        <f t="shared" ca="1" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="J20" s="710">
-        <f t="shared" ca="1" si="5"/>
-        <v>1999</v>
-      </c>
-      <c r="K20" t="str">
-        <f ca="1">$A20&amp;K$1&amp;$C20&amp;K$1&amp;$E20&amp;K$1&amp;$F20&amp;K$1&amp;$H20&amp;"/"&amp;$I20&amp;"/"&amp;$J20</f>
-        <v>George|Martinez|Male|Chrome_yellow|5/7/1999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A21" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="711">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="711">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="E21" t="s">
-        <v>91</v>
-      </c>
-      <c r="F21" t="s">
-        <v>519</v>
-      </c>
-      <c r="G21" s="711">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="H21">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="I21">
-        <f t="shared" ca="1" si="4"/>
-        <v>27</v>
-      </c>
-      <c r="J21" s="710">
-        <f t="shared" ca="1" si="5"/>
-        <v>1948</v>
-      </c>
-      <c r="K21" t="str">
-        <f ca="1">$A21&amp;K$1&amp;$C21&amp;K$1&amp;$E21&amp;K$1&amp;$F21&amp;K$1&amp;$H21&amp;"/"&amp;$I21&amp;"/"&amp;$J21</f>
-        <v>Kenneth|Robinson|Male|Cinereous|2/27/1948</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A22" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="711">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C22" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="711">
+        <v>3</v>
+      </c>
+      <c r="J30" s="710">
+        <f t="shared" ca="1" si="6"/>
+        <v>1964</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Elizabeth|Hernandez|Female|Electric_ultramarine|3/3/1964</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" ref="L30:L36" ca="1" si="8">"persons.ListOfPersons.Add( new Person(""" &amp; A30 &amp; """,""" &amp; C30 &amp; """,""" &amp; E30 &amp; """,""" &amp; F30 &amp; ""","""&amp;$H30&amp;"/"&amp;$I30&amp;"/"&amp;$J30&amp;"""));"</f>
+        <v>persons.ListOfPersons.Add( new Person("Elizabeth","Hernandez","Female","Electric_ultramarine","3/3/1964"));</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A31" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="711">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="E22" t="s">
-        <v>91</v>
-      </c>
-      <c r="F22" t="s">
-        <v>2069</v>
-      </c>
-      <c r="G22" s="711">
+      <c r="C31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="711">
         <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="H22">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="I22">
+        <v>4</v>
+      </c>
+      <c r="E31" t="s">
+        <v>92</v>
+      </c>
+      <c r="F31" t="s">
+        <v>2078</v>
+      </c>
+      <c r="G31" s="711">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="H31">
+        <f t="shared" ca="1" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="I31">
+        <f t="shared" ca="1" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="J31" s="710">
+        <f t="shared" ca="1" si="6"/>
+        <v>1952</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Linda|King|Female|Electric_violet|12/25/1952</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>persons.ListOfPersons.Add( new Person("Linda","King","Female","Electric_violet","12/25/1952"));</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A32" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="711">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="711">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="E32" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32" t="s">
+        <v>2079</v>
+      </c>
+      <c r="G32" s="711">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="H32">
         <f t="shared" ca="1" si="4"/>
         <v>6</v>
       </c>
-      <c r="J22" s="710">
+      <c r="I32">
         <f t="shared" ca="1" si="5"/>
-        <v>1975</v>
-      </c>
-      <c r="K22" t="str">
-        <f ca="1">$A22&amp;K$1&amp;$C22&amp;K$1&amp;$E22&amp;K$1&amp;$F22&amp;K$1&amp;$H22&amp;"/"&amp;$I22&amp;"/"&amp;$J22</f>
-        <v>Andrew|Clark|Male|Electric_blue|2/6/1975</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A23" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="711">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C23" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" s="711">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="E23" t="s">
-        <v>91</v>
-      </c>
-      <c r="F23" t="s">
-        <v>2070</v>
-      </c>
-      <c r="G23" s="711">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="H23">
-        <f t="shared" ca="1" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="I23">
-        <f t="shared" ca="1" si="4"/>
-        <v>26</v>
-      </c>
-      <c r="J23" s="710">
-        <f t="shared" ca="1" si="5"/>
-        <v>1959</v>
-      </c>
-      <c r="K23" t="str">
-        <f ca="1">$A23&amp;K$1&amp;$C23&amp;K$1&amp;$E23&amp;K$1&amp;$F23&amp;K$1&amp;$H23&amp;"/"&amp;$I23&amp;"/"&amp;$J23</f>
-        <v>Joshua|Rodriguez|Male|Electric_crimson|10/26/1959</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A24" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="711">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" s="711">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E24" t="s">
-        <v>91</v>
-      </c>
-      <c r="F24" t="s">
-        <v>2071</v>
-      </c>
-      <c r="G24" s="711">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="H24">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="I24">
-        <f t="shared" ca="1" si="4"/>
-        <v>21</v>
-      </c>
-      <c r="J24" s="710">
-        <f t="shared" ca="1" si="5"/>
-        <v>1941</v>
-      </c>
-      <c r="K24" t="str">
-        <f ca="1">$A24&amp;K$1&amp;$C24&amp;K$1&amp;$E24&amp;K$1&amp;$F24&amp;K$1&amp;$H24&amp;"/"&amp;$I24&amp;"/"&amp;$J24</f>
-        <v>Edward|Lewis|Male|Electric_cyan|5/21/1941</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A25" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="711">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C25" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" s="711">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="E25" t="s">
-        <v>91</v>
-      </c>
-      <c r="F25" t="s">
-        <v>2072</v>
-      </c>
-      <c r="G25" s="711">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="H25">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="I25">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="J25" s="710">
-        <f t="shared" ca="1" si="5"/>
-        <v>1944</v>
-      </c>
-      <c r="K25" t="str">
-        <f ca="1">$A25&amp;K$1&amp;$C25&amp;K$1&amp;$E25&amp;K$1&amp;$F25&amp;K$1&amp;$H25&amp;"/"&amp;$I25&amp;"/"&amp;$J25</f>
-        <v>Brian|Lee|Male|Electric_green|8/2/1944</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A26" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="711">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C26" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" s="711">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="E26" t="s">
-        <v>91</v>
-      </c>
-      <c r="F26" t="s">
-        <v>2073</v>
-      </c>
-      <c r="G26" s="711">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="H26">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="I26">
-        <f t="shared" ca="1" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="J26" s="710">
-        <f t="shared" ca="1" si="5"/>
-        <v>2011</v>
-      </c>
-      <c r="K26" t="str">
-        <f ca="1">$A26&amp;K$1&amp;$C26&amp;K$1&amp;$E26&amp;K$1&amp;$F26&amp;K$1&amp;$H26&amp;"/"&amp;$I26&amp;"/"&amp;$J26</f>
-        <v>Kevin|Walker|Male|Electric_indigo|5/6/2011</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A27" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="711">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C27" t="s">
-        <v>78</v>
-      </c>
-      <c r="D27" s="711">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="E27" t="s">
-        <v>92</v>
-      </c>
-      <c r="F27" t="s">
-        <v>2074</v>
-      </c>
-      <c r="G27" s="711">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="H27">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="I27">
-        <f t="shared" ca="1" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="J27" s="710">
-        <f t="shared" ca="1" si="5"/>
-        <v>1988</v>
-      </c>
-      <c r="K27" t="str">
-        <f ca="1">$A27&amp;K$1&amp;$C27&amp;K$1&amp;$E27&amp;K$1&amp;$F27&amp;K$1&amp;$H27&amp;"/"&amp;$I27&amp;"/"&amp;$J27</f>
-        <v>Mary|Hall|Female|Electric_lavender|5/12/1988</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A28" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="711">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C28" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" s="711">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E28" t="s">
-        <v>92</v>
-      </c>
-      <c r="F28" t="s">
-        <v>2075</v>
-      </c>
-      <c r="G28" s="711">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="H28">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="I28">
-        <f t="shared" ca="1" si="4"/>
-        <v>22</v>
-      </c>
-      <c r="J28" s="710">
-        <f t="shared" ca="1" si="5"/>
-        <v>1989</v>
-      </c>
-      <c r="K28" t="str">
-        <f ca="1">$A28&amp;K$1&amp;$C28&amp;K$1&amp;$E28&amp;K$1&amp;$F28&amp;K$1&amp;$H28&amp;"/"&amp;$I28&amp;"/"&amp;$J28</f>
-        <v>Patricia|Allen|Female|Electric_lime|2/22/1989</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A29" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="711">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C29" t="s">
-        <v>80</v>
-      </c>
-      <c r="D29" s="711">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E29" t="s">
-        <v>92</v>
-      </c>
-      <c r="F29" t="s">
-        <v>2076</v>
-      </c>
-      <c r="G29" s="711">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="H29">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="I29">
-        <f t="shared" ca="1" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="J29" s="710">
-        <f t="shared" ca="1" si="5"/>
-        <v>1955</v>
-      </c>
-      <c r="K29" t="str">
-        <f ca="1">$A29&amp;K$1&amp;$C29&amp;K$1&amp;$E29&amp;K$1&amp;$F29&amp;K$1&amp;$H29&amp;"/"&amp;$I29&amp;"/"&amp;$J29</f>
-        <v>Jennifer|Young|Female|Electric_purple|8/14/1955</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A30" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="711">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C30" t="s">
-        <v>81</v>
-      </c>
-      <c r="D30" s="711">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="E30" t="s">
-        <v>92</v>
-      </c>
-      <c r="F30" t="s">
-        <v>2077</v>
-      </c>
-      <c r="G30" s="711">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="H30">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="I30">
-        <f t="shared" ca="1" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="J30" s="710">
-        <f t="shared" ca="1" si="5"/>
-        <v>1950</v>
-      </c>
-      <c r="K30" t="str">
-        <f ca="1">$A30&amp;K$1&amp;$C30&amp;K$1&amp;$E30&amp;K$1&amp;$F30&amp;K$1&amp;$H30&amp;"/"&amp;$I30&amp;"/"&amp;$J30</f>
-        <v>Elizabeth|Hernandez|Female|Electric_ultramarine|2/25/1950</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A31" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" s="711">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C31" t="s">
-        <v>82</v>
-      </c>
-      <c r="D31" s="711">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="E31" t="s">
-        <v>92</v>
-      </c>
-      <c r="F31" t="s">
-        <v>2078</v>
-      </c>
-      <c r="G31" s="711">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="H31">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="I31">
-        <f t="shared" ca="1" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="J31" s="710">
-        <f t="shared" ca="1" si="5"/>
-        <v>1980</v>
-      </c>
-      <c r="K31" t="str">
-        <f ca="1">$A31&amp;K$1&amp;$C31&amp;K$1&amp;$E31&amp;K$1&amp;$F31&amp;K$1&amp;$H31&amp;"/"&amp;$I31&amp;"/"&amp;$J31</f>
-        <v>Linda|King|Female|Electric_violet|5/5/1980</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A32" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" s="711">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C32" t="s">
-        <v>83</v>
-      </c>
-      <c r="D32" s="711">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="E32" t="s">
-        <v>92</v>
-      </c>
-      <c r="F32" t="s">
-        <v>2079</v>
-      </c>
-      <c r="G32" s="711">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="H32">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="I32">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J32" s="710">
-        <f t="shared" ca="1" si="5"/>
-        <v>2012</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1977</v>
       </c>
       <c r="K32" t="str">
-        <f ca="1">$A32&amp;K$1&amp;$C32&amp;K$1&amp;$E32&amp;K$1&amp;$F32&amp;K$1&amp;$H32&amp;"/"&amp;$I32&amp;"/"&amp;$J32</f>
-        <v>Barbara|Wright|Female|Electric_yellow|6/3/2012</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Barbara|Wright|Female|Electric_yellow|6/11/1977</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>persons.ListOfPersons.Add( new Person("Barbara","Wright","Female","Electric_yellow","6/11/1977"));</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" thickBot="1">
@@ -14850,14 +14883,14 @@
         <v>18</v>
       </c>
       <c r="B33" s="711">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="C33" t="s">
         <v>84</v>
       </c>
       <c r="D33" s="711">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="E33" t="s">
@@ -14867,24 +14900,28 @@
         <v>823</v>
       </c>
       <c r="G33" s="711">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="H33">
-        <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
       </c>
       <c r="I33">
-        <f t="shared" ca="1" si="4"/>
-        <v>18</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>19</v>
       </c>
       <c r="J33" s="710">
-        <f t="shared" ca="1" si="5"/>
-        <v>1988</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2001</v>
       </c>
       <c r="K33" t="str">
-        <f ca="1">$A33&amp;K$1&amp;$C33&amp;K$1&amp;$E33&amp;K$1&amp;$F33&amp;K$1&amp;$H33&amp;"/"&amp;$I33&amp;"/"&amp;$J33</f>
-        <v>Susan|Lopez|Female|Emerald|11/18/1988</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Susan|Lopez|Female|Emerald|5/19/2001</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>persons.ListOfPersons.Add( new Person("Susan","Lopez","Female","Emerald","5/19/2001"));</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="15.75" thickBot="1">
@@ -14892,14 +14929,14 @@
         <v>20</v>
       </c>
       <c r="B34" s="711">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="C34" t="s">
         <v>85</v>
       </c>
       <c r="D34" s="711">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="E34" t="s">
@@ -14909,24 +14946,28 @@
         <v>2080</v>
       </c>
       <c r="G34" s="711">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="H34">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>11</v>
       </c>
       <c r="I34">
-        <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
       <c r="J34" s="710">
-        <f t="shared" ca="1" si="5"/>
-        <v>2001</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1986</v>
       </c>
       <c r="K34" t="str">
-        <f ca="1">$A34&amp;K$1&amp;$C34&amp;K$1&amp;$E34&amp;K$1&amp;$F34&amp;K$1&amp;$H34&amp;"/"&amp;$I34&amp;"/"&amp;$J34</f>
-        <v>Jessica|Hill|Female|Eton_blue|6/9/2001</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Jessica|Hill|Female|Eton_blue|11/3/1986</v>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>persons.ListOfPersons.Add( new Person("Jessica","Hill","Female","Eton_blue","11/3/1986"));</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="15.75" thickBot="1">
@@ -14934,14 +14975,14 @@
         <v>22</v>
       </c>
       <c r="B35" s="711">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="C35" t="s">
         <v>86</v>
       </c>
       <c r="D35" s="711">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="E35" t="s">
@@ -14951,24 +14992,28 @@
         <v>828</v>
       </c>
       <c r="G35" s="711">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="H35">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>11</v>
       </c>
       <c r="I35">
-        <f t="shared" ca="1" si="4"/>
-        <v>22</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>23</v>
       </c>
       <c r="J35" s="710">
-        <f t="shared" ca="1" si="5"/>
-        <v>1947</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1942</v>
       </c>
       <c r="K35" t="str">
-        <f ca="1">$A35&amp;K$1&amp;$C35&amp;K$1&amp;$E35&amp;K$1&amp;$F35&amp;K$1&amp;$H35&amp;"/"&amp;$I35&amp;"/"&amp;$J35</f>
-        <v>Margaret|Scott|Female|Fallow|7/22/1947</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Margaret|Scott|Female|Fallow|11/23/1942</v>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>persons.ListOfPersons.Add( new Person("Margaret","Scott","Female","Fallow","11/23/1942"));</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="15.75" thickBot="1">
@@ -14976,14 +15021,14 @@
         <v>24</v>
       </c>
       <c r="B36" s="711">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="C36" t="s">
         <v>87</v>
       </c>
       <c r="D36" s="711">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="E36" t="s">
@@ -14993,24 +15038,28 @@
         <v>2081</v>
       </c>
       <c r="G36" s="711">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="H36">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
       </c>
       <c r="I36">
-        <f t="shared" ca="1" si="4"/>
-        <v>13</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7</v>
       </c>
       <c r="J36" s="710">
-        <f t="shared" ca="1" si="5"/>
-        <v>1973</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1947</v>
       </c>
       <c r="K36" t="str">
-        <f ca="1">$A36&amp;K$1&amp;$C36&amp;K$1&amp;$E36&amp;K$1&amp;$F36&amp;K$1&amp;$H36&amp;"/"&amp;$I36&amp;"/"&amp;$J36</f>
-        <v>Sarah|Green|Female|Falu_red|9/13/1973</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Sarah|Green|Female|Falu_red|7/7/1947</v>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>persons.ListOfPersons.Add( new Person("Sarah","Green","Female","Falu_red","7/7/1947"));</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="15.75" thickBot="1">
@@ -15018,14 +15067,14 @@
         <v>26</v>
       </c>
       <c r="B37" s="711">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="C37" t="s">
         <v>88</v>
       </c>
       <c r="D37" s="711">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="E37" t="s">
@@ -15035,24 +15084,24 @@
         <v>831</v>
       </c>
       <c r="G37" s="711">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="H37">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
       </c>
       <c r="I37">
-        <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>12</v>
       </c>
       <c r="J37" s="710">
-        <f t="shared" ca="1" si="5"/>
-        <v>1942</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1959</v>
       </c>
       <c r="K37" t="str">
-        <f ca="1">$A37&amp;K$1&amp;$C37&amp;K$1&amp;$E37&amp;K$1&amp;$F37&amp;K$1&amp;$H37&amp;"/"&amp;$I37&amp;"/"&amp;$J37</f>
-        <v>Karen|Adams|Female|Famous|8/8/1942</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Karen|Adams|Female|Famous|7/12/1959</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="15.75" thickBot="1">
@@ -15060,14 +15109,14 @@
         <v>28</v>
       </c>
       <c r="B38" s="711">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="C38" t="s">
         <v>89</v>
       </c>
       <c r="D38" s="711">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="E38" t="s">
@@ -15077,24 +15126,24 @@
         <v>833</v>
       </c>
       <c r="G38" s="711">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="H38">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>6</v>
       </c>
       <c r="I38">
-        <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>21</v>
       </c>
       <c r="J38" s="710">
-        <f t="shared" ca="1" si="5"/>
-        <v>1979</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1945</v>
       </c>
       <c r="K38" t="str">
-        <f ca="1">$A38&amp;K$1&amp;$C38&amp;K$1&amp;$E38&amp;K$1&amp;$F38&amp;K$1&amp;$H38&amp;"/"&amp;$I38&amp;"/"&amp;$J38</f>
-        <v>Nancy|Baker|Female|Fandango|3/7/1979</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Nancy|Baker|Female|Fandango|6/21/1945</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="15.75" thickBot="1">
@@ -15102,14 +15151,14 @@
         <v>30</v>
       </c>
       <c r="B39" s="711">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="C39" t="s">
         <v>90</v>
       </c>
       <c r="D39" s="711">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="E39" t="s">
@@ -15119,24 +15168,24 @@
         <v>2082</v>
       </c>
       <c r="G39" s="711">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="H39">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="I39">
+        <f t="shared" ca="1" si="5"/>
         <v>12</v>
       </c>
-      <c r="I39">
-        <f t="shared" ca="1" si="4"/>
-        <v>28</v>
-      </c>
       <c r="J39" s="710">
-        <f t="shared" ca="1" si="5"/>
-        <v>2004</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1942</v>
       </c>
       <c r="K39" t="str">
-        <f ca="1">$A39&amp;K$1&amp;$C39&amp;K$1&amp;$E39&amp;K$1&amp;$F39&amp;K$1&amp;$H39&amp;"/"&amp;$I39&amp;"/"&amp;$J39</f>
-        <v>Betty|Gonzalez|Female|Fashion_fuchsia|12/28/2004</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Betty|Gonzalez|Female|Fashion_fuchsia|10/12/1942</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="15.75" thickBot="1">
@@ -15144,14 +15193,14 @@
         <v>32</v>
       </c>
       <c r="B40" s="711">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="C40" t="s">
         <v>71</v>
       </c>
       <c r="D40" s="711">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="E40" t="s">
@@ -15161,24 +15210,24 @@
         <v>839</v>
       </c>
       <c r="G40" s="711">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="H40">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>6</v>
       </c>
       <c r="I40">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>13</v>
       </c>
       <c r="J40" s="710">
-        <f t="shared" ca="1" si="5"/>
-        <v>1981</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1993</v>
       </c>
       <c r="K40" t="str">
-        <f ca="1">$A40&amp;K$1&amp;$C40&amp;K$1&amp;$E40&amp;K$1&amp;$F40&amp;K$1&amp;$H40&amp;"/"&amp;$I40&amp;"/"&amp;$J40</f>
-        <v>Dorothy|Martinez|Female|Fawn|3/2/1981</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Dorothy|Martinez|Female|Fawn|6/13/1993</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15.75" thickBot="1">
@@ -15186,14 +15235,14 @@
         <v>34</v>
       </c>
       <c r="B41" s="711">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C41" t="s">
         <v>72</v>
       </c>
       <c r="D41" s="711">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="E41" t="s">
@@ -15203,24 +15252,24 @@
         <v>842</v>
       </c>
       <c r="G41" s="711">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="H41">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
       </c>
       <c r="I41">
-        <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>24</v>
       </c>
       <c r="J41" s="710">
-        <f t="shared" ca="1" si="5"/>
-        <v>1941</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2004</v>
       </c>
       <c r="K41" t="str">
-        <f ca="1">$A41&amp;K$1&amp;$C41&amp;K$1&amp;$E41&amp;K$1&amp;$F41&amp;K$1&amp;$H41&amp;"/"&amp;$I41&amp;"/"&amp;$J41</f>
-        <v>Lisa|Robinson|Female|Feldgrau|9/16/1941</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Lisa|Robinson|Female|Feldgrau|7/24/2004</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1">
@@ -15228,14 +15277,14 @@
         <v>36</v>
       </c>
       <c r="B42" s="711">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="C42" t="s">
         <v>73</v>
       </c>
       <c r="D42" s="711">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="E42" t="s">
@@ -15245,24 +15294,24 @@
         <v>845</v>
       </c>
       <c r="G42" s="711">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="H42">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
       </c>
       <c r="I42">
-        <f t="shared" ca="1" si="4"/>
-        <v>28</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>12</v>
       </c>
       <c r="J42" s="710">
-        <f t="shared" ca="1" si="5"/>
-        <v>1948</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1943</v>
       </c>
       <c r="K42" t="str">
-        <f ca="1">$A42&amp;K$1&amp;$C42&amp;K$1&amp;$E42&amp;K$1&amp;$F42&amp;K$1&amp;$H42&amp;"/"&amp;$I42&amp;"/"&amp;$J42</f>
-        <v>Sandra|Clark|Female|Fern|8/28/1948</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Sandra|Clark|Female|Fern|3/12/1943</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="15.75" thickBot="1">
@@ -15270,14 +15319,14 @@
         <v>38</v>
       </c>
       <c r="B43" s="711">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="C43" t="s">
         <v>74</v>
       </c>
       <c r="D43" s="711">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="E43" t="s">
@@ -15287,24 +15336,24 @@
         <v>2083</v>
       </c>
       <c r="G43" s="711">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="H43">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="I43">
         <f t="shared" ca="1" si="4"/>
         <v>4</v>
       </c>
+      <c r="I43">
+        <f t="shared" ca="1" si="5"/>
+        <v>25</v>
+      </c>
       <c r="J43" s="710">
-        <f t="shared" ca="1" si="5"/>
-        <v>1950</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1944</v>
       </c>
       <c r="L43" t="str">
-        <f ca="1">$A43&amp;L$1&amp;$C43&amp;L$1&amp;$E43&amp;L$1&amp;$F43&amp;L$1&amp;$H43&amp;"/"&amp;$I43&amp;"/"&amp;$J43</f>
-        <v>Ashley,Rodriguez,Female,Fern_green,2/4/1950</v>
+        <f t="shared" ref="L43:L79" ca="1" si="9">$A43&amp;L$1&amp;$C43&amp;L$1&amp;$E43&amp;L$1&amp;$F43&amp;L$1&amp;$H43&amp;"/"&amp;$I43&amp;"/"&amp;$J43</f>
+        <v>Ashley,Rodriguez,Female,Fern_green,4/25/1944</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="15.75" thickBot="1">
@@ -15312,14 +15361,14 @@
         <v>40</v>
       </c>
       <c r="B44" s="711">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="C44" t="s">
         <v>75</v>
       </c>
       <c r="D44" s="711">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="E44" t="s">
@@ -15329,24 +15378,24 @@
         <v>2084</v>
       </c>
       <c r="G44" s="711">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="H44">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
       </c>
       <c r="I44">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>9</v>
       </c>
       <c r="J44" s="710">
-        <f t="shared" ca="1" si="5"/>
-        <v>1954</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1968</v>
       </c>
       <c r="L44" t="str">
-        <f ca="1">$A44&amp;L$1&amp;$C44&amp;L$1&amp;$E44&amp;L$1&amp;$F44&amp;L$1&amp;$H44&amp;"/"&amp;$I44&amp;"/"&amp;$J44</f>
-        <v>Kimberly,Lewis,Female,Ferrari_Red,3/4/1954</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>Kimberly,Lewis,Female,Ferrari_Red,9/9/1968</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="15.75" thickBot="1">
@@ -15354,14 +15403,14 @@
         <v>42</v>
       </c>
       <c r="B45" s="711">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="C45" t="s">
         <v>76</v>
       </c>
       <c r="D45" s="711">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E45" t="s">
@@ -15371,24 +15420,24 @@
         <v>2085</v>
       </c>
       <c r="G45" s="711">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="H45">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>10</v>
       </c>
       <c r="I45">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>24</v>
       </c>
       <c r="J45" s="710">
-        <f t="shared" ca="1" si="5"/>
-        <v>1958</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1951</v>
       </c>
       <c r="L45" t="str">
-        <f ca="1">$A45&amp;L$1&amp;$C45&amp;L$1&amp;$E45&amp;L$1&amp;$F45&amp;L$1&amp;$H45&amp;"/"&amp;$I45&amp;"/"&amp;$J45</f>
-        <v>Donna,Lee,Female,Field_drab,4/2/1958</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>Donna,Lee,Female,Field_drab,10/24/1951</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="15.75" thickBot="1">
@@ -15396,14 +15445,14 @@
         <v>44</v>
       </c>
       <c r="B46" s="711">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="C46" t="s">
         <v>77</v>
       </c>
       <c r="D46" s="711">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="E46" t="s">
@@ -15413,24 +15462,24 @@
         <v>2086</v>
       </c>
       <c r="G46" s="711">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="H46">
-        <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
       </c>
       <c r="I46">
-        <f t="shared" ca="1" si="4"/>
-        <v>24</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
       </c>
       <c r="J46" s="710">
-        <f t="shared" ca="1" si="5"/>
-        <v>1942</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1961</v>
       </c>
       <c r="L46" t="str">
-        <f ca="1">$A46&amp;L$1&amp;$C46&amp;L$1&amp;$E46&amp;L$1&amp;$F46&amp;L$1&amp;$H46&amp;"/"&amp;$I46&amp;"/"&amp;$J46</f>
-        <v>Carol,Walker,Female,Fire_engine_red,11/24/1942</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>Carol,Walker,Female,Fire_engine_red,2/5/1961</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="15.75" thickBot="1">
@@ -15438,14 +15487,14 @@
         <v>46</v>
       </c>
       <c r="B47" s="711">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="C47" t="s">
         <v>78</v>
       </c>
       <c r="D47" s="711">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="E47" t="s">
@@ -15455,24 +15504,24 @@
         <v>859</v>
       </c>
       <c r="G47" s="711">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="H47">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
       </c>
       <c r="I47">
-        <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>28</v>
       </c>
       <c r="J47" s="710">
-        <f t="shared" ca="1" si="5"/>
-        <v>1986</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1996</v>
       </c>
       <c r="L47" t="str">
-        <f ca="1">$A47&amp;L$1&amp;$C47&amp;L$1&amp;$E47&amp;L$1&amp;$F47&amp;L$1&amp;$H47&amp;"/"&amp;$I47&amp;"/"&amp;$J47</f>
-        <v>Michelle,Hall,Female,Firebrick,9/10/1986</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>Michelle,Hall,Female,Firebrick,4/28/1996</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="15.75" thickBot="1">
@@ -15480,14 +15529,14 @@
         <v>48</v>
       </c>
       <c r="B48" s="711">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="C48" t="s">
         <v>79</v>
       </c>
       <c r="D48" s="711">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="E48" t="s">
@@ -15497,24 +15546,24 @@
         <v>861</v>
       </c>
       <c r="G48" s="711">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="H48">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="I48">
         <f t="shared" ca="1" si="4"/>
         <v>12</v>
       </c>
+      <c r="I48">
+        <f t="shared" ca="1" si="5"/>
+        <v>24</v>
+      </c>
       <c r="J48" s="710">
-        <f t="shared" ca="1" si="5"/>
-        <v>1983</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1963</v>
       </c>
       <c r="L48" t="str">
-        <f ca="1">$A48&amp;L$1&amp;$C48&amp;L$1&amp;$E48&amp;L$1&amp;$F48&amp;L$1&amp;$H48&amp;"/"&amp;$I48&amp;"/"&amp;$J48</f>
-        <v>Emily,Allen,Female,Flame,7/12/1983</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>Emily,Allen,Female,Flame,12/24/1963</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="15.75" thickBot="1">
@@ -15522,14 +15571,14 @@
         <v>50</v>
       </c>
       <c r="B49" s="711">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="C49" t="s">
         <v>80</v>
       </c>
       <c r="D49" s="711">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="E49" t="s">
@@ -15539,24 +15588,24 @@
         <v>2087</v>
       </c>
       <c r="G49" s="711">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="H49">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
       </c>
       <c r="I49">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>11</v>
       </c>
       <c r="J49" s="710">
-        <f t="shared" ca="1" si="5"/>
-        <v>1968</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1972</v>
       </c>
       <c r="L49" t="str">
-        <f ca="1">$A49&amp;L$1&amp;$C49&amp;L$1&amp;$E49&amp;L$1&amp;$F49&amp;L$1&amp;$H49&amp;"/"&amp;$I49&amp;"/"&amp;$J49</f>
-        <v>Helen,Young,Female,Flamingo_pink,6/11/1968</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>Helen,Young,Female,Flamingo_pink,4/11/1972</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="15.75" thickBot="1">
@@ -15564,14 +15613,14 @@
         <v>52</v>
       </c>
       <c r="B50" s="711">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="C50" t="s">
         <v>81</v>
       </c>
       <c r="D50" s="711">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="E50" t="s">
@@ -15581,24 +15630,24 @@
         <v>867</v>
       </c>
       <c r="G50" s="711">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="H50">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
       <c r="I50">
-        <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>23</v>
       </c>
       <c r="J50" s="710">
-        <f t="shared" ca="1" si="5"/>
-        <v>1998</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2006</v>
       </c>
       <c r="L50" t="str">
-        <f ca="1">$A50&amp;L$1&amp;$C50&amp;L$1&amp;$E50&amp;L$1&amp;$F50&amp;L$1&amp;$H50&amp;"/"&amp;$I50&amp;"/"&amp;$J50</f>
-        <v>Amanda,Hernandez,Female,Flavescent,2/8/1998</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>Amanda,Hernandez,Female,Flavescent,2/23/2006</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -15606,14 +15655,14 @@
         <v>5</v>
       </c>
       <c r="B51" s="711">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="C51" t="s">
         <v>101</v>
       </c>
       <c r="D51" s="711">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="E51" t="s">
@@ -15623,24 +15672,24 @@
         <v>870</v>
       </c>
       <c r="G51" s="711">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="H51">
-        <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
       </c>
       <c r="I51">
-        <f t="shared" ca="1" si="4"/>
-        <v>12</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>14</v>
       </c>
       <c r="J51" s="710">
-        <f t="shared" ca="1" si="5"/>
-        <v>1993</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2002</v>
       </c>
       <c r="L51" t="str">
-        <f ca="1">$A51&amp;L$1&amp;$C51&amp;L$1&amp;$E51&amp;L$1&amp;$F51&amp;L$1&amp;$H51&amp;"/"&amp;$I51&amp;"/"&amp;$J51</f>
-        <v>James,Nelson,Male,Flax,12/12/1993</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>James,Nelson,Male,Flax,5/14/2002</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -15648,14 +15697,14 @@
         <v>7</v>
       </c>
       <c r="B52" s="711">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C52" t="s">
         <v>102</v>
       </c>
       <c r="D52" s="711">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="E52" t="s">
@@ -15665,24 +15714,24 @@
         <v>2088</v>
       </c>
       <c r="G52" s="711">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="H52">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
       </c>
       <c r="I52">
-        <f t="shared" ca="1" si="4"/>
-        <v>20</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>14</v>
       </c>
       <c r="J52" s="710">
-        <f t="shared" ca="1" si="5"/>
-        <v>1942</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1999</v>
       </c>
       <c r="L52" t="str">
-        <f ca="1">$A52&amp;L$1&amp;$C52&amp;L$1&amp;$E52&amp;L$1&amp;$F52&amp;L$1&amp;$H52&amp;"/"&amp;$I52&amp;"/"&amp;$J52</f>
-        <v>John,Carter,Male,Floral_white,4/20/1942</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>John,Carter,Male,Floral_white,8/14/1999</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -15690,14 +15739,14 @@
         <v>9</v>
       </c>
       <c r="B53" s="711">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="C53" t="s">
         <v>103</v>
       </c>
       <c r="D53" s="711">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="E53" t="s">
@@ -15707,24 +15756,24 @@
         <v>2089</v>
       </c>
       <c r="G53" s="711">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="H53">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
       </c>
       <c r="I53">
-        <f t="shared" ca="1" si="4"/>
-        <v>27</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>12</v>
       </c>
       <c r="J53" s="710">
-        <f t="shared" ca="1" si="5"/>
-        <v>2002</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1971</v>
       </c>
       <c r="L53" t="str">
-        <f ca="1">$A53&amp;L$1&amp;$C53&amp;L$1&amp;$E53&amp;L$1&amp;$F53&amp;L$1&amp;$H53&amp;"/"&amp;$I53&amp;"/"&amp;$J53</f>
-        <v>Robert,Mitchell,Male,Fluorescent_orange,8/27/2002</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>Robert,Mitchell,Male,Fluorescent_orange,4/12/1971</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -15732,14 +15781,14 @@
         <v>11</v>
       </c>
       <c r="B54" s="711">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="C54" t="s">
         <v>104</v>
       </c>
       <c r="D54" s="711">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="E54" t="s">
@@ -15749,24 +15798,24 @@
         <v>2090</v>
       </c>
       <c r="G54" s="711">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="H54">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>5</v>
       </c>
       <c r="I54">
-        <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7</v>
       </c>
       <c r="J54" s="710">
-        <f t="shared" ca="1" si="5"/>
-        <v>2003</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1964</v>
       </c>
       <c r="L54" t="str">
-        <f ca="1">$A54&amp;L$1&amp;$C54&amp;L$1&amp;$E54&amp;L$1&amp;$F54&amp;L$1&amp;$H54&amp;"/"&amp;$I54&amp;"/"&amp;$J54</f>
-        <v>Michael,Perez,Male,Fluorescent_pink,5/8/2003</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>Michael,Perez,Male,Fluorescent_pink,5/7/1964</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -15774,14 +15823,14 @@
         <v>13</v>
       </c>
       <c r="B55" s="711">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="C55" t="s">
         <v>105</v>
       </c>
       <c r="D55" s="711">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="E55" t="s">
@@ -15791,24 +15840,24 @@
         <v>2091</v>
       </c>
       <c r="G55" s="711">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="H55">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>5</v>
       </c>
       <c r="I55">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>21</v>
       </c>
       <c r="J55" s="710">
-        <f t="shared" ca="1" si="5"/>
-        <v>1980</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1981</v>
       </c>
       <c r="L55" t="str">
-        <f ca="1">$A55&amp;L$1&amp;$C55&amp;L$1&amp;$E55&amp;L$1&amp;$F55&amp;L$1&amp;$H55&amp;"/"&amp;$I55&amp;"/"&amp;$J55</f>
-        <v>William,Roberts,Male,Fluorescent_yellow,5/4/1980</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>William,Roberts,Male,Fluorescent_yellow,5/21/1981</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -15816,14 +15865,14 @@
         <v>15</v>
       </c>
       <c r="B56" s="711">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="C56" t="s">
         <v>106</v>
       </c>
       <c r="D56" s="711">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="E56" t="s">
@@ -15833,24 +15882,24 @@
         <v>878</v>
       </c>
       <c r="G56" s="711">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="H56">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
       </c>
       <c r="I56">
-        <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
       <c r="J56" s="710">
-        <f t="shared" ca="1" si="5"/>
-        <v>2006</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2007</v>
       </c>
       <c r="L56" t="str">
-        <f ca="1">$A56&amp;L$1&amp;$C56&amp;L$1&amp;$E56&amp;L$1&amp;$F56&amp;L$1&amp;$H56&amp;"/"&amp;$I56&amp;"/"&amp;$J56</f>
-        <v>David,Turner,Male,Folly,6/7/2006</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>David,Turner,Male,Folly,2/3/2007</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -15858,14 +15907,14 @@
         <v>17</v>
       </c>
       <c r="B57" s="711">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="C57" t="s">
         <v>107</v>
       </c>
       <c r="D57" s="711">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="E57" t="s">
@@ -15875,24 +15924,24 @@
         <v>2092</v>
       </c>
       <c r="G57" s="711">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="H57">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="I57">
         <f t="shared" ca="1" si="4"/>
         <v>7</v>
       </c>
+      <c r="I57">
+        <f t="shared" ca="1" si="5"/>
+        <v>23</v>
+      </c>
       <c r="J57" s="710">
-        <f t="shared" ca="1" si="5"/>
-        <v>1958</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1982</v>
       </c>
       <c r="L57" t="str">
-        <f ca="1">$A57&amp;L$1&amp;$C57&amp;L$1&amp;$E57&amp;L$1&amp;$F57&amp;L$1&amp;$H57&amp;"/"&amp;$I57&amp;"/"&amp;$J57</f>
-        <v>Richard,Phillips,Male,Forest_green,7/7/1958</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>Richard,Phillips,Male,Forest_green,7/23/1982</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -15900,14 +15949,14 @@
         <v>19</v>
       </c>
       <c r="B58" s="711">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="C58" t="s">
         <v>108</v>
       </c>
       <c r="D58" s="711">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="E58" t="s">
@@ -15917,24 +15966,24 @@
         <v>2093</v>
       </c>
       <c r="G58" s="711">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="H58">
-        <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
       </c>
       <c r="I58">
-        <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
       </c>
       <c r="J58" s="710">
-        <f t="shared" ca="1" si="5"/>
-        <v>1945</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1953</v>
       </c>
       <c r="L58" t="str">
-        <f ca="1">$A58&amp;L$1&amp;$C58&amp;L$1&amp;$E58&amp;L$1&amp;$F58&amp;L$1&amp;$H58&amp;"/"&amp;$I58&amp;"/"&amp;$J58</f>
-        <v>Joseph,Campbell,Male,French_beige,10/6/1945</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>Joseph,Campbell,Male,French_beige,3/4/1953</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -15942,14 +15991,14 @@
         <v>21</v>
       </c>
       <c r="B59" s="711">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="C59" t="s">
         <v>109</v>
       </c>
       <c r="D59" s="711">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="E59" t="s">
@@ -15959,24 +16008,24 @@
         <v>2094</v>
       </c>
       <c r="G59" s="711">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="H59">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>11</v>
       </c>
       <c r="I59">
-        <f t="shared" ca="1" si="4"/>
-        <v>17</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>9</v>
       </c>
       <c r="J59" s="710">
-        <f t="shared" ca="1" si="5"/>
-        <v>1963</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1973</v>
       </c>
       <c r="L59" t="str">
-        <f ca="1">$A59&amp;L$1&amp;$C59&amp;L$1&amp;$E59&amp;L$1&amp;$F59&amp;L$1&amp;$H59&amp;"/"&amp;$I59&amp;"/"&amp;$J59</f>
-        <v>Thomas,Parker,Male,French_blue,7/17/1963</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>Thomas,Parker,Male,French_blue,11/9/1973</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -15984,14 +16033,14 @@
         <v>23</v>
       </c>
       <c r="B60" s="711">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="C60" t="s">
         <v>110</v>
       </c>
       <c r="D60" s="711">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="E60" t="s">
@@ -16001,24 +16050,24 @@
         <v>2095</v>
       </c>
       <c r="G60" s="711">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="H60">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
       </c>
       <c r="I60">
-        <f t="shared" ca="1" si="4"/>
-        <v>27</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>22</v>
       </c>
       <c r="J60" s="710">
-        <f t="shared" ca="1" si="5"/>
-        <v>1969</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2005</v>
       </c>
       <c r="L60" t="str">
-        <f ca="1">$A60&amp;L$1&amp;$C60&amp;L$1&amp;$E60&amp;L$1&amp;$F60&amp;L$1&amp;$H60&amp;"/"&amp;$I60&amp;"/"&amp;$J60</f>
-        <v>Charles,Evans,Male,French_lilac,3/27/1969</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>Charles,Evans,Male,French_lilac,4/22/2005</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -16026,14 +16075,14 @@
         <v>25</v>
       </c>
       <c r="B61" s="711">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="C61" t="s">
         <v>111</v>
       </c>
       <c r="D61" s="711">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="E61" t="s">
@@ -16043,24 +16092,24 @@
         <v>2096</v>
       </c>
       <c r="G61" s="711">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="H61">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>12</v>
       </c>
       <c r="I61">
-        <f t="shared" ca="1" si="4"/>
-        <v>19</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>18</v>
       </c>
       <c r="J61" s="710">
-        <f t="shared" ca="1" si="5"/>
-        <v>1969</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1998</v>
       </c>
       <c r="L61" t="str">
-        <f ca="1">$A61&amp;L$1&amp;$C61&amp;L$1&amp;$E61&amp;L$1&amp;$F61&amp;L$1&amp;$H61&amp;"/"&amp;$I61&amp;"/"&amp;$J61</f>
-        <v>Christopher,Edwards,Male,Mango_Tango,4/19/1969</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>Christopher,Edwards,Male,Mango_Tango,12/18/1998</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -16068,14 +16117,14 @@
         <v>27</v>
       </c>
       <c r="B62" s="711">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="C62" t="s">
         <v>112</v>
       </c>
       <c r="D62" s="711">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="E62" t="s">
@@ -16085,24 +16134,24 @@
         <v>1199</v>
       </c>
       <c r="G62" s="711">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="H62">
-        <f t="shared" ca="1" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="I62">
         <f t="shared" ca="1" si="4"/>
         <v>4</v>
       </c>
+      <c r="I62">
+        <f t="shared" ca="1" si="5"/>
+        <v>16</v>
+      </c>
       <c r="J62" s="710">
-        <f t="shared" ca="1" si="5"/>
-        <v>1955</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1996</v>
       </c>
       <c r="L62" t="str">
-        <f ca="1">$A62&amp;L$1&amp;$C62&amp;L$1&amp;$E62&amp;L$1&amp;$F62&amp;L$1&amp;$H62&amp;"/"&amp;$I62&amp;"/"&amp;$J62</f>
-        <v>Daniel,Collins,Male,Mantis,10/4/1955</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>Daniel,Collins,Male,Mantis,4/16/1996</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -16110,14 +16159,14 @@
         <v>29</v>
       </c>
       <c r="B63" s="711">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="C63" t="s">
         <v>113</v>
       </c>
       <c r="D63" s="711">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="E63" t="s">
@@ -16127,24 +16176,24 @@
         <v>1202</v>
       </c>
       <c r="G63" s="711">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="H63">
-        <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
       </c>
       <c r="I63">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
       </c>
       <c r="J63" s="710">
-        <f t="shared" ca="1" si="5"/>
-        <v>1983</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1945</v>
       </c>
       <c r="L63" t="str">
-        <f ca="1">$A63&amp;L$1&amp;$C63&amp;L$1&amp;$E63&amp;L$1&amp;$F63&amp;L$1&amp;$H63&amp;"/"&amp;$I63&amp;"/"&amp;$J63</f>
-        <v>Matthew,Stewart,Male,Maroon,12/3/1983</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>Matthew,Stewart,Male,Maroon,5/5/1945</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -16152,14 +16201,14 @@
         <v>31</v>
       </c>
       <c r="B64" s="711">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="C64" t="s">
         <v>114</v>
       </c>
       <c r="D64" s="711">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="E64" t="s">
@@ -16169,24 +16218,24 @@
         <v>100</v>
       </c>
       <c r="G64" s="711">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="H64">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
       </c>
       <c r="I64">
-        <f t="shared" ca="1" si="4"/>
-        <v>15</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>18</v>
       </c>
       <c r="J64" s="710">
-        <f t="shared" ca="1" si="5"/>
-        <v>1966</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1995</v>
       </c>
       <c r="L64" t="str">
-        <f ca="1">$A64&amp;L$1&amp;$C64&amp;L$1&amp;$E64&amp;L$1&amp;$F64&amp;L$1&amp;$H64&amp;"/"&amp;$I64&amp;"/"&amp;$J64</f>
-        <v>Anthony,Sanchez,Male,Mauve,8/15/1966</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>Anthony,Sanchez,Male,Mauve,2/18/1995</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -16194,14 +16243,14 @@
         <v>33</v>
       </c>
       <c r="B65" s="711">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="C65" t="s">
         <v>115</v>
       </c>
       <c r="D65" s="711">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="E65" t="s">
@@ -16211,24 +16260,24 @@
         <v>2097</v>
       </c>
       <c r="G65" s="711">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="H65">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
       </c>
       <c r="I65">
-        <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>26</v>
       </c>
       <c r="J65" s="710">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>2014</v>
       </c>
       <c r="L65" t="str">
-        <f ca="1">$A65&amp;L$1&amp;$C65&amp;L$1&amp;$E65&amp;L$1&amp;$F65&amp;L$1&amp;$H65&amp;"/"&amp;$I65&amp;"/"&amp;$J65</f>
-        <v>Donald,Morris,Male,Mauve_taupe,6/9/2014</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>Donald,Morris,Male,Mauve_taupe,7/26/2014</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -16236,14 +16285,14 @@
         <v>35</v>
       </c>
       <c r="B66" s="711">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C66" t="s">
         <v>116</v>
       </c>
       <c r="D66" s="711">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="E66" t="s">
@@ -16253,24 +16302,24 @@
         <v>1209</v>
       </c>
       <c r="G66" s="711">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="H66">
-        <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
       </c>
       <c r="I66">
-        <f t="shared" ca="1" si="4"/>
-        <v>25</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>18</v>
       </c>
       <c r="J66" s="710">
-        <f t="shared" ca="1" si="5"/>
-        <v>1990</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1968</v>
       </c>
       <c r="L66" t="str">
-        <f ca="1">$A66&amp;L$1&amp;$C66&amp;L$1&amp;$E66&amp;L$1&amp;$F66&amp;L$1&amp;$H66&amp;"/"&amp;$I66&amp;"/"&amp;$J66</f>
-        <v>Mark,Rogers,Male,Mauvelous,11/25/1990</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>Mark,Rogers,Male,Mauvelous,9/18/1968</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -16278,14 +16327,14 @@
         <v>37</v>
       </c>
       <c r="B67" s="711">
-        <f t="shared" ref="B67:B130" si="6">LEN(A67)</f>
+        <f t="shared" ref="B67:B130" si="10">LEN(A67)</f>
         <v>4</v>
       </c>
       <c r="C67" t="s">
         <v>117</v>
       </c>
       <c r="D67" s="711">
-        <f t="shared" ref="D67:D130" si="7">LEN(C67)</f>
+        <f t="shared" ref="D67:D130" si="11">LEN(C67)</f>
         <v>4</v>
       </c>
       <c r="E67" t="s">
@@ -16295,24 +16344,24 @@
         <v>2098</v>
       </c>
       <c r="G67" s="711">
-        <f t="shared" ref="G67:G130" si="8">LEN(F67)</f>
+        <f t="shared" ref="G67:G130" si="12">LEN(F67)</f>
         <v>9</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:H130" ca="1" si="9" xml:space="preserve"> _xlfn.CEILING.MATH(RAND()*11 + 1)</f>
-        <v>8</v>
+        <f t="shared" ref="H67:H130" ca="1" si="13" xml:space="preserve"> _xlfn.CEILING.MATH(RAND()*11 + 1)</f>
+        <v>9</v>
       </c>
       <c r="I67">
-        <f t="shared" ref="I67:I130" ca="1" si="10" xml:space="preserve"> _xlfn.CEILING.MATH(RAND()*27 + 1)</f>
-        <v>3</v>
+        <f t="shared" ref="I67:I130" ca="1" si="14" xml:space="preserve"> _xlfn.CEILING.MATH(RAND()*27 + 1)</f>
+        <v>21</v>
       </c>
       <c r="J67" s="710">
-        <f t="shared" ref="J67:J130" ca="1" si="11">_xlfn.CEILING.MATH(RAND()*75 + 1940)</f>
-        <v>1956</v>
+        <f t="shared" ref="J67:J130" ca="1" si="15">_xlfn.CEILING.MATH(RAND()*75 + 1940)</f>
+        <v>1949</v>
       </c>
       <c r="L67" t="str">
-        <f ca="1">$A67&amp;L$1&amp;$C67&amp;L$1&amp;$E67&amp;L$1&amp;$F67&amp;L$1&amp;$H67&amp;"/"&amp;$I67&amp;"/"&amp;$J67</f>
-        <v>Paul,Reed,Male,Maya_blue,8/3/1956</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>Paul,Reed,Male,Maya_blue,9/21/1949</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -16320,14 +16369,14 @@
         <v>39</v>
       </c>
       <c r="B68" s="711">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="C68" t="s">
         <v>118</v>
       </c>
       <c r="D68" s="711">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="E68" t="s">
@@ -16337,24 +16386,24 @@
         <v>2099</v>
       </c>
       <c r="G68" s="711">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="H68">
+        <f t="shared" ca="1" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="I68">
+        <f t="shared" ca="1" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="J68" s="710">
+        <f t="shared" ca="1" si="15"/>
+        <v>1978</v>
+      </c>
+      <c r="L68" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
-      </c>
-      <c r="I68">
-        <f t="shared" ca="1" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="J68" s="710">
-        <f t="shared" ca="1" si="11"/>
-        <v>2012</v>
-      </c>
-      <c r="L68" t="str">
-        <f ca="1">$A68&amp;L$1&amp;$C68&amp;L$1&amp;$E68&amp;L$1&amp;$F68&amp;L$1&amp;$H68&amp;"/"&amp;$I68&amp;"/"&amp;$J68</f>
-        <v>Steven,Cook,Male,Meat_brown,6/5/2012</v>
+        <v>Steven,Cook,Male,Meat_brown,5/4/1978</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -16362,14 +16411,14 @@
         <v>41</v>
       </c>
       <c r="B69" s="711">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="C69" t="s">
         <v>119</v>
       </c>
       <c r="D69" s="711">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="E69" t="s">
@@ -16379,24 +16428,24 @@
         <v>2100</v>
       </c>
       <c r="G69" s="711">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>17</v>
       </c>
       <c r="H69">
+        <f t="shared" ca="1" si="13"/>
+        <v>11</v>
+      </c>
+      <c r="I69">
+        <f t="shared" ca="1" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="J69" s="710">
+        <f t="shared" ca="1" si="15"/>
+        <v>1950</v>
+      </c>
+      <c r="L69" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>11</v>
-      </c>
-      <c r="I69">
-        <f t="shared" ca="1" si="10"/>
-        <v>9</v>
-      </c>
-      <c r="J69" s="710">
-        <f t="shared" ca="1" si="11"/>
-        <v>1977</v>
-      </c>
-      <c r="L69" t="str">
-        <f ca="1">$A69&amp;L$1&amp;$C69&amp;L$1&amp;$E69&amp;L$1&amp;$F69&amp;L$1&amp;$H69&amp;"/"&amp;$I69&amp;"/"&amp;$J69</f>
-        <v>George,Morgan,Male,Medium_aquamarine,11/9/1977</v>
+        <v>George,Morgan,Male,Medium_aquamarine,11/9/1950</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -16404,14 +16453,14 @@
         <v>43</v>
       </c>
       <c r="B70" s="711">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="C70" t="s">
         <v>120</v>
       </c>
       <c r="D70" s="711">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="E70" t="s">
@@ -16421,24 +16470,24 @@
         <v>2101</v>
       </c>
       <c r="G70" s="711">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
       <c r="H70">
+        <f t="shared" ca="1" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="I70">
+        <f t="shared" ca="1" si="14"/>
+        <v>11</v>
+      </c>
+      <c r="J70" s="710">
+        <f t="shared" ca="1" si="15"/>
+        <v>1971</v>
+      </c>
+      <c r="L70" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>9</v>
-      </c>
-      <c r="I70">
-        <f t="shared" ca="1" si="10"/>
-        <v>15</v>
-      </c>
-      <c r="J70" s="710">
-        <f t="shared" ca="1" si="11"/>
-        <v>1999</v>
-      </c>
-      <c r="L70" t="str">
-        <f ca="1">$A70&amp;L$1&amp;$C70&amp;L$1&amp;$E70&amp;L$1&amp;$F70&amp;L$1&amp;$H70&amp;"/"&amp;$I70&amp;"/"&amp;$J70</f>
-        <v>Kenneth,Bell,Male,Medium_blue,9/15/1999</v>
+        <v>Kenneth,Bell,Male,Medium_blue,8/11/1971</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -16446,14 +16495,14 @@
         <v>45</v>
       </c>
       <c r="B71" s="711">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="C71" t="s">
         <v>121</v>
       </c>
       <c r="D71" s="711">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="E71" t="s">
@@ -16463,24 +16512,24 @@
         <v>2102</v>
       </c>
       <c r="G71" s="711">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>22</v>
       </c>
       <c r="H71">
+        <f t="shared" ca="1" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="I71">
+        <f t="shared" ca="1" si="14"/>
+        <v>21</v>
+      </c>
+      <c r="J71" s="710">
+        <f t="shared" ca="1" si="15"/>
+        <v>1985</v>
+      </c>
+      <c r="L71" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="I71">
-        <f t="shared" ca="1" si="10"/>
-        <v>12</v>
-      </c>
-      <c r="J71" s="710">
-        <f t="shared" ca="1" si="11"/>
-        <v>1994</v>
-      </c>
-      <c r="L71" t="str">
-        <f ca="1">$A71&amp;L$1&amp;$C71&amp;L$1&amp;$E71&amp;L$1&amp;$F71&amp;L$1&amp;$H71&amp;"/"&amp;$I71&amp;"/"&amp;$J71</f>
-        <v>Andrew,Murphy,Male,Medium_candy_apple_red,2/12/1994</v>
+        <v>Andrew,Murphy,Male,Medium_candy_apple_red,9/21/1985</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -16488,14 +16537,14 @@
         <v>47</v>
       </c>
       <c r="B72" s="711">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="C72" t="s">
         <v>122</v>
       </c>
       <c r="D72" s="711">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="E72" t="s">
@@ -16505,24 +16554,24 @@
         <v>2103</v>
       </c>
       <c r="G72" s="711">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="H72">
+        <f t="shared" ca="1" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="I72">
+        <f t="shared" ca="1" si="14"/>
+        <v>19</v>
+      </c>
+      <c r="J72" s="710">
+        <f t="shared" ca="1" si="15"/>
+        <v>1987</v>
+      </c>
+      <c r="L72" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
-      </c>
-      <c r="I72">
-        <f t="shared" ca="1" si="10"/>
-        <v>22</v>
-      </c>
-      <c r="J72" s="710">
-        <f t="shared" ca="1" si="11"/>
-        <v>2006</v>
-      </c>
-      <c r="L72" t="str">
-        <f ca="1">$A72&amp;L$1&amp;$C72&amp;L$1&amp;$E72&amp;L$1&amp;$F72&amp;L$1&amp;$H72&amp;"/"&amp;$I72&amp;"/"&amp;$J72</f>
-        <v>Joshua,Bailey,Male,Medium_carmine,7/22/2006</v>
+        <v>Joshua,Bailey,Male,Medium_carmine,5/19/1987</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -16530,14 +16579,14 @@
         <v>49</v>
       </c>
       <c r="B73" s="711">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="C73" t="s">
         <v>123</v>
       </c>
       <c r="D73" s="711">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="E73" t="s">
@@ -16547,24 +16596,24 @@
         <v>2104</v>
       </c>
       <c r="G73" s="711">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="H73">
+        <f t="shared" ca="1" si="13"/>
+        <v>11</v>
+      </c>
+      <c r="I73">
+        <f t="shared" ca="1" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="J73" s="710">
+        <f t="shared" ca="1" si="15"/>
+        <v>2009</v>
+      </c>
+      <c r="L73" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="I73">
-        <f t="shared" ca="1" si="10"/>
-        <v>18</v>
-      </c>
-      <c r="J73" s="710">
-        <f t="shared" ca="1" si="11"/>
-        <v>2001</v>
-      </c>
-      <c r="L73" t="str">
-        <f ca="1">$A73&amp;L$1&amp;$C73&amp;L$1&amp;$E73&amp;L$1&amp;$F73&amp;L$1&amp;$H73&amp;"/"&amp;$I73&amp;"/"&amp;$J73</f>
-        <v>Edward,Rivera,Male,Medium_champagne,2/18/2001</v>
+        <v>Edward,Rivera,Male,Medium_champagne,11/3/2009</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -16572,14 +16621,14 @@
         <v>51</v>
       </c>
       <c r="B74" s="711">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="C74" t="s">
         <v>124</v>
       </c>
       <c r="D74" s="711">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="E74" t="s">
@@ -16589,24 +16638,24 @@
         <v>2105</v>
       </c>
       <c r="G74" s="711">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="H74">
+        <f t="shared" ca="1" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="I74">
+        <f t="shared" ca="1" si="14"/>
+        <v>24</v>
+      </c>
+      <c r="J74" s="710">
+        <f t="shared" ca="1" si="15"/>
+        <v>1988</v>
+      </c>
+      <c r="L74" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>9</v>
-      </c>
-      <c r="I74">
-        <f t="shared" ca="1" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="J74" s="710">
-        <f t="shared" ca="1" si="11"/>
-        <v>1968</v>
-      </c>
-      <c r="L74" t="str">
-        <f ca="1">$A74&amp;L$1&amp;$C74&amp;L$1&amp;$E74&amp;L$1&amp;$F74&amp;L$1&amp;$H74&amp;"/"&amp;$I74&amp;"/"&amp;$J74</f>
-        <v>Brian,Cooper,Male,Medium_electric_blue,9/3/1968</v>
+        <v>Brian,Cooper,Male,Medium_electric_blue,8/24/1988</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -16614,14 +16663,14 @@
         <v>53</v>
       </c>
       <c r="B75" s="711">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="C75" t="s">
         <v>125</v>
       </c>
       <c r="D75" s="711">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="E75" t="s">
@@ -16631,24 +16680,24 @@
         <v>2106</v>
       </c>
       <c r="G75" s="711">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>19</v>
       </c>
       <c r="H75">
+        <f t="shared" ca="1" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="I75">
+        <f t="shared" ca="1" si="14"/>
+        <v>19</v>
+      </c>
+      <c r="J75" s="710">
+        <f t="shared" ca="1" si="15"/>
+        <v>1998</v>
+      </c>
+      <c r="L75" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
-      </c>
-      <c r="I75">
-        <f t="shared" ca="1" si="10"/>
-        <v>25</v>
-      </c>
-      <c r="J75" s="710">
-        <f t="shared" ca="1" si="11"/>
-        <v>2000</v>
-      </c>
-      <c r="L75" t="str">
-        <f ca="1">$A75&amp;L$1&amp;$C75&amp;L$1&amp;$E75&amp;L$1&amp;$F75&amp;L$1&amp;$H75&amp;"/"&amp;$I75&amp;"/"&amp;$J75</f>
-        <v>Kevin,Richardson,Male,Medium_jungle_green,8/25/2000</v>
+        <v>Kevin,Richardson,Male,Medium_jungle_green,9/19/1998</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -16656,14 +16705,14 @@
         <v>5</v>
       </c>
       <c r="B76" s="711">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="C76" t="s">
         <v>126</v>
       </c>
       <c r="D76" s="711">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="E76" t="s">
@@ -16673,24 +16722,24 @@
         <v>2107</v>
       </c>
       <c r="G76" s="711">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>23</v>
       </c>
       <c r="H76">
+        <f t="shared" ca="1" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="I76">
+        <f t="shared" ca="1" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="J76" s="710">
+        <f t="shared" ca="1" si="15"/>
+        <v>2007</v>
+      </c>
+      <c r="L76" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>12</v>
-      </c>
-      <c r="I76">
-        <f t="shared" ca="1" si="10"/>
-        <v>13</v>
-      </c>
-      <c r="J76" s="710">
-        <f t="shared" ca="1" si="11"/>
-        <v>1944</v>
-      </c>
-      <c r="L76" t="str">
-        <f ca="1">$A76&amp;L$1&amp;$C76&amp;L$1&amp;$E76&amp;L$1&amp;$F76&amp;L$1&amp;$H76&amp;"/"&amp;$I76&amp;"/"&amp;$J76</f>
-        <v>James,Cox,Male,Medium_lavender_magenta,12/13/1944</v>
+        <v>James,Cox,Male,Medium_lavender_magenta,5/8/2007</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -16698,14 +16747,14 @@
         <v>7</v>
       </c>
       <c r="B77" s="711">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="C77" t="s">
         <v>127</v>
       </c>
       <c r="D77" s="711">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="E77" t="s">
@@ -16715,24 +16764,24 @@
         <v>2108</v>
       </c>
       <c r="G77" s="711">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="H77">
+        <f t="shared" ca="1" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="I77">
+        <f t="shared" ca="1" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="J77" s="710">
+        <f t="shared" ca="1" si="15"/>
+        <v>1984</v>
+      </c>
+      <c r="L77" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="I77">
-        <f t="shared" ca="1" si="10"/>
-        <v>21</v>
-      </c>
-      <c r="J77" s="710">
-        <f t="shared" ca="1" si="11"/>
-        <v>1983</v>
-      </c>
-      <c r="L77" t="str">
-        <f ca="1">$A77&amp;L$1&amp;$C77&amp;L$1&amp;$E77&amp;L$1&amp;$F77&amp;L$1&amp;$H77&amp;"/"&amp;$I77&amp;"/"&amp;$J77</f>
-        <v>John,Howard,Male,Medium_orchid,4/21/1983</v>
+        <v>John,Howard,Male,Medium_orchid,8/6/1984</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -16740,14 +16789,14 @@
         <v>9</v>
       </c>
       <c r="B78" s="711">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="C78" t="s">
         <v>128</v>
       </c>
       <c r="D78" s="711">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="E78" t="s">
@@ -16757,24 +16806,24 @@
         <v>2109</v>
       </c>
       <c r="G78" s="711">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>19</v>
       </c>
       <c r="H78">
+        <f t="shared" ca="1" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="I78">
+        <f t="shared" ca="1" si="14"/>
+        <v>19</v>
+      </c>
+      <c r="J78" s="710">
+        <f t="shared" ca="1" si="15"/>
+        <v>2011</v>
+      </c>
+      <c r="L78" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>11</v>
-      </c>
-      <c r="I78">
-        <f t="shared" ca="1" si="10"/>
-        <v>19</v>
-      </c>
-      <c r="J78" s="710">
-        <f t="shared" ca="1" si="11"/>
-        <v>1999</v>
-      </c>
-      <c r="L78" t="str">
-        <f ca="1">$A78&amp;L$1&amp;$C78&amp;L$1&amp;$E78&amp;L$1&amp;$F78&amp;L$1&amp;$H78&amp;"/"&amp;$I78&amp;"/"&amp;$J78</f>
-        <v>Robert,Ward,Male,Medium_Persian_blue,11/19/1999</v>
+        <v>Robert,Ward,Male,Medium_Persian_blue,5/19/2011</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -16782,14 +16831,14 @@
         <v>11</v>
       </c>
       <c r="B79" s="711">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="C79" t="s">
         <v>129</v>
       </c>
       <c r="D79" s="711">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="E79" t="s">
@@ -16799,24 +16848,24 @@
         <v>2110</v>
       </c>
       <c r="G79" s="711">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="H79">
+        <f t="shared" ca="1" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="I79">
+        <f t="shared" ca="1" si="14"/>
+        <v>16</v>
+      </c>
+      <c r="J79" s="710">
+        <f t="shared" ca="1" si="15"/>
+        <v>1965</v>
+      </c>
+      <c r="L79" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>12</v>
-      </c>
-      <c r="I79">
-        <f t="shared" ca="1" si="10"/>
-        <v>15</v>
-      </c>
-      <c r="J79" s="710">
-        <f t="shared" ca="1" si="11"/>
-        <v>1958</v>
-      </c>
-      <c r="L79" t="str">
-        <f ca="1">$A79&amp;L$1&amp;$C79&amp;L$1&amp;$E79&amp;L$1&amp;$F79&amp;L$1&amp;$H79&amp;"/"&amp;$I79&amp;"/"&amp;$J79</f>
-        <v>Michael,Torres,Male,Medium_purple,12/15/1958</v>
+        <v>Michael,Torres,Male,Medium_purple,7/16/1965</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -16824,14 +16873,14 @@
         <v>13</v>
       </c>
       <c r="B80" s="711">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="C80" t="s">
         <v>130</v>
       </c>
       <c r="D80" s="711">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="E80" t="s">
@@ -16841,24 +16890,24 @@
         <v>2111</v>
       </c>
       <c r="G80" s="711">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>17</v>
       </c>
       <c r="H80">
-        <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>6</v>
       </c>
       <c r="I80">
-        <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>24</v>
       </c>
       <c r="J80" s="710">
-        <f t="shared" ca="1" si="11"/>
-        <v>2001</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1956</v>
       </c>
       <c r="M80" t="str">
         <f ca="1">$A80&amp;M$1&amp;$C80&amp;M$1&amp;$E80&amp;M$1&amp;$F80&amp;M$1&amp;$H80&amp;"/"&amp;$I80&amp;"/"&amp;$J80</f>
-        <v>William Peterson Male Medium_red_violet 7/5/2001</v>
+        <v>William Peterson Male Medium_red_violet 6/24/1956</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -16866,14 +16915,14 @@
         <v>15</v>
       </c>
       <c r="B81" s="711">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="C81" t="s">
         <v>131</v>
       </c>
       <c r="D81" s="711">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="E81" t="s">
@@ -16883,24 +16932,24 @@
         <v>2112</v>
       </c>
       <c r="G81" s="711">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="H81">
-        <f t="shared" ca="1" si="9"/>
-        <v>12</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>10</v>
       </c>
       <c r="I81">
-        <f t="shared" ca="1" si="10"/>
-        <v>14</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>13</v>
       </c>
       <c r="J81" s="710">
-        <f t="shared" ca="1" si="11"/>
-        <v>1961</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1990</v>
       </c>
       <c r="M81" t="str">
         <f ca="1">$A81&amp;M$1&amp;$C81&amp;M$1&amp;$E81&amp;M$1&amp;$F81&amp;M$1&amp;$H81&amp;"/"&amp;$I81&amp;"/"&amp;$J81</f>
-        <v>David Gray Male Medium_sea_green 12/14/1961</v>
+        <v>David Gray Male Medium_sea_green 10/13/1990</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -16908,14 +16957,14 @@
         <v>17</v>
       </c>
       <c r="B82" s="711">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="C82" t="s">
         <v>132</v>
       </c>
       <c r="D82" s="711">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="E82" t="s">
@@ -16925,24 +16974,24 @@
         <v>2113</v>
       </c>
       <c r="G82" s="711">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>17</v>
       </c>
       <c r="H82">
-        <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>10</v>
       </c>
       <c r="I82">
-        <f t="shared" ca="1" si="10"/>
-        <v>21</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>28</v>
       </c>
       <c r="J82" s="710">
-        <f t="shared" ca="1" si="11"/>
-        <v>1999</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1941</v>
       </c>
       <c r="M82" t="str">
-        <f t="shared" ref="M82:M135" ca="1" si="12">$A82&amp;M$1&amp;$C82&amp;M$1&amp;$E82&amp;M$1&amp;$F82&amp;M$1&amp;$H82&amp;"/"&amp;$I82&amp;"/"&amp;$J82</f>
-        <v>Richard Ramirez Male Medium_slate_blue 7/21/1999</v>
+        <f t="shared" ref="M82:M135" ca="1" si="16">$A82&amp;M$1&amp;$C82&amp;M$1&amp;$E82&amp;M$1&amp;$F82&amp;M$1&amp;$H82&amp;"/"&amp;$I82&amp;"/"&amp;$J82</f>
+        <v>Richard Ramirez Male Medium_slate_blue 10/28/1941</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -16950,14 +16999,14 @@
         <v>19</v>
       </c>
       <c r="B83" s="711">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
       </c>
       <c r="D83" s="711">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="E83" t="s">
@@ -16967,24 +17016,24 @@
         <v>2114</v>
       </c>
       <c r="G83" s="711">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>17</v>
       </c>
       <c r="H83">
-        <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>8</v>
       </c>
       <c r="I83">
-        <f t="shared" ca="1" si="10"/>
-        <v>22</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>7</v>
       </c>
       <c r="J83" s="710">
-        <f t="shared" ca="1" si="11"/>
-        <v>1962</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1969</v>
       </c>
       <c r="M83" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Joseph James Male Medium_spring_bud 5/22/1962</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Joseph James Male Medium_spring_bud 8/7/1969</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -16992,14 +17041,14 @@
         <v>21</v>
       </c>
       <c r="B84" s="711">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="C84" t="s">
         <v>133</v>
       </c>
       <c r="D84" s="711">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="E84" t="s">
@@ -17009,24 +17058,24 @@
         <v>2115</v>
       </c>
       <c r="G84" s="711">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>19</v>
       </c>
       <c r="H84">
-        <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>7</v>
       </c>
       <c r="I84">
-        <f t="shared" ca="1" si="10"/>
-        <v>17</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>10</v>
       </c>
       <c r="J84" s="710">
-        <f t="shared" ca="1" si="11"/>
-        <v>2002</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1965</v>
       </c>
       <c r="M84" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Thomas Watson Male Medium_spring_green 2/17/2002</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Thomas Watson Male Medium_spring_green 7/10/1965</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -17034,14 +17083,14 @@
         <v>23</v>
       </c>
       <c r="B85" s="711">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="C85" t="s">
         <v>134</v>
       </c>
       <c r="D85" s="711">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="E85" t="s">
@@ -17051,24 +17100,24 @@
         <v>2116</v>
       </c>
       <c r="G85" s="711">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="H85">
-        <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>9</v>
       </c>
       <c r="I85">
-        <f t="shared" ca="1" si="10"/>
-        <v>12</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>14</v>
       </c>
       <c r="J85" s="710">
-        <f t="shared" ca="1" si="11"/>
-        <v>1991</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1996</v>
       </c>
       <c r="M85" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Charles Brooks Male Medium_taupe 7/12/1991</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Charles Brooks Male Medium_taupe 9/14/1996</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -17076,14 +17125,14 @@
         <v>25</v>
       </c>
       <c r="B86" s="711">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="C86" t="s">
         <v>135</v>
       </c>
       <c r="D86" s="711">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="E86" t="s">
@@ -17093,24 +17142,24 @@
         <v>2117</v>
       </c>
       <c r="G86" s="711">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="H86">
-        <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>7</v>
       </c>
       <c r="I86">
-        <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>17</v>
       </c>
       <c r="J86" s="710">
-        <f t="shared" ca="1" si="11"/>
-        <v>1988</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1982</v>
       </c>
       <c r="M86" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Christopher Kelly Male Medium_teal_blue 3/6/1988</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Christopher Kelly Male Medium_teal_blue 7/17/1982</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -17118,14 +17167,14 @@
         <v>27</v>
       </c>
       <c r="B87" s="711">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="C87" t="s">
         <v>101</v>
       </c>
       <c r="D87" s="711">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="E87" t="s">
@@ -17135,24 +17184,24 @@
         <v>2118</v>
       </c>
       <c r="G87" s="711">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="H87">
-        <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>11</v>
       </c>
       <c r="I87">
-        <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>2</v>
       </c>
       <c r="J87" s="710">
-        <f t="shared" ca="1" si="11"/>
-        <v>1942</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>2006</v>
       </c>
       <c r="M87" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Daniel Nelson Male Medium_turquoise 8/5/1942</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Daniel Nelson Male Medium_turquoise 11/2/2006</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -17160,14 +17209,14 @@
         <v>29</v>
       </c>
       <c r="B88" s="711">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="C88" t="s">
         <v>102</v>
       </c>
       <c r="D88" s="711">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="E88" t="s">
@@ -17177,24 +17226,24 @@
         <v>2119</v>
       </c>
       <c r="G88" s="711">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>17</v>
       </c>
       <c r="H88">
-        <f t="shared" ca="1" si="9"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>3</v>
       </c>
       <c r="I88">
-        <f t="shared" ca="1" si="10"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>28</v>
       </c>
       <c r="J88" s="710">
-        <f t="shared" ca="1" si="11"/>
-        <v>1996</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1952</v>
       </c>
       <c r="M88" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Matthew Carter Male Medium_violet_red 9/8/1996</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Matthew Carter Male Medium_violet_red 3/28/1952</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -17202,14 +17251,14 @@
         <v>31</v>
       </c>
       <c r="B89" s="711">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="C89" t="s">
         <v>103</v>
       </c>
       <c r="D89" s="711">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="E89" t="s">
@@ -17219,24 +17268,24 @@
         <v>1274</v>
       </c>
       <c r="G89" s="711">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="H89">
-        <f t="shared" ca="1" si="9"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>2</v>
       </c>
       <c r="I89">
-        <f t="shared" ca="1" si="10"/>
-        <v>23</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>6</v>
       </c>
       <c r="J89" s="710">
-        <f t="shared" ca="1" si="11"/>
-        <v>1943</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>2012</v>
       </c>
       <c r="M89" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Anthony Mitchell Male Melon 9/23/1943</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Anthony Mitchell Male Melon 2/6/2012</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -17244,14 +17293,14 @@
         <v>33</v>
       </c>
       <c r="B90" s="711">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="C90" t="s">
         <v>104</v>
       </c>
       <c r="D90" s="711">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="E90" t="s">
@@ -17261,24 +17310,24 @@
         <v>2120</v>
       </c>
       <c r="G90" s="711">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="H90">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>12</v>
       </c>
       <c r="I90">
-        <f t="shared" ca="1" si="10"/>
-        <v>19</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>21</v>
       </c>
       <c r="J90" s="710">
-        <f t="shared" ca="1" si="11"/>
-        <v>1944</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1942</v>
       </c>
       <c r="M90" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Donald Perez Male Midnight_blue 12/19/1944</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Donald Perez Male Midnight_blue 12/21/1942</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -17286,14 +17335,14 @@
         <v>35</v>
       </c>
       <c r="B91" s="711">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="C91" t="s">
         <v>105</v>
       </c>
       <c r="D91" s="711">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="E91" t="s">
@@ -17303,24 +17352,24 @@
         <v>2121</v>
       </c>
       <c r="G91" s="711">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="H91">
-        <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>11</v>
       </c>
       <c r="I91">
-        <f t="shared" ca="1" si="10"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>21</v>
       </c>
       <c r="J91" s="710">
-        <f t="shared" ca="1" si="11"/>
-        <v>1980</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1948</v>
       </c>
       <c r="M91" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Mark Roberts Male Midnight_green 3/10/1980</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Mark Roberts Male Midnight_green 11/21/1948</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -17328,14 +17377,14 @@
         <v>37</v>
       </c>
       <c r="B92" s="711">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="C92" t="s">
         <v>106</v>
       </c>
       <c r="D92" s="711">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="E92" t="s">
@@ -17345,24 +17394,24 @@
         <v>2122</v>
       </c>
       <c r="G92" s="711">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="H92">
-        <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>11</v>
       </c>
       <c r="I92">
-        <f t="shared" ca="1" si="10"/>
-        <v>18</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>11</v>
       </c>
       <c r="J92" s="710">
-        <f t="shared" ca="1" si="11"/>
-        <v>1945</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>2000</v>
       </c>
       <c r="M92" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Paul Turner Male Mikado_yellow 7/18/1945</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Paul Turner Male Mikado_yellow 11/11/2000</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -17370,14 +17419,14 @@
         <v>39</v>
       </c>
       <c r="B93" s="711">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="C93" t="s">
         <v>107</v>
       </c>
       <c r="D93" s="711">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="E93" t="s">
@@ -17387,24 +17436,24 @@
         <v>1285</v>
       </c>
       <c r="G93" s="711">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="H93">
-        <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>10</v>
       </c>
       <c r="I93">
-        <f t="shared" ca="1" si="10"/>
-        <v>20</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>27</v>
       </c>
       <c r="J93" s="710">
-        <f t="shared" ca="1" si="11"/>
-        <v>1947</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1962</v>
       </c>
       <c r="M93" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Steven Phillips Male Mint 7/20/1947</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Steven Phillips Male Mint 10/27/1962</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -17412,14 +17461,14 @@
         <v>41</v>
       </c>
       <c r="B94" s="711">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="C94" t="s">
         <v>108</v>
       </c>
       <c r="D94" s="711">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="E94" t="s">
@@ -17429,24 +17478,24 @@
         <v>2123</v>
       </c>
       <c r="G94" s="711">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="H94">
-        <f t="shared" ca="1" si="9"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>6</v>
       </c>
       <c r="I94">
-        <f t="shared" ca="1" si="10"/>
-        <v>20</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>14</v>
       </c>
       <c r="J94" s="710">
-        <f t="shared" ca="1" si="11"/>
-        <v>1987</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1949</v>
       </c>
       <c r="M94" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>George Campbell Male Mint_cream 9/20/1987</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>George Campbell Male Mint_cream 6/14/1949</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -17454,14 +17503,14 @@
         <v>43</v>
       </c>
       <c r="B95" s="711">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="C95" t="s">
         <v>109</v>
       </c>
       <c r="D95" s="711">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="E95" t="s">
@@ -17471,24 +17520,24 @@
         <v>2124</v>
       </c>
       <c r="G95" s="711">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="H95">
-        <f t="shared" ca="1" si="9"/>
-        <v>11</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>6</v>
       </c>
       <c r="I95">
-        <f t="shared" ca="1" si="10"/>
-        <v>19</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>26</v>
       </c>
       <c r="J95" s="710">
-        <f t="shared" ca="1" si="11"/>
-        <v>1960</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1976</v>
       </c>
       <c r="M95" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Kenneth Parker Male Mint_green 11/19/1960</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Kenneth Parker Male Mint_green 6/26/1976</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -17496,14 +17545,14 @@
         <v>45</v>
       </c>
       <c r="B96" s="711">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="C96" t="s">
         <v>110</v>
       </c>
       <c r="D96" s="711">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="E96" t="s">
@@ -17513,24 +17562,24 @@
         <v>2125</v>
       </c>
       <c r="G96" s="711">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="H96">
-        <f t="shared" ca="1" si="9"/>
-        <v>12</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>2</v>
       </c>
       <c r="I96">
-        <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>26</v>
       </c>
       <c r="J96" s="710">
-        <f t="shared" ca="1" si="11"/>
-        <v>1993</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>2002</v>
       </c>
       <c r="M96" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Andrew Evans Male Misty_rose 12/2/1993</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Andrew Evans Male Misty_rose 2/26/2002</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -17538,14 +17587,14 @@
         <v>47</v>
       </c>
       <c r="B97" s="711">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="C97" t="s">
         <v>111</v>
       </c>
       <c r="D97" s="711">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="E97" t="s">
@@ -17555,24 +17604,24 @@
         <v>1296</v>
       </c>
       <c r="G97" s="711">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="H97">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>9</v>
       </c>
       <c r="I97">
-        <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>11</v>
       </c>
       <c r="J97" s="710">
-        <f t="shared" ca="1" si="11"/>
-        <v>1962</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1977</v>
       </c>
       <c r="M97" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Joshua Edwards Male Moccasin 9/6/1962</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Joshua Edwards Male Moccasin 9/11/1977</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -17580,14 +17629,14 @@
         <v>49</v>
       </c>
       <c r="B98" s="711">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="C98" t="s">
         <v>112</v>
       </c>
       <c r="D98" s="711">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="E98" t="s">
@@ -17597,24 +17646,24 @@
         <v>2126</v>
       </c>
       <c r="G98" s="711">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="H98">
-        <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>4</v>
       </c>
       <c r="I98">
-        <f t="shared" ca="1" si="10"/>
-        <v>25</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>6</v>
       </c>
       <c r="J98" s="710">
-        <f t="shared" ca="1" si="11"/>
-        <v>2013</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1963</v>
       </c>
       <c r="M98" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Edward Collins Male Mode_beige 3/25/2013</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Edward Collins Male Mode_beige 4/6/1963</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -17622,14 +17671,14 @@
         <v>51</v>
       </c>
       <c r="B99" s="711">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="C99" t="s">
         <v>113</v>
       </c>
       <c r="D99" s="711">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="E99" t="s">
@@ -17639,24 +17688,24 @@
         <v>2127</v>
       </c>
       <c r="G99" s="711">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="H99">
-        <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>7</v>
       </c>
       <c r="I99">
-        <f t="shared" ca="1" si="10"/>
-        <v>16</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>12</v>
       </c>
       <c r="J99" s="710">
-        <f t="shared" ca="1" si="11"/>
-        <v>1964</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1992</v>
       </c>
       <c r="M99" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Brian Stewart Male Moonstone_blue 2/16/1964</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Brian Stewart Male Moonstone_blue 7/12/1992</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -17664,14 +17713,14 @@
         <v>53</v>
       </c>
       <c r="B100" s="711">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="C100" t="s">
         <v>114</v>
       </c>
       <c r="D100" s="711">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="E100" t="s">
@@ -17681,24 +17730,24 @@
         <v>2128</v>
       </c>
       <c r="G100" s="711">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="H100">
-        <f t="shared" ca="1" si="9"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>12</v>
       </c>
       <c r="I100">
-        <f t="shared" ca="1" si="10"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>17</v>
       </c>
       <c r="J100" s="710">
-        <f t="shared" ca="1" si="11"/>
-        <v>1979</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1963</v>
       </c>
       <c r="M100" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Kevin Sanchez Male Mordant_red_19 9/8/1979</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Kevin Sanchez Male Mordant_red_19 12/17/1963</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -17706,14 +17755,14 @@
         <v>6</v>
       </c>
       <c r="B101" s="711">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="C101" t="s">
         <v>115</v>
       </c>
       <c r="D101" s="711">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="E101" t="s">
@@ -17723,24 +17772,24 @@
         <v>2129</v>
       </c>
       <c r="G101" s="711">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="H101">
-        <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>4</v>
       </c>
       <c r="I101">
-        <f t="shared" ca="1" si="10"/>
-        <v>21</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>16</v>
       </c>
       <c r="J101" s="710">
-        <f t="shared" ca="1" si="11"/>
-        <v>1958</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>2003</v>
       </c>
       <c r="M101" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Mary Morris Female Moss_green 6/21/1958</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Mary Morris Female Moss_green 4/16/2003</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -17748,14 +17797,14 @@
         <v>8</v>
       </c>
       <c r="B102" s="711">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="C102" t="s">
         <v>116</v>
       </c>
       <c r="D102" s="711">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="E102" t="s">
@@ -17765,24 +17814,24 @@
         <v>2130</v>
       </c>
       <c r="G102" s="711">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="H102">
-        <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>2</v>
       </c>
       <c r="I102">
-        <f t="shared" ca="1" si="10"/>
-        <v>27</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>12</v>
       </c>
       <c r="J102" s="710">
-        <f t="shared" ca="1" si="11"/>
-        <v>1978</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1964</v>
       </c>
       <c r="M102" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Patricia Rogers Female Mountain_Meadow 5/27/1978</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Patricia Rogers Female Mountain_Meadow 2/12/1964</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -17790,14 +17839,14 @@
         <v>10</v>
       </c>
       <c r="B103" s="711">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="C103" t="s">
         <v>117</v>
       </c>
       <c r="D103" s="711">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="E103" t="s">
@@ -17807,24 +17856,24 @@
         <v>2131</v>
       </c>
       <c r="G103" s="711">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="H103">
-        <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>9</v>
       </c>
       <c r="I103">
-        <f t="shared" ca="1" si="10"/>
-        <v>15</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>18</v>
       </c>
       <c r="J103" s="710">
-        <f t="shared" ca="1" si="11"/>
-        <v>1986</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1994</v>
       </c>
       <c r="M103" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Jennifer Reed Female Mountbatten_pink 7/15/1986</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Jennifer Reed Female Mountbatten_pink 9/18/1994</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -17832,14 +17881,14 @@
         <v>12</v>
       </c>
       <c r="B104" s="711">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="C104" t="s">
         <v>118</v>
       </c>
       <c r="D104" s="711">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="E104" t="s">
@@ -17849,24 +17898,24 @@
         <v>2132</v>
       </c>
       <c r="G104" s="711">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="H104">
-        <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>6</v>
       </c>
       <c r="I104">
-        <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>4</v>
       </c>
       <c r="J104" s="710">
-        <f t="shared" ca="1" si="11"/>
-        <v>1990</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1993</v>
       </c>
       <c r="M104" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Elizabeth Cook Female MSU_Green 7/5/1990</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Elizabeth Cook Female MSU_Green 6/4/1993</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -17874,14 +17923,14 @@
         <v>14</v>
       </c>
       <c r="B105" s="711">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="C105" t="s">
         <v>119</v>
       </c>
       <c r="D105" s="711">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="E105" t="s">
@@ -17891,24 +17940,24 @@
         <v>1312</v>
       </c>
       <c r="G105" s="711">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="H105">
-        <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>12</v>
       </c>
       <c r="I105">
-        <f t="shared" ca="1" si="10"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>9</v>
       </c>
       <c r="J105" s="710">
-        <f t="shared" ca="1" si="11"/>
-        <v>1987</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>2013</v>
       </c>
       <c r="M105" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Linda Morgan Female Mulberry 10/4/1987</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Linda Morgan Female Mulberry 12/9/2013</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -17916,14 +17965,14 @@
         <v>16</v>
       </c>
       <c r="B106" s="711">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="C106" t="s">
         <v>120</v>
       </c>
       <c r="D106" s="711">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="E106" t="s">
@@ -17933,24 +17982,24 @@
         <v>1315</v>
       </c>
       <c r="G106" s="711">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="H106">
-        <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>6</v>
       </c>
       <c r="I106">
-        <f t="shared" ca="1" si="10"/>
-        <v>16</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>28</v>
       </c>
       <c r="J106" s="710">
-        <f t="shared" ca="1" si="11"/>
-        <v>1958</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1998</v>
       </c>
       <c r="M106" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Barbara Bell Female Munsell 3/16/1958</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Barbara Bell Female Munsell 6/28/1998</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -17958,14 +18007,14 @@
         <v>18</v>
       </c>
       <c r="B107" s="711">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="C107" t="s">
         <v>121</v>
       </c>
       <c r="D107" s="711">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="E107" t="s">
@@ -17975,24 +18024,24 @@
         <v>1316</v>
       </c>
       <c r="G107" s="711">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="H107">
-        <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>9</v>
       </c>
       <c r="I107">
-        <f t="shared" ca="1" si="10"/>
-        <v>18</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>27</v>
       </c>
       <c r="J107" s="710">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="15"/>
         <v>1974</v>
       </c>
       <c r="M107" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Susan Murphy Female Mustard 6/18/1974</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Susan Murphy Female Mustard 9/27/1974</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -18000,14 +18049,14 @@
         <v>20</v>
       </c>
       <c r="B108" s="711">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="C108" t="s">
         <v>122</v>
       </c>
       <c r="D108" s="711">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="E108" t="s">
@@ -18017,24 +18066,24 @@
         <v>1319</v>
       </c>
       <c r="G108" s="711">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="H108">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>6</v>
       </c>
       <c r="I108">
-        <f t="shared" ca="1" si="10"/>
-        <v>11</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>23</v>
       </c>
       <c r="J108" s="710">
-        <f t="shared" ca="1" si="11"/>
-        <v>1984</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1959</v>
       </c>
       <c r="M108" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Jessica Bailey Female Myrtle 6/11/1984</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Jessica Bailey Female Myrtle 6/23/1959</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -18042,14 +18091,14 @@
         <v>22</v>
       </c>
       <c r="B109" s="711">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="C109" t="s">
         <v>123</v>
       </c>
       <c r="D109" s="711">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="E109" t="s">
@@ -18059,24 +18108,24 @@
         <v>2133</v>
       </c>
       <c r="G109" s="711">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="H109">
-        <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>7</v>
       </c>
       <c r="I109">
-        <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>22</v>
       </c>
       <c r="J109" s="710">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="15"/>
         <v>1989</v>
       </c>
       <c r="M109" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Margaret Rivera Female Nadeshiko_pink 8/6/1989</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Margaret Rivera Female Nadeshiko_pink 7/22/1989</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -18084,14 +18133,14 @@
         <v>24</v>
       </c>
       <c r="B110" s="711">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="C110" t="s">
         <v>124</v>
       </c>
       <c r="D110" s="711">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="E110" t="s">
@@ -18101,24 +18150,24 @@
         <v>2134</v>
       </c>
       <c r="G110" s="711">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="H110">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3</v>
       </c>
       <c r="I110">
-        <f t="shared" ca="1" si="10"/>
-        <v>22</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>21</v>
       </c>
       <c r="J110" s="710">
-        <f t="shared" ca="1" si="11"/>
-        <v>1965</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1941</v>
       </c>
       <c r="M110" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Sarah Cooper Female Napier_green 3/22/1965</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Sarah Cooper Female Napier_green 3/21/1941</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -18126,14 +18175,14 @@
         <v>26</v>
       </c>
       <c r="B111" s="711">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="C111" t="s">
         <v>125</v>
       </c>
       <c r="D111" s="711">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="E111" t="s">
@@ -18143,24 +18192,24 @@
         <v>2135</v>
       </c>
       <c r="G111" s="711">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="H111">
-        <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>6</v>
       </c>
       <c r="I111">
-        <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>26</v>
       </c>
       <c r="J111" s="710">
-        <f t="shared" ca="1" si="11"/>
-        <v>1953</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1998</v>
       </c>
       <c r="M111" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Karen Richardson Female Naples_yellow 3/6/1953</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Karen Richardson Female Naples_yellow 6/26/1998</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -18168,14 +18217,14 @@
         <v>28</v>
       </c>
       <c r="B112" s="711">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="C112" t="s">
         <v>126</v>
       </c>
       <c r="D112" s="711">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="E112" t="s">
@@ -18185,24 +18234,24 @@
         <v>2136</v>
       </c>
       <c r="G112" s="711">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="H112">
-        <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>6</v>
       </c>
       <c r="I112">
-        <f t="shared" ca="1" si="10"/>
-        <v>12</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>3</v>
       </c>
       <c r="J112" s="710">
-        <f t="shared" ca="1" si="11"/>
-        <v>1975</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1960</v>
       </c>
       <c r="M112" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Nancy Cox Female Navajo_white 5/12/1975</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Nancy Cox Female Navajo_white 6/3/1960</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -18210,14 +18259,14 @@
         <v>30</v>
       </c>
       <c r="B113" s="711">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="C113" t="s">
         <v>127</v>
       </c>
       <c r="D113" s="711">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="E113" t="s">
@@ -18227,24 +18276,24 @@
         <v>2137</v>
       </c>
       <c r="G113" s="711">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="H113">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>8</v>
       </c>
       <c r="I113">
-        <f t="shared" ca="1" si="10"/>
-        <v>18</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>2</v>
       </c>
       <c r="J113" s="710">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="15"/>
         <v>1955</v>
       </c>
       <c r="M113" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Betty Howard Female Navy_blue 8/18/1955</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Betty Howard Female Navy_blue 8/2/1955</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -18252,14 +18301,14 @@
         <v>32</v>
       </c>
       <c r="B114" s="711">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="C114" t="s">
         <v>128</v>
       </c>
       <c r="D114" s="711">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="E114" t="s">
@@ -18269,24 +18318,24 @@
         <v>2138</v>
       </c>
       <c r="G114" s="711">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
       <c r="H114">
-        <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>2</v>
       </c>
       <c r="I114">
-        <f t="shared" ca="1" si="10"/>
-        <v>25</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>8</v>
       </c>
       <c r="J114" s="710">
-        <f t="shared" ca="1" si="11"/>
-        <v>2015</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1982</v>
       </c>
       <c r="M114" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Dorothy Ward Female Neon_Carrot 10/25/2015</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Dorothy Ward Female Neon_Carrot 2/8/1982</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -18294,14 +18343,14 @@
         <v>34</v>
       </c>
       <c r="B115" s="711">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="C115" t="s">
         <v>129</v>
       </c>
       <c r="D115" s="711">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="E115" t="s">
@@ -18311,24 +18360,24 @@
         <v>2139</v>
       </c>
       <c r="G115" s="711">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="H115">
-        <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>8</v>
       </c>
       <c r="I115">
-        <f t="shared" ca="1" si="10"/>
-        <v>21</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>26</v>
       </c>
       <c r="J115" s="710">
-        <f t="shared" ca="1" si="11"/>
-        <v>1989</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1951</v>
       </c>
       <c r="M115" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Lisa Torres Female Neon_fuchsia 6/21/1989</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Lisa Torres Female Neon_fuchsia 8/26/1951</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -18336,14 +18385,14 @@
         <v>36</v>
       </c>
       <c r="B116" s="711">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="C116" t="s">
         <v>130</v>
       </c>
       <c r="D116" s="711">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="E116" t="s">
@@ -18353,24 +18402,24 @@
         <v>2140</v>
       </c>
       <c r="G116" s="711">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="H116">
-        <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>11</v>
       </c>
       <c r="I116">
-        <f t="shared" ca="1" si="10"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>25</v>
       </c>
       <c r="J116" s="710">
-        <f t="shared" ca="1" si="11"/>
-        <v>1982</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1951</v>
       </c>
       <c r="M116" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Sandra Peterson Female Neon_green 7/7/1982</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Sandra Peterson Female Neon_green 11/25/1951</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -18378,14 +18427,14 @@
         <v>38</v>
       </c>
       <c r="B117" s="711">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="C117" t="s">
         <v>131</v>
       </c>
       <c r="D117" s="711">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="E117" t="s">
@@ -18395,24 +18444,24 @@
         <v>2141</v>
       </c>
       <c r="G117" s="711">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="H117">
-        <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>8</v>
       </c>
       <c r="I117">
-        <f t="shared" ca="1" si="10"/>
-        <v>27</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>23</v>
       </c>
       <c r="J117" s="710">
-        <f t="shared" ca="1" si="11"/>
-        <v>1952</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>2014</v>
       </c>
       <c r="M117" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Ashley Gray Female Non-photo_blue 2/27/1952</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Ashley Gray Female Non-photo_blue 8/23/2014</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -18420,14 +18469,14 @@
         <v>40</v>
       </c>
       <c r="B118" s="711">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="C118" t="s">
         <v>132</v>
       </c>
       <c r="D118" s="711">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="E118" t="s">
@@ -18437,24 +18486,24 @@
         <v>2142</v>
       </c>
       <c r="G118" s="711">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>17</v>
       </c>
       <c r="H118">
-        <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>4</v>
       </c>
       <c r="I118">
-        <f t="shared" ca="1" si="10"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>22</v>
       </c>
       <c r="J118" s="710">
-        <f t="shared" ca="1" si="11"/>
-        <v>1981</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1942</v>
       </c>
       <c r="M118" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Kimberly Ramirez Female North_Texas_Green 2/4/1981</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Kimberly Ramirez Female North_Texas_Green 4/22/1942</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -18462,14 +18511,14 @@
         <v>42</v>
       </c>
       <c r="B119" s="711">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
       </c>
       <c r="D119" s="711">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="E119" t="s">
@@ -18479,24 +18528,24 @@
         <v>2143</v>
       </c>
       <c r="G119" s="711">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="H119">
-        <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>3</v>
       </c>
       <c r="I119">
-        <f t="shared" ca="1" si="10"/>
-        <v>28</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>10</v>
       </c>
       <c r="J119" s="710">
-        <f t="shared" ca="1" si="11"/>
-        <v>1948</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1987</v>
       </c>
       <c r="M119" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Donna James Female Ocean_Boat_Blue 8/28/1948</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Donna James Female Ocean_Boat_Blue 3/10/1987</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -18504,14 +18553,14 @@
         <v>44</v>
       </c>
       <c r="B120" s="711">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="C120" t="s">
         <v>133</v>
       </c>
       <c r="D120" s="711">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="E120" t="s">
@@ -18521,24 +18570,24 @@
         <v>1352</v>
       </c>
       <c r="G120" s="711">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="H120">
-        <f t="shared" ca="1" si="9"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>4</v>
       </c>
       <c r="I120">
-        <f t="shared" ca="1" si="10"/>
-        <v>15</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>7</v>
       </c>
       <c r="J120" s="710">
-        <f t="shared" ca="1" si="11"/>
-        <v>1978</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>2003</v>
       </c>
       <c r="M120" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Carol Watson Female Ochre 9/15/1978</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Carol Watson Female Ochre 4/7/2003</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -18546,14 +18595,14 @@
         <v>46</v>
       </c>
       <c r="B121" s="711">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="C121" t="s">
         <v>134</v>
       </c>
       <c r="D121" s="711">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="E121" t="s">
@@ -18563,24 +18612,24 @@
         <v>2144</v>
       </c>
       <c r="G121" s="711">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="H121">
-        <f t="shared" ca="1" si="9"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>5</v>
       </c>
       <c r="I121">
-        <f t="shared" ca="1" si="10"/>
-        <v>14</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>11</v>
       </c>
       <c r="J121" s="710">
-        <f t="shared" ca="1" si="11"/>
-        <v>1964</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>2007</v>
       </c>
       <c r="M121" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Michelle Brooks Female Office_green 9/14/1964</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Michelle Brooks Female Office_green 5/11/2007</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -18588,14 +18637,14 @@
         <v>48</v>
       </c>
       <c r="B122" s="711">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="C122" t="s">
         <v>135</v>
       </c>
       <c r="D122" s="711">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="E122" t="s">
@@ -18605,24 +18654,24 @@
         <v>2145</v>
       </c>
       <c r="G122" s="711">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="H122">
-        <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>8</v>
       </c>
       <c r="I122">
-        <f t="shared" ca="1" si="10"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>27</v>
       </c>
       <c r="J122" s="710">
-        <f t="shared" ca="1" si="11"/>
-        <v>1973</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1948</v>
       </c>
       <c r="M122" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Emily Kelly Female Old_gold 3/4/1973</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Emily Kelly Female Old_gold 8/27/1948</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -18630,14 +18679,14 @@
         <v>50</v>
       </c>
       <c r="B123" s="711">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="C123" t="s">
         <v>82</v>
       </c>
       <c r="D123" s="711">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="E123" t="s">
@@ -18647,24 +18696,24 @@
         <v>2146</v>
       </c>
       <c r="G123" s="711">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="H123">
-        <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>4</v>
       </c>
       <c r="I123">
-        <f t="shared" ca="1" si="10"/>
-        <v>26</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>18</v>
       </c>
       <c r="J123" s="710">
-        <f t="shared" ca="1" si="11"/>
-        <v>1952</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1981</v>
       </c>
       <c r="M123" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Helen King Female Old_lace 6/26/1952</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Helen King Female Old_lace 4/18/1981</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -18672,14 +18721,14 @@
         <v>52</v>
       </c>
       <c r="B124" s="711">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="C124" t="s">
         <v>83</v>
       </c>
       <c r="D124" s="711">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="E124" t="s">
@@ -18689,24 +18738,24 @@
         <v>2147</v>
       </c>
       <c r="G124" s="711">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="H124">
-        <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>5</v>
       </c>
       <c r="I124">
-        <f t="shared" ca="1" si="10"/>
-        <v>17</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>2</v>
       </c>
       <c r="J124" s="710">
-        <f t="shared" ca="1" si="11"/>
-        <v>1987</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1988</v>
       </c>
       <c r="M124" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Amanda Wright Female Old_lavender 10/17/1987</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Amanda Wright Female Old_lavender 5/2/1988</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -18714,14 +18763,14 @@
         <v>6</v>
       </c>
       <c r="B125" s="711">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="C125" t="s">
         <v>84</v>
       </c>
       <c r="D125" s="711">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="E125" t="s">
@@ -18731,24 +18780,24 @@
         <v>2148</v>
       </c>
       <c r="G125" s="711">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="H125">
-        <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>9</v>
       </c>
       <c r="I125">
-        <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>10</v>
       </c>
       <c r="J125" s="710">
-        <f t="shared" ca="1" si="11"/>
-        <v>1952</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1992</v>
       </c>
       <c r="M125" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Mary Lopez Female Old_mauve 3/2/1952</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Mary Lopez Female Old_mauve 9/10/1992</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -18756,14 +18805,14 @@
         <v>8</v>
       </c>
       <c r="B126" s="711">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="C126" t="s">
         <v>85</v>
       </c>
       <c r="D126" s="711">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="E126" t="s">
@@ -18773,24 +18822,24 @@
         <v>2149</v>
       </c>
       <c r="G126" s="711">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="H126">
-        <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>11</v>
       </c>
       <c r="I126">
-        <f t="shared" ca="1" si="10"/>
-        <v>15</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>19</v>
       </c>
       <c r="J126" s="710">
-        <f t="shared" ca="1" si="11"/>
-        <v>1988</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1998</v>
       </c>
       <c r="M126" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Patricia Hill Female Old_rose 10/15/1988</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Patricia Hill Female Old_rose 11/19/1998</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -18798,14 +18847,14 @@
         <v>10</v>
       </c>
       <c r="B127" s="711">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="C127" t="s">
         <v>86</v>
       </c>
       <c r="D127" s="711">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="E127" t="s">
@@ -18815,24 +18864,24 @@
         <v>1368</v>
       </c>
       <c r="G127" s="711">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="H127">
-        <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>2</v>
       </c>
       <c r="I127">
-        <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>14</v>
       </c>
       <c r="J127" s="710">
-        <f t="shared" ca="1" si="11"/>
-        <v>2005</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1968</v>
       </c>
       <c r="M127" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Jennifer Scott Female Olive 10/2/2005</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Jennifer Scott Female Olive 2/14/1968</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -18840,14 +18889,14 @@
         <v>12</v>
       </c>
       <c r="B128" s="711">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="C128" t="s">
         <v>87</v>
       </c>
       <c r="D128" s="711">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="E128" t="s">
@@ -18857,24 +18906,24 @@
         <v>2150</v>
       </c>
       <c r="G128" s="711">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="H128">
-        <f t="shared" ca="1" si="9"/>
-        <v>12</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>6</v>
       </c>
       <c r="I128">
-        <f t="shared" ca="1" si="10"/>
-        <v>26</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>22</v>
       </c>
       <c r="J128" s="710">
-        <f t="shared" ca="1" si="11"/>
-        <v>1982</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1943</v>
       </c>
       <c r="M128" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Elizabeth Green Female Olive_Drab 12/26/1982</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Elizabeth Green Female Olive_Drab 6/22/1943</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -18882,14 +18931,14 @@
         <v>14</v>
       </c>
       <c r="B129" s="711">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="C129" t="s">
         <v>88</v>
       </c>
       <c r="D129" s="711">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="E129" t="s">
@@ -18899,24 +18948,24 @@
         <v>2151</v>
       </c>
       <c r="G129" s="711">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
       <c r="H129">
-        <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>5</v>
       </c>
       <c r="I129">
-        <f t="shared" ca="1" si="10"/>
-        <v>24</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>19</v>
       </c>
       <c r="J129" s="710">
-        <f t="shared" ca="1" si="11"/>
-        <v>1998</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>2013</v>
       </c>
       <c r="M129" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Linda Adams Female Olive_Green 10/24/1998</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Linda Adams Female Olive_Green 5/19/2013</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -18924,14 +18973,14 @@
         <v>16</v>
       </c>
       <c r="B130" s="711">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="C130" t="s">
         <v>89</v>
       </c>
       <c r="D130" s="711">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="E130" t="s">
@@ -18941,24 +18990,24 @@
         <v>1375</v>
       </c>
       <c r="G130" s="711">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="H130">
-        <f t="shared" ca="1" si="9"/>
-        <v>12</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>7</v>
       </c>
       <c r="I130">
-        <f t="shared" ca="1" si="10"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>28</v>
       </c>
       <c r="J130" s="710">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="15"/>
         <v>1978</v>
       </c>
       <c r="M130" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Barbara Baker Female Olivine 12/8/1978</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Barbara Baker Female Olivine 7/28/1978</v>
       </c>
     </row>
     <row r="131" spans="1:13">
@@ -18966,14 +19015,14 @@
         <v>18</v>
       </c>
       <c r="B131" s="711">
-        <f t="shared" ref="B131:B135" si="13">LEN(A131)</f>
+        <f t="shared" ref="B131:B135" si="17">LEN(A131)</f>
         <v>5</v>
       </c>
       <c r="C131" t="s">
         <v>90</v>
       </c>
       <c r="D131" s="711">
-        <f t="shared" ref="D131:D135" si="14">LEN(C131)</f>
+        <f t="shared" ref="D131:D135" si="18">LEN(C131)</f>
         <v>8</v>
       </c>
       <c r="E131" t="s">
@@ -18983,24 +19032,24 @@
         <v>1378</v>
       </c>
       <c r="G131" s="711">
-        <f t="shared" ref="G131:G135" si="15">LEN(F131)</f>
+        <f t="shared" ref="G131:G135" si="19">LEN(F131)</f>
         <v>4</v>
       </c>
       <c r="H131">
-        <f t="shared" ref="H131:H135" ca="1" si="16" xml:space="preserve"> _xlfn.CEILING.MATH(RAND()*11 + 1)</f>
-        <v>9</v>
+        <f t="shared" ref="H131:H135" ca="1" si="20" xml:space="preserve"> _xlfn.CEILING.MATH(RAND()*11 + 1)</f>
+        <v>10</v>
       </c>
       <c r="I131">
-        <f t="shared" ref="I131:I135" ca="1" si="17" xml:space="preserve"> _xlfn.CEILING.MATH(RAND()*27 + 1)</f>
-        <v>24</v>
+        <f t="shared" ref="I131:I135" ca="1" si="21" xml:space="preserve"> _xlfn.CEILING.MATH(RAND()*27 + 1)</f>
+        <v>27</v>
       </c>
       <c r="J131" s="710">
-        <f t="shared" ref="J131:J135" ca="1" si="18">_xlfn.CEILING.MATH(RAND()*75 + 1940)</f>
-        <v>1993</v>
+        <f t="shared" ref="J131:J135" ca="1" si="22">_xlfn.CEILING.MATH(RAND()*75 + 1940)</f>
+        <v>1951</v>
       </c>
       <c r="M131" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Susan Gonzalez Female Onyx 9/24/1993</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Susan Gonzalez Female Onyx 10/27/1951</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -19008,14 +19057,14 @@
         <v>20</v>
       </c>
       <c r="B132" s="711">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="C132" t="s">
         <v>71</v>
       </c>
       <c r="D132" s="711">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>8</v>
       </c>
       <c r="E132" t="s">
@@ -19025,24 +19074,24 @@
         <v>2152</v>
       </c>
       <c r="G132" s="711">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>11</v>
       </c>
       <c r="H132">
+        <f t="shared" ca="1" si="20"/>
+        <v>5</v>
+      </c>
+      <c r="I132">
+        <f t="shared" ca="1" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="J132" s="710">
+        <f t="shared" ca="1" si="22"/>
+        <v>1961</v>
+      </c>
+      <c r="M132" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>4</v>
-      </c>
-      <c r="I132">
-        <f t="shared" ca="1" si="17"/>
-        <v>23</v>
-      </c>
-      <c r="J132" s="710">
-        <f t="shared" ca="1" si="18"/>
-        <v>1983</v>
-      </c>
-      <c r="M132" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Jessica Martinez Female Opera_mauve 4/23/1983</v>
+        <v>Jessica Martinez Female Opera_mauve 5/14/1961</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -19050,14 +19099,14 @@
         <v>22</v>
       </c>
       <c r="B133" s="711">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="C133" t="s">
         <v>72</v>
       </c>
       <c r="D133" s="711">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>8</v>
       </c>
       <c r="E133" t="s">
@@ -19067,24 +19116,24 @@
         <v>94</v>
       </c>
       <c r="G133" s="711">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
       <c r="H133">
+        <f t="shared" ca="1" si="20"/>
+        <v>10</v>
+      </c>
+      <c r="I133">
+        <f t="shared" ca="1" si="21"/>
+        <v>26</v>
+      </c>
+      <c r="J133" s="710">
+        <f t="shared" ca="1" si="22"/>
+        <v>1969</v>
+      </c>
+      <c r="M133" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>10</v>
-      </c>
-      <c r="I133">
-        <f t="shared" ca="1" si="17"/>
-        <v>14</v>
-      </c>
-      <c r="J133" s="710">
-        <f t="shared" ca="1" si="18"/>
-        <v>2004</v>
-      </c>
-      <c r="M133" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Margaret Robinson Female Orange 10/14/2004</v>
+        <v>Margaret Robinson Female Orange 10/26/1969</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -19092,14 +19141,14 @@
         <v>24</v>
       </c>
       <c r="B134" s="711">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="C134" t="s">
         <v>73</v>
       </c>
       <c r="D134" s="711">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="E134" t="s">
@@ -19109,24 +19158,24 @@
         <v>2153</v>
       </c>
       <c r="G134" s="711">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>11</v>
       </c>
       <c r="H134">
+        <f t="shared" ca="1" si="20"/>
+        <v>9</v>
+      </c>
+      <c r="I134">
+        <f t="shared" ca="1" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="J134" s="710">
+        <f t="shared" ca="1" si="22"/>
+        <v>1990</v>
+      </c>
+      <c r="M134" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>10</v>
-      </c>
-      <c r="I134">
-        <f t="shared" ca="1" si="17"/>
-        <v>13</v>
-      </c>
-      <c r="J134" s="710">
-        <f t="shared" ca="1" si="18"/>
-        <v>1967</v>
-      </c>
-      <c r="M134" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Sarah Clark Female Orange_peel 10/13/1967</v>
+        <v>Sarah Clark Female Orange_peel 9/3/1990</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -19134,14 +19183,14 @@
         <v>26</v>
       </c>
       <c r="B135" s="711">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="C135" t="s">
         <v>74</v>
       </c>
       <c r="D135" s="711">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>9</v>
       </c>
       <c r="E135" t="s">
@@ -19151,24 +19200,24 @@
         <v>2154</v>
       </c>
       <c r="G135" s="711">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="H135">
+        <f t="shared" ca="1" si="20"/>
+        <v>12</v>
+      </c>
+      <c r="I135">
+        <f t="shared" ca="1" si="21"/>
+        <v>17</v>
+      </c>
+      <c r="J135" s="710">
+        <f t="shared" ca="1" si="22"/>
+        <v>1947</v>
+      </c>
+      <c r="M135" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>5</v>
-      </c>
-      <c r="I135">
-        <f t="shared" ca="1" si="17"/>
-        <v>16</v>
-      </c>
-      <c r="J135" s="710">
-        <f t="shared" ca="1" si="18"/>
-        <v>1970</v>
-      </c>
-      <c r="M135" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Karen Rodriguez Female Orange_red 5/16/1970</v>
+        <v>Karen Rodriguez Female Orange_red 12/17/1947</v>
       </c>
     </row>
     <row r="137" spans="1:13">
